--- a/dataset/lg/kukkuteswara.xlsx
+++ b/dataset/lg/kukkuteswara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీకరధవళాంగ, శ్రితజనావనసంగ, | కరనివిష్టకురంగ, పురవిభంగ,
 తరణిచంద్రరథాంగ, ధరణీతలశతాంగ, | విదళితానంగ, గోవృషతురంగ,
@@ -477,63 +474,57 @@
 మునిమనోంబుజభృంగ, ఘనసమరాభంగ, | అతిదయాపాంగ, పుణ్యాంతరంగ,</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('క', '|'), ('ర', '|'), ('ధ', '|'), ('వ', '|'), ('ళాం', 'U'), ('గ', 'U'), ('శ్రి', '|'), ('త', '|'), ('జ', '|'), ('నా', 'U'), ('వ', '|'), ('న', '|'), ('సం', 'U'), ('గ', '|'), ('క', '|'), ('ర', '|'), ('ని', '|'), ('వి', 'U'), ('ష్ట', '|'), ('కు', '|'), ('రం', 'U'), ('గ', '|'), ('పు', '|'), ('ర', '|'), ('వి', '|'), ('భం', 'U'), ('గ', '|'), ('త', '|'), ('ర', '|'), ('ణి', '|'), ('చం', 'U'), ('ద్ర', '|'), ('ర', '|'), ('థాం', 'U'), ('గ', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('త', '|'), ('ల', '|'), ('శ', '|'), ('తాం', 'U'), ('గ', '|'), ('వి', '|'), ('ద', '|'), ('ళి', '|'), ('తా', 'U'), ('నం', 'U'), ('గ', '|'), ('గో', 'U'), ('వృ', '|'), ('ష', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యీ', 'U'), ('కృ', '|'), ('త', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('వి', '|'), ('ల', '|'), ('సి', '|'), ('త', '|'), ('ఖ', 'U'), ('ట్వాం', 'U'), ('గ', '|'), ('ధృ', '|'), ('త', '|'), ('న', '|'), ('భో', 'U'), ('గం', 'U'), ('గ', '|'), ('వా', 'U'), ('ర్ని', '|'), ('ధి', '|'), ('ని', '|'), ('షం', 'U'), ('గ', '|'), ('ము', '|'), ('ని', '|'), ('మ', '|'), ('నోం', 'U'), ('బు', '|'), ('జ', '|'), ('భృం', 'U'), ('గ', '|'), ('ఘ', '|'), ('న', '|'), ('స', '|'), ('మ', '|'), ('రా', 'U'), ('భం', 'U'), ('గ', '|'), ('అ', '|'), ('తి', '|'), ('ద', '|'), ('యా', 'U'), ('పాం', 'U'), ('గ', '|'), ('పు', 'U'), ('ణ్యాం', 'U'), ('త', '|'), ('రం', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>శైలజానుంగ, నీకొక శతక మిపుడు | కూర్చి యర్పింతుఁ గైకొమ్ము, కోర్కె లిమ్ము,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>శైలజానుంగ, నీకొక శతక మిపుడు | కూర్చి యర్పింతుఁ గైకొమ్ము, కోర్కె లిమ్ము,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('శై', 'U'), ('ల', '|'), ('జా', 'U'), ('నుం', 'U'), ('గ', '|'), ('నీ', 'U'), ('కొ', '|'), ('క', '|'), ('శ', '|'), ('త', '|'), ('క', '|'), ('మి', '|'), ('పు', '|'), ('డు', '|'), ('కూ', 'U'), ('ర్చి', '|'), ('య', 'U'), ('ర్పిం', 'U'), ('తు', '|'), ('గై', 'U'), ('కొ', 'U'), ('మ్ము', '|'), ('కో', 'U'), ('ర్కె', '|'), ('లి', 'U'), ('మ్ము', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>కొక్కుఁ జొక్కువయాళి జక్కి నెక్కెడి వేల్పు | మినుసికయెకిమీని యనుఁగుఁబట్టి
 మేల్కడాని పసిండిమేని జేజేమిన్న | యిద్దఱుతల్లుల ముద్దుఁగొడుకు
@@ -541,63 +532,57 @@
 చిలువజన్నిదముల చెలువుండు సికను లేఁ- | దొగవిందుతునె పూను సొగసుకాఁడు</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('కొ', 'U'), ('క్కు', '|'), ('జొ', 'U'), ('క్కు', '|'), ('వ', '|'), ('యా', 'U'), ('ళి', '|'), ('జ', 'U'), ('క్కి', '|'), ('నె', 'U'), ('క్కె', '|'), ('డి', '|'), ('వే', 'U'), ('ల్పు', '|'), ('మి', '|'), ('ను', '|'), ('సి', '|'), ('క', '|'), ('యె', '|'), ('కి', '|'), ('మీ', 'U'), ('ని', '|'), ('య', '|'), ('ను', '|'), ('గు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('మే', 'U'), ('ల్క', '|'), ('డా', 'U'), ('ని', '|'), ('ప', '|'), ('సిం', 'U'), ('డి', '|'), ('మే', 'U'), ('ని', '|'), ('జే', 'U'), ('జే', 'U'), ('మి', 'U'), ('న్న', '|'), ('యి', 'U'), ('ద్ద', '|'), ('ఱు', '|'), ('త', 'U'), ('ల్లు', '|'), ('ల', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గొ', '|'), ('డు', '|'), ('కు', '|'), ('గు', 'U'), ('జ్జు', '|'), ('దే', 'U'), ('వ', '|'), ('ర', 'U'), ('వ్రే', 'U'), ('లు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('మే', 'U'), ('టి', '|'), ('మ', '|'), ('గం', 'U'), ('డు', '|'), ('మొ', '|'), ('ల', '|'), ('క', '|'), ('పూ', 'U'), ('వు', '|'), ('ల', '|'), ('పూ', 'U'), ('జ', '|'), ('న', '|'), ('ల', '|'), ('రు', '|'), ('వ', '|'), ('ల', '|'), ('తి', '|'), ('చి', '|'), ('లు', '|'), ('వ', '|'), ('జ', 'U'), ('న్ని', '|'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('చె', '|'), ('లు', '|'), ('వుం', 'U'), ('డు', '|'), ('సి', '|'), ('క', '|'), ('ను', '|'), ('లే', 'U'), ('దొ', '|'), ('గ', '|'), ('విం', 'U'), ('దు', '|'), ('తు', '|'), ('నె', '|'), ('పూ', 'U'), ('ను', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('కా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నను గజాననుఁ డెపుడు నిన్ బొగడు కృతులఁ | జిరకృపాస్ఫూర్తి సంపూర్తి సేయుచుండు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>నను గజాననుఁ డెపుడు నిన్ బొగడు కృతులఁ | జిరకృపాస్ఫూర్తి సంపూర్తి సేయుచుండు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('గ', '|'), ('జా', 'U'), ('న', '|'), ('ను', '|'), ('డె', '|'), ('పు', '|'), ('డు', '|'), ('నిన్', 'U'), ('బొ', '|'), ('గ', '|'), ('డు', '|'), ('కృ', '|'), ('తు', '|'), ('ల', '|'), ('జి', '|'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('సం', 'U'), ('పూ', 'U'), ('ర్తి', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>గురుతరకౌండిన్యగోత్ర పవిత్రుండ | గంగనమంత్రిశేఖరుని సుతుఁడ
 కూచిమంచన్వయాకూపార చంద్రుండ | వితతతావకకృపావీక్షణాప్త-
@@ -605,63 +590,57 @@
 ఘన దెందులూరి లింగన గురూత్తమదత్త | సారశైవాచార సంగ్రహుఁడను</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('కౌం', 'U'), ('డి', 'U'), ('న్య', '|'), ('గో', 'U'), ('త్ర', '|'), ('ప', '|'), ('వి', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('గం', 'U'), ('గ', '|'), ('న', '|'), ('మం', 'U'), ('త్రి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('ని', '|'), ('సు', '|'), ('తు', '|'), ('డ', '|'), ('కూ', 'U'), ('చి', '|'), ('మం', 'U'), ('చ', 'U'), ('న్వ', '|'), ('యా', 'U'), ('కూ', 'U'), ('పా', 'U'), ('ర', '|'), ('చం', 'U'), ('ద్రుం', 'U'), ('డ', '|'), ('వి', '|'), ('త', '|'), ('త', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('కృ', '|'), ('పా', 'U'), ('వీ', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('ప్త', '|'), ('స', 'U'), ('త్క', '|'), ('లి', '|'), ('తా', 'U'), ('మ', '|'), ('హా', 'U'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('భా', 'U'), ('ర', '|'), ('ధౌ', 'U'), ('రే', 'U'), ('యుం', 'U'), ('డ', '|'), ('బు', '|'), ('ధ', '|'), ('జ', '|'), ('న', 'U'), ('ప్రి', '|'), ('య', '|'), ('స', '|'), ('చి', '|'), ('వు', '|'), ('డ', '|'), ('ఘ', '|'), ('న', '|'), ('దెం', 'U'), ('దు', '|'), ('లూ', 'U'), ('రి', '|'), ('లిం', 'U'), ('గ', '|'), ('న', '|'), ('గు', '|'), ('రూ', 'U'), ('త్త', '|'), ('మ', '|'), ('ద', 'U'), ('త్త', '|'), ('సా', 'U'), ('ర', '|'), ('శై', 'U'), ('వా', 'U'), ('చా', 'U'), ('ర', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హు', '|'), ('డ', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తిమ్మకవిచంద్రుఁడను నేను దివిరి నీకు | శతక మర్పింతుఁ గైకొమ్ము సంతసమున,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>తిమ్మకవిచంద్రుఁడను నేను దివిరి నీకు | శతక మర్పింతుఁ గైకొమ్ము సంతసమున,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('తి', 'U'), ('మ్మ', '|'), ('క', '|'), ('వి', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('ను', '|'), ('నే', 'U'), ('ను', '|'), ('ది', '|'), ('వి', '|'), ('రి', '|'), ('నీ', 'U'), ('కు', '|'), ('శ', '|'), ('త', '|'), ('క', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('తు', '|'), ('గై', 'U'), ('కొ', 'U'), ('మ్ము', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('న', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>కౌశిక కౌండిన్య కపిల కశ్యప కణ్వ | కౌత్స కాత్యాయన కలశజులును
 జహ్ను జరత్కార జాబాలి జమదగ్ని | జలజభవాత్మజ జైమినులును
@@ -669,63 +648,57 @@
 వల్మీకభవ వత్స వాలఖిల్య వశిష్ఠ | వరతంతు వామదేవ ప్రముఖులును</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('కౌ', 'U'), ('శి', '|'), ('క', '|'), ('కౌం', 'U'), ('డి', 'U'), ('న్య', '|'), ('క', '|'), ('పి', '|'), ('ల', '|'), ('క', 'U'), ('శ్య', '|'), ('ప', '|'), ('క', 'U'), ('ణ్వ', '|'), ('కౌ', 'U'), ('త్స', '|'), ('కా', 'U'), ('త్యా', 'U'), ('య', '|'), ('న', '|'), ('క', '|'), ('ల', '|'), ('శ', '|'), ('జు', '|'), ('లు', '|'), ('ను', '|'), ('జ', 'U'), ('హ్ను', '|'), ('జ', '|'), ('ర', 'U'), ('త్కా', 'U'), ('ర', '|'), ('జా', 'U'), ('బా', 'U'), ('లి', '|'), ('జ', '|'), ('మ', '|'), ('ద', 'U'), ('గ్ని', '|'), ('జ', '|'), ('ల', '|'), ('జ', '|'), ('భ', '|'), ('వా', 'U'), ('త్మ', '|'), ('జ', '|'), ('జై', 'U'), ('మి', '|'), ('ను', '|'), ('లు', '|'), ('ను', '|'), ('మం', 'U'), ('ద', '|'), ('పా', 'U'), ('ల', '|'), ('మ', '|'), ('తం', 'U'), ('గ', '|'), ('మౌ', 'U'), ('స', '|'), ('ల', '|'), ('మౌ', 'U'), ('ద్గ', 'U'), ('ల్య', '|'), ('మాం', 'U'), ('డ', 'U'), ('వ్య', '|'), ('మై', 'U'), ('త్రే', 'U'), ('య', '|'), ('మం', 'U'), ('క', '|'), ('ణు', '|'), ('లు', '|'), ('ను', '|'), ('వ', 'U'), ('ల్మీ', 'U'), ('క', '|'), ('భ', '|'), ('వ', '|'), ('వ', 'U'), ('త్స', '|'), ('వా', 'U'), ('ల', '|'), ('ఖి', 'U'), ('ల్య', '|'), ('వ', '|'), ('శి', 'U'), ('ష్ఠ', '|'), ('వ', '|'), ('ర', '|'), ('తం', 'U'), ('తు', '|'), ('వా', 'U'), ('మ', '|'), ('దే', 'U'), ('వ', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖు', '|'), ('లు', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిక్కముగ నిన్ను వర్ణింపనేర రనఁగ | నెంతవారింక నరులు ని న్నెఱిఁగి పొగడ,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>నిక్కముగ నిన్ను వర్ణింపనేర రనఁగ | నెంతవారింక నరులు ని న్నెఱిఁగి పొగడ,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('గ', '|'), ('ని', 'U'), ('న్ను', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('రిం', 'U'), ('క', '|'), ('న', '|'), ('రు', '|'), ('లు', '|'), ('ని', 'U'), ('న్నె', '|'), ('ఱి', '|'), ('గి', '|'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>దండ ముద్దండదోర్దండకోదండవి- | ఖండిత చండవేదండ, నీకు!
 జోహారు హారామరాహారనీహార- | గోహర గోహీరదేహ, నీకు!
@@ -733,63 +706,57 @@
 జేజే పరాజితోగ్రాజివిరాజిత- | వ్యాజనిరీజసమాజ, నీకు!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డ', '|'), ('ము', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('దో', 'U'), ('ర్దం', 'U'), ('డ', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('వి', '|'), ('ఖం', 'U'), ('డి', '|'), ('త', '|'), ('చం', 'U'), ('డ', '|'), ('వే', 'U'), ('దం', 'U'), ('డ', '|'), ('నీ', 'U'), ('కు', '|'), ('జో', 'U'), ('హా', 'U'), ('రు', '|'), ('హా', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('హా', 'U'), ('ర', '|'), ('నీ', 'U'), ('హా', 'U'), ('ర', '|'), ('గో', 'U'), ('హ', '|'), ('ర', '|'), ('గో', 'U'), ('హీ', 'U'), ('ర', '|'), ('దే', 'U'), ('హ', '|'), ('నీ', 'U'), ('కు', '|'), ('న', '|'), ('తి', '|'), ('శ', '|'), ('త', 'U'), ('క్ర', '|'), ('తు', '|'), ('ము', '|'), ('ఖా', 'U'), ('ది', '|'), ('తి', '|'), ('సు', '|'), ('తా', 'U'), ('త', '|'), ('త', '|'), ('కృ', '|'), ('త', 'U'), ('స్తు', '|'), ('తి', '|'), ('కృ', '|'), ('తా', 'U'), ('మి', '|'), ('త', '|'), ('హి', '|'), ('త', '|'), ('కు', '|'), ('తు', '|'), ('క', '|'), ('నీ', 'U'), ('కు', '|'), ('జే', 'U'), ('జే', 'U'), ('ప', '|'), ('రా', 'U'), ('జి', '|'), ('తో', 'U'), ('గ్రా', 'U'), ('జి', '|'), ('వి', '|'), ('రా', 'U'), ('జి', '|'), ('త', 'U'), ('వ్యా', 'U'), ('జ', '|'), ('ని', '|'), ('రీ', 'U'), ('జ', '|'), ('స', '|'), ('మా', 'U'), ('జ', '|'), ('నీ', 'U'), ('కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వందన ముదార దారుకావనమునీంద్ర- | సుందరీబృందమానసానంద, నీకు!
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>వందన ముదార దారుకావనమునీంద్ర- | సుందరీబృందమానసానంద, నీకు!
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('ద', '|'), ('న', '|'), ('ము', '|'), ('దా', 'U'), ('ర', '|'), ('దా', 'U'), ('రు', '|'), ('కా', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్ర', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('బృం', 'U'), ('ద', '|'), ('మా', 'U'), ('న', '|'), ('సా', 'U'), ('నం', 'U'), ('ద', '|'), ('నీ', 'U'), ('కు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>తపననందన భటోద్దండ చండభుజంగ | మేఘభీషణ విహంగోత్తమంబు
 బహుజన్మసంచిత బ్రహ్మహత్యాముఖో- | గ్రౌఘకాలాభ్ర ఝంఝూనిలంబు
@@ -797,63 +764,57 @@
 ఘోరదారిద్ర్యవికారభారోదగ్ర- | వారణానీక కంఠీరవంబు-</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ప', '|'), ('న', '|'), ('నం', 'U'), ('ద', '|'), ('న', '|'), ('భ', '|'), ('టో', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('చం', 'U'), ('డ', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('మే', 'U'), ('ఘ', '|'), ('భీ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('హం', 'U'), ('గో', 'U'), ('త్త', '|'), ('మం', 'U'), ('బు', '|'), ('బ', '|'), ('హు', '|'), ('జ', 'U'), ('న్మ', '|'), ('సం', 'U'), ('చి', '|'), ('త', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('హ', 'U'), ('త్యా', 'U'), ('ము', '|'), ('ఖో', 'U'), ('గ్రౌ', 'U'), ('ఘ', '|'), ('కా', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('ఝం', 'U'), ('ఝూ', 'U'), ('ని', '|'), ('లం', 'U'), ('బు', '|'), ('భూ', 'U'), ('త', '|'), ('వే', 'U'), ('తా', 'U'), ('ళ', 'U'), ('ప్ర', '|'), ('భూ', 'U'), ('త', '|'), ('వా', 'U'), ('త', 'U'), ('జ్వ', '|'), ('రా', 'U'), ('ద్యా', 'U'), ('మ', '|'), ('యా', 'U'), ('ర', 'U'), ('ణ్య', '|'), ('దా', 'U'), ('వా', 'U'), ('న', '|'), ('లం', 'U'), ('బు', '|'), ('ఘో', 'U'), ('ర', '|'), ('దా', 'U'), ('రి', '|'), ('ద్ర్య', '|'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('భా', 'U'), ('రో', 'U'), ('ద', 'U'), ('గ్ర', '|'), ('వా', 'U'), ('ర', '|'), ('ణా', 'U'), ('నీ', 'U'), ('క', '|'), ('కం', 'U'), ('ఠీ', 'U'), ('ర', '|'), ('వం', 'U'), ('బు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నైన వంచాక్షరిని భక్తి యతిశయిల్లఁ | దవిలి జపియించు వారెపో ధన్యతములు
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>నైన వంచాక్షరిని భక్తి యతిశయిల్లఁ | దవిలి జపియించు వారెపో ధన్యతములు
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('నై', 'U'), ('న', '|'), ('వం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రి', '|'), ('ని', '|'), ('భ', 'U'), ('క్తి', '|'), ('య', '|'), ('తి', '|'), ('శ', '|'), ('యి', 'U'), ('ల్ల', '|'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('జ', '|'), ('పి', '|'), ('యిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రె', '|'), ('పో', 'U'), ('ధ', 'U'), ('న్య', '|'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>అమర మస్తకకిరీటాంచిత మనోవిభా- | నీరాజితాంఘ్రిపంకేరుహునకు
 శైలకన్యాఘనస్తనవిలిప్తమృగీమ- | దాంకిత విపుల బాహాంతరునకు
@@ -861,63 +822,57 @@
 మరుదీశనీలోపమానమానిత మహా- | కాకోలరుగ్జాల కంధరునకు</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('ర', '|'), ('మ', 'U'), ('స్త', '|'), ('క', '|'), ('కి', '|'), ('రీ', 'U'), ('టాం', 'U'), ('చి', '|'), ('త', '|'), ('మ', '|'), ('నో', 'U'), ('వి', '|'), ('భా', 'U'), ('నీ', 'U'), ('రా', 'U'), ('జి', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('పం', 'U'), ('కే', 'U'), ('రు', '|'), ('హు', '|'), ('న', '|'), ('కు', '|'), ('శై', 'U'), ('ల', '|'), ('క', 'U'), ('న్యా', 'U'), ('ఘ', '|'), ('న', 'U'), ('స్త', '|'), ('న', '|'), ('వి', '|'), ('లి', 'U'), ('ప్త', '|'), ('మృ', '|'), ('గీ', 'U'), ('మ', '|'), ('దాం', 'U'), ('కి', '|'), ('త', '|'), ('వి', '|'), ('పు', '|'), ('ల', '|'), ('బా', 'U'), ('హాం', 'U'), ('త', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('గ', '|'), ('గ', '|'), ('న', '|'), ('త', '|'), ('రం', 'U'), ('గి', '|'), ('ణీ', 'U'), ('క', 'U'), ('ల్లో', 'U'), ('ల', '|'), ('మా', 'U'), ('లి', '|'), ('కా', 'U'), ('శో', 'U'), ('భి', '|'), ('త', '|'), ('ప', '|'), ('టు', '|'), ('జ', '|'), ('టా', 'U'), ('జూ', 'U'), ('టు', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('మ', '|'), ('రు', '|'), ('దీ', 'U'), ('శ', '|'), ('నీ', 'U'), ('లో', 'U'), ('ప', '|'), ('మా', 'U'), ('న', '|'), ('మా', 'U'), ('ని', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('కా', 'U'), ('కో', 'U'), ('ల', '|'), ('రు', 'U'), ('గ్జా', 'U'), ('ల', '|'), ('కం', 'U'), ('ధ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీకు నతులు సమర్పించి నిష్ఠతోడఁ | గొల్చువారలె శమనుని గెల్చువారు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>నీకు నతులు సమర్పించి నిష్ఠతోడఁ | గొల్చువారలె శమనుని గెల్చువారు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('కు', '|'), ('న', '|'), ('తు', '|'), ('లు', '|'), ('స', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('తో', 'U'), ('డ', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('వా', 'U'), ('ర', '|'), ('లె', '|'), ('శ', '|'), ('మ', '|'), ('ను', '|'), ('ని', '|'), ('గె', 'U'), ('ల్చు', '|'), ('వా', 'U'), ('రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>అభవు నక్షయు నాద్యు నవ్యక్తు నవ్యయు | ననఘు ననంతు నాద్యంతరహితు
 నప్రమేయు నజేయు నకలంకు నసమాను | నానందమయు నాఢ్యు నాత్మరూపు
@@ -925,63 +880,57 @@
 నమలాత్ము నజుగురు ననవద్యు నభయదు | నసహాయు నతిపుణ్యు నగ్రగణ్యు</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('భ', '|'), ('వు', '|'), ('న', 'U'), ('క్ష', '|'), ('యు', '|'), ('నా', 'U'), ('ద్యు', '|'), ('న', 'U'), ('వ్య', 'U'), ('క్తు', '|'), ('న', 'U'), ('వ్య', '|'), ('యు', '|'), ('న', '|'), ('న', '|'), ('ఘు', '|'), ('న', '|'), ('నం', 'U'), ('తు', '|'), ('నా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('ర', '|'), ('హి', '|'), ('తు', '|'), ('న', 'U'), ('ప్ర', '|'), ('మే', 'U'), ('యు', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('న', '|'), ('క', '|'), ('లం', 'U'), ('కు', '|'), ('న', '|'), ('స', '|'), ('మా', 'U'), ('ను', '|'), ('నా', 'U'), ('నం', 'U'), ('ద', '|'), ('మ', '|'), ('యు', '|'), ('నా', 'U'), ('ఢ్యు', '|'), ('నా', 'U'), ('త్మ', '|'), ('రూ', 'U'), ('పు', '|'), ('న', '|'), ('చ', '|'), ('లు', '|'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('యు', '|'), ('న', '|'), ('ఖి', '|'), ('లే', 'U'), ('శు', '|'), ('న', 'U'), ('ద్వ', '|'), ('యు', '|'), ('నా', 'U'), ('ర్త', '|'), ('ర', 'U'), ('క్షా', 'U'), ('చ', '|'), ('ణు', '|'), ('న', '|'), ('న', '|'), ('ఘ', '|'), ('హృ', '|'), ('ద', '|'), ('యు', '|'), ('న', '|'), ('మ', '|'), ('లా', 'U'), ('త్ము', '|'), ('న', '|'), ('జు', '|'), ('గు', '|'), ('రు', '|'), ('న', '|'), ('న', '|'), ('వ', 'U'), ('ద్యు', '|'), ('న', '|'), ('భ', '|'), ('య', '|'), ('దు', '|'), ('న', '|'), ('స', '|'), ('హా', 'U'), ('యు', '|'), ('న', '|'), ('తి', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('న', 'U'), ('గ్ర', '|'), ('గ', 'U'), ('ణ్యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నహరహంబును నిను భక్తి నాత్మఁ దలఁచు | పుణ్యమతులకుఁ గడు సులభుఁడవు నీవు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>నహరహంబును నిను భక్తి నాత్మఁ దలఁచు | పుణ్యమతులకుఁ గడు సులభుఁడవు నీవు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('హ', '|'), ('ర', '|'), ('హం', 'U'), ('బు', '|'), ('ను', '|'), ('ని', '|'), ('ను', '|'), ('భ', 'U'), ('క్తి', '|'), ('నా', 'U'), ('త్మ', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మ', '|'), ('తు', '|'), ('ల', '|'), ('కు', '|'), ('గ', '|'), ('డు', '|'), ('సు', '|'), ('ల', '|'), ('భు', '|'), ('డ', '|'), ('వు', '|'), ('నీ', 'U'), ('వు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>సర్వసర్వంసహాస్థలి శతాంగము గాఁగ | రవిసుధాకరులు చక్రములు గాగ
 వాణీవిలాసినీవరుఁడు సారథి గాఁగఁ | బ్రామిన్కుగములు బాబాలు గాగ
@@ -989,63 +938,57 @@
 పంకజాతాక్షుండు కంకపత్రము గాఁగ | బర్హిర్ముఖులు వీరభటులు గాఁగఁ</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('ర్వ', '|'), ('స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('స్థ', '|'), ('లి', '|'), ('శ', '|'), ('తాం', 'U'), ('గ', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('ర', '|'), ('వి', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('రు', '|'), ('లు', '|'), ('చ', 'U'), ('క్ర', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('వా', 'U'), ('ణీ', 'U'), ('వి', '|'), ('లా', 'U'), ('సి', '|'), ('నీ', 'U'), ('వ', '|'), ('రు', '|'), ('డు', '|'), ('సా', 'U'), ('ర', '|'), ('థి', '|'), ('గా', 'U'), ('గ', 'U'), ('బ్రా', 'U'), ('మి', 'U'), ('న్కు', '|'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('బా', 'U'), ('బా', 'U'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('ర', 'U'), ('త్న', '|'), ('సా', 'U'), ('ను', '|'), ('ధ', '|'), ('రా', 'U'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('కా', 'U'), ('ర్ము', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('నా', 'U'), ('గా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థుం', 'U'), ('డు', '|'), ('నా', 'U'), ('రి', '|'), ('గా', 'U'), ('గ', '|'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('తా', 'U'), ('క్షుం', 'U'), ('డు', '|'), ('కం', 'U'), ('క', '|'), ('ప', 'U'), ('త్ర', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('బ', 'U'), ('ర్హి', '|'), ('ర్ము', '|'), ('ఖు', '|'), ('లు', '|'), ('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('టు', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గూర్చి బారులు దీర్చి చిట్టార్చి పేర్చి | యోర్చి పురదానవులఁ దెగటార్చితీవు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>గూర్చి బారులు దీర్చి చిట్టార్చి పేర్చి | యోర్చి పురదానవులఁ దెగటార్చితీవు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('గూ', 'U'), ('ర్చి', '|'), ('బా', 'U'), ('రు', '|'), ('లు', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('చి', 'U'), ('ట్టా', 'U'), ('ర్చి', '|'), ('పే', 'U'), ('ర్చి', '|'), ('యో', 'U'), ('ర్చి', '|'), ('పు', '|'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('దె', '|'), ('గ', '|'), ('టా', 'U'), ('ర్చి', '|'), ('తీ', 'U'), ('వు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>రక్షించితివి కదా రవిసూను బడఁదన్ని | చిరకృపామయబుద్ధి శ్వేతకేతు
 భక్షించితివి కదా బ్రహ్మాండనివహకో- | లాహలభయద హాలాహలంబు
@@ -1053,63 +996,57 @@
 వీక్షించితివి కదా వితతఫాలానల- | జ్వాలచే మరుని భస్మంబు గాఁగ</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('ర', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('క', '|'), ('దా', 'U'), ('ర', '|'), ('వి', '|'), ('సూ', 'U'), ('ను', '|'), ('బ', '|'), ('డ', '|'), ('ద', 'U'), ('న్ని', '|'), ('చి', '|'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('మ', '|'), ('య', '|'), ('బు', 'U'), ('ద్ధి', 'U'), ('శ్వే', 'U'), ('త', '|'), ('కే', 'U'), ('తు', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('క', '|'), ('దా', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('ని', '|'), ('వ', '|'), ('హ', '|'), ('కో', 'U'), ('లా', 'U'), ('హ', '|'), ('ల', '|'), ('భ', '|'), ('య', '|'), ('ద', '|'), ('హా', 'U'), ('లా', 'U'), ('హ', '|'), ('లం', 'U'), ('బు', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('క', '|'), ('దా', 'U'), ('శి', '|'), ('త', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('ధా', 'U'), ('రాం', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('ద', 'U'), ('క్షాం', 'U'), ('ధ', '|'), ('క', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖ', '|'), ('ఖ', '|'), ('లు', '|'), ('ల', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('క', '|'), ('దా', 'U'), ('వి', '|'), ('త', '|'), ('త', '|'), ('ఫా', 'U'), ('లా', 'U'), ('న', '|'), ('ల', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('చే', 'U'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('భ', 'U'), ('స్మం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిగ్రహానుగ్రహప్రౌఢి నీకె కాక | కలదె తక్కిన చిఱుత వేల్పులకు నెల్ల,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>నిగ్రహానుగ్రహప్రౌఢి నీకె కాక | కలదె తక్కిన చిఱుత వేల్పులకు నెల్ల,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('గ్ర', '|'), ('హా', 'U'), ('ను', 'U'), ('గ్ర', '|'), ('హ', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('నీ', 'U'), ('కె', '|'), ('కా', 'U'), ('క', '|'), ('క', '|'), ('ల', '|'), ('దె', '|'), ('త', 'U'), ('క్కి', '|'), ('న', '|'), ('చి', '|'), ('ఱు', '|'), ('త', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('కు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>పలుకుఁగ్రొన్ననఁబోఁడి కులుకు వీణియ మీట | వేయుఁగన్నులవేల్పు వేణువూదఁ
 గలుములతొగకంటి చెలఁగి గానము సేయ | నలువ కైతాళ మింపలర వ్రేయ
@@ -1117,63 +1054,57 @@
 నందిభృంగీశు లందంద సందడి దీర్ప | మొనసి దేవతలెల్ల మ్రొక్కి కొలువ</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('కు', 'U'), ('గ్రొ', 'U'), ('న్న', '|'), ('న', '|'), ('బో', 'U'), ('డి', '|'), ('కు', '|'), ('లు', '|'), ('కు', '|'), ('వీ', 'U'), ('ణి', '|'), ('య', '|'), ('మీ', 'U'), ('ట', '|'), ('వే', 'U'), ('యు', '|'), ('గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('వే', 'U'), ('ల్పు', '|'), ('వే', 'U'), ('ణు', '|'), ('వూ', 'U'), ('ద', '|'), ('గ', '|'), ('లు', '|'), ('ము', '|'), ('ల', '|'), ('తొ', '|'), ('గ', '|'), ('కం', 'U'), ('టి', '|'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('గా', 'U'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('న', '|'), ('లు', '|'), ('వ', '|'), ('కై', 'U'), ('తా', 'U'), ('ళ', '|'), ('మిం', 'U'), ('ప', '|'), ('ల', '|'), ('ర', 'U'), ('వ్రే', 'U'), ('య', '|'), ('మ', '|'), ('ధు', '|'), ('దై', 'U'), ('త్య', '|'), ('మ', '|'), ('థ', '|'), ('నుం', 'U'), ('డు', '|'), ('మ', 'U'), ('ద్దె', '|'), ('ల', '|'), ('వా', 'U'), ('యిం', 'U'), ('ప', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('పా', 'U'), ('రి', '|'), ('ష', '|'), ('దు', '|'), ('లె', 'U'), ('చ్చ', '|'), ('రి', '|'), ('క', '|'), ('సే', 'U'), ('య', '|'), ('నం', 'U'), ('ది', '|'), ('భృం', 'U'), ('గీ', 'U'), ('శు', '|'), ('లం', 'U'), ('దం', 'U'), ('ద', '|'), ('సం', 'U'), ('ద', '|'), ('డి', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('లె', 'U'), ('ల్ల', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('కొ', '|'), ('లు', '|'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సంతసము మీఱఁ గేరి సాయంతనమునఁ | దాండవం బాడు నీ హొయల్ దలఁప వశమె
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>సంతసము మీఱఁ గేరి సాయంతనమునఁ | దాండవం బాడు నీ హొయల్ దలఁప వశమె
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గే', 'U'), ('రి', '|'), ('సా', 'U'), ('యం', 'U'), ('త', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('దాం', 'U'), ('డ', '|'), ('వం', 'U'), ('బా', 'U'), ('డు', '|'), ('నీ', 'U'), ('హొ', '|'), ('యల్', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>అబ్జగర్భునకు లోకానీకనిర్మాణ- | చాతుర్య మేరీతి సంభవించె
 జలజాక్షునకు నిశాచరశిక్షణోపాయ- | పాటవం బేలీల నాటుకొనియె
@@ -1181,63 +1112,57 @@
 దిననాథునకు జగజ్జనలోచనదురాప- | ఘనవిభాస్ఫూర్తి యేకరణి నొదవె</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('బ్జ', '|'), ('గ', 'U'), ('ర్భు', '|'), ('న', '|'), ('కు', '|'), ('లో', 'U'), ('కా', 'U'), ('నీ', 'U'), ('క', '|'), ('ని', '|'), ('ర్మా', 'U'), ('ణ', '|'), ('చా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('మే', 'U'), ('రీ', 'U'), ('తి', '|'), ('సం', 'U'), ('భ', '|'), ('విం', 'U'), ('చె', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('క్షు', '|'), ('న', '|'), ('కు', '|'), ('ని', '|'), ('శా', 'U'), ('చ', '|'), ('ర', '|'), ('శి', 'U'), ('క్ష', '|'), ('ణో', 'U'), ('పా', 'U'), ('య', '|'), ('పా', 'U'), ('ట', '|'), ('వం', 'U'), ('బే', 'U'), ('లీ', 'U'), ('ల', '|'), ('నా', 'U'), ('టు', '|'), ('కొ', '|'), ('ని', '|'), ('యె', '|'), ('పు', '|'), ('రు', '|'), ('హూ', 'U'), ('తు', '|'), ('న', '|'), ('కు', '|'), ('ది', 'U'), ('వ్య', '|'), ('భో', 'U'), ('గ', '|'), ('భా', 'U'), ('గ్యా', 'U'), ('స్ప', '|'), ('ద', 'U'), ('స్వ', 'U'), ('ర్లో', 'U'), ('క', '|'), ('ప', '|'), ('ద', '|'), ('వి', '|'), ('యే', 'U'), ('స', '|'), ('ర', '|'), ('ణి', '|'), ('వ', 'U'), ('చ్చె', '|'), ('ది', '|'), ('న', '|'), ('నా', 'U'), ('థు', '|'), ('న', '|'), ('కు', '|'), ('జ', '|'), ('గ', 'U'), ('జ్జ', '|'), ('న', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('దు', '|'), ('రా', 'U'), ('ప', '|'), ('ఘ', '|'), ('న', '|'), ('వి', '|'), ('భా', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('యే', 'U'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('నొ', '|'), ('ద', '|'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నహహ తావక పదసరోజార్చనావి- | ధానమునఁ గాదె కలిగె ననూనమహిమ,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>నహహ తావక పదసరోజార్చనావి- | ధానమునఁ గాదె కలిగె ననూనమహిమ,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('హ', '|'), ('హ', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('ప', '|'), ('ద', '|'), ('స', '|'), ('రో', 'U'), ('జా', 'U'), ('ర్చ', '|'), ('నా', 'U'), ('వి', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('న', '|'), ('గా', 'U'), ('దె', '|'), ('క', '|'), ('లి', '|'), ('గె', '|'), ('న', '|'), ('నూ', 'U'), ('న', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>ధననాయకుడు నితాంతము బ్రియమిత్రుండు | సిరులపైదలిగేస్తుఁ డరిదితూపు
 కలధౌతశైలంబు కాఁపురంబు బిడారు | కాంచనాహార్యంబు కార్ముకంబు
@@ -1245,63 +1170,57 @@
 పంటలపువుఁబోఁడి బాళి మీఱిన తేరు | కళలీను రాజు కీల్గంటిపువ్వు</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('న', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('డు', '|'), ('ని', '|'), ('తాం', 'U'), ('త', '|'), ('ము', 'U'), ('బ్రి', '|'), ('య', '|'), ('మి', 'U'), ('త్రుం', 'U'), ('డు', '|'), ('సి', '|'), ('రు', '|'), ('ల', '|'), ('పై', 'U'), ('ద', '|'), ('లి', '|'), ('గే', 'U'), ('స్తు', '|'), ('డ', '|'), ('రి', '|'), ('ది', '|'), ('తూ', 'U'), ('పు', '|'), ('క', '|'), ('ల', '|'), ('ధౌ', 'U'), ('త', '|'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('కా', 'U'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('బి', '|'), ('డా', 'U'), ('రు', '|'), ('కాం', 'U'), ('చ', '|'), ('నా', 'U'), ('హా', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('కా', 'U'), ('ర్ము', '|'), ('కం', 'U'), ('బు', '|'), ('ర', 'U'), ('త్నా', 'U'), ('ధి', '|'), ('వా', 'U'), ('సం', 'U'), ('బు', '|'), ('ర', '|'), ('హి', '|'), ('మిం', 'U'), ('చు', '|'), ('త', '|'), ('ర', '|'), ('క', '|'), ('సం', 'U'), ('బ', '|'), ('ల', '|'), ('స', 'U'), ('ర్వ', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('య', '|'), ('ను', '|'), ('గు', '|'), ('రా', 'U'), ('ణి', '|'), ('పం', 'U'), ('ట', '|'), ('ల', '|'), ('పు', '|'), ('వు', '|'), ('బో', 'U'), ('డి', '|'), ('బా', 'U'), ('ళి', '|'), ('మీ', 'U'), ('ఱి', '|'), ('న', '|'), ('తే', 'U'), ('రు', '|'), ('క', '|'), ('ళ', '|'), ('లీ', 'U'), ('ను', '|'), ('రా', 'U'), ('జు', '|'), ('కీ', 'U'), ('ల్గం', 'U'), ('టి', '|'), ('పు', 'U'), ('వ్వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాఁగ నణిమాది భూతులు గల్గు నీకుఁ | బునుకలెత్తంగ నేరీతిఁ బొసఁగెనయ్య,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>గాఁగ నణిమాది భూతులు గల్గు నీకుఁ | బునుకలెత్తంగ నేరీతిఁ బొసఁగెనయ్య,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('గ', '|'), ('న', '|'), ('ణి', '|'), ('మా', 'U'), ('ది', '|'), ('భూ', 'U'), ('తు', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నీ', 'U'), ('కు', '|'), ('బు', '|'), ('ను', '|'), ('క', '|'), ('లె', 'U'), ('త్తం', 'U'), ('గ', '|'), ('నే', 'U'), ('రీ', 'U'), ('తి', '|'), ('బొ', '|'), ('స', '|'), ('గె', '|'), ('న', 'U'), ('య్య', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>చెలిమి నోగిర యిడ్డ చిరితొండబత్తుని | కొడుకుఁ జంపించుట దుడుకు గాదె
 పరకాంత యని మది నరయక భల్లాణు | నిల్లాలి గోరుట యెగ్గు గాదె
@@ -1309,63 +1228,57 @@
 మొనసి యాడుది పంపు పనులకై కినియక | కుంటెనల్ తిరుగుట కొఱఁత గాదె</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లి', '|'), ('మి', '|'), ('నో', 'U'), ('గి', '|'), ('ర', '|'), ('యి', 'U'), ('డ్డ', '|'), ('చి', '|'), ('రి', '|'), ('తొం', 'U'), ('డ', '|'), ('బ', 'U'), ('త్తు', '|'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('జం', 'U'), ('పిం', 'U'), ('చు', '|'), ('ట', '|'), ('దు', '|'), ('డు', '|'), ('కు', '|'), ('గా', 'U'), ('దె', '|'), ('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('య', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('క', '|'), ('భ', 'U'), ('ల్లా', 'U'), ('ణు', '|'), ('ని', 'U'), ('ల్లా', 'U'), ('లి', '|'), ('గో', 'U'), ('రు', '|'), ('ట', '|'), ('యె', 'U'), ('గ్గు', '|'), ('గా', 'U'), ('దె', '|'), ('మా', 'U'), ('ల', '|'), ('ని', '|'), ('యెం', 'U'), ('గి', '|'), ('లి', '|'), ('మాం', 'U'), ('సం', 'U'), ('బు', '|'), ('రో', 'U'), ('య', '|'), ('క', '|'), ('త', '|'), ('వి', '|'), ('లి', '|'), ('మె', '|'), ('సం', 'U'), ('గు', '|'), ('ట', '|'), ('త', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('దె', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('ది', '|'), ('పం', 'U'), ('పు', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('కై', 'U'), ('కి', '|'), ('ని', '|'), ('య', '|'), ('క', '|'), ('కుం', 'U'), ('టె', '|'), ('నల్', 'U'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('కొ', '|'), ('ఱ', '|'), ('త', '|'), ('గా', 'U'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>శివశివా! నీవె యిటువలెఁ జేయునప్పు | డవని నరులకు నింకేమి యడ్డు కలుగు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>శివశివా! నీవె యిటువలెఁ జేయునప్పు | డవని నరులకు నింకేమి యడ్డు కలుగు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('శి', '|'), ('వ', '|'), ('శి', '|'), ('వా', 'U'), ('నీ', 'U'), ('వె', '|'), ('యి', '|'), ('టు', '|'), ('వ', '|'), ('లె', '|'), ('జే', 'U'), ('యు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డ', '|'), ('వ', '|'), ('ని', '|'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('నిం', 'U'), ('కే', 'U'), ('మి', '|'), ('య', 'U'), ('డ్డు', '|'), ('క', '|'), ('లు', '|'), ('గు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>దశశతాబ్దముల నిన్ దవిలి పూజించిన | మెచ్చి చక్రికిఁ జక్రమిచ్చినావు
 తరలక నిను గూర్చి తప్పమొనర్చిన క్రీడి | కెసఁగఁ బాశుపతాస్త్ర మొసఁగినావు
@@ -1373,63 +1286,57 @@
 కాలకూటాగ్నిచేఁ గ్రాఁగి కుయ్యిడుచున్న | దివిజుల యాపదన్ తీర్చినావు</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('శ', '|'), ('శ', '|'), ('తా', 'U'), ('బ్ద', '|'), ('ము', '|'), ('ల', '|'), ('నిన్', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('పూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('మె', 'U'), ('చ్చి', '|'), ('చ', 'U'), ('క్రి', '|'), ('కి', '|'), ('జ', 'U'), ('క్ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వు', '|'), ('త', '|'), ('ర', '|'), ('ల', '|'), ('క', '|'), ('ని', '|'), ('ను', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('త', 'U'), ('ప్ప', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', 'U'), ('క్రీ', 'U'), ('డి', '|'), ('కె', '|'), ('స', '|'), ('గ', '|'), ('బా', 'U'), ('శు', '|'), ('ప', '|'), ('తా', 'U'), ('స్త్ర', '|'), ('మొ', '|'), ('స', '|'), ('గి', '|'), ('నా', 'U'), ('వు', '|'), ('మి', 'U'), ('త్తి', '|'), ('చే', 'U'), ('బ', '|'), ('డి', '|'), ('ని', 'U'), ('న్ను', '|'), ('హ', 'U'), ('త్తి', '|'), ('బ', 'U'), ('త్తి', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('ము', '|'), ('ని', '|'), ('పు', 'U'), ('త్రు', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('మ', '|'), ('ని', '|'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('కా', 'U'), ('ల', '|'), ('కూ', 'U'), ('టా', 'U'), ('గ్ని', '|'), ('చే', 'U'), ('గ్రా', 'U'), ('గి', '|'), ('కు', 'U'), ('య్యి', '|'), ('డు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('వి', '|'), ('జు', '|'), ('ల', '|'), ('యా', 'U'), ('ప', '|'), ('దన్', 'U'), ('తీ', 'U'), ('ర్చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బళిర జగముల నీవంటి భక్తిసులభుఁ | డైన దైవంబు గలఁడె లోనరసి చూడ,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>బళిర జగముల నీవంటి భక్తిసులభుఁ | డైన దైవంబు గలఁడె లోనరసి చూడ,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ళి', '|'), ('ర', '|'), ('జ', '|'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('వం', 'U'), ('టి', '|'), ('భ', 'U'), ('క్తి', '|'), ('సు', '|'), ('ల', '|'), ('భు', '|'), ('డై', 'U'), ('న', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('లో', 'U'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>పుఱియలు పునుకలు నెఱియఁ బేర్లుగ వైచి | కుత్తుక గరళంబు కుదురు కొలిపి
 కడఁగి పెన్బాముల తొడపులుగాఁ బెట్టి | పచ్చియేనుఁగుతోలు పైని గప్పి
@@ -1437,63 +1344,57 @@
 భూతపిశాచముల్ ప్రీతిఁ గొల్వగఁ బ్రేత- | భూములయందు నబ్బురము మీఱ</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('ఱి', '|'), ('య', '|'), ('లు', '|'), ('పు', '|'), ('ను', '|'), ('క', '|'), ('లు', '|'), ('నె', '|'), ('ఱి', '|'), ('య', '|'), ('బే', 'U'), ('ర్లు', '|'), ('గ', '|'), ('వై', 'U'), ('చి', '|'), ('కు', 'U'), ('త్తు', '|'), ('క', '|'), ('గ', '|'), ('ర', '|'), ('ళం', 'U'), ('బు', '|'), ('కు', '|'), ('దు', '|'), ('రు', '|'), ('కొ', '|'), ('లి', '|'), ('పి', '|'), ('క', '|'), ('డ', '|'), ('గి', '|'), ('పె', 'U'), ('న్బా', 'U'), ('ము', '|'), ('ల', '|'), ('తొ', '|'), ('డ', '|'), ('పు', '|'), ('లు', '|'), ('గా', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('ప', 'U'), ('చ్చి', '|'), ('యే', 'U'), ('ను', '|'), ('గు', '|'), ('తో', 'U'), ('లు', '|'), ('పై', 'U'), ('ని', '|'), ('గ', 'U'), ('ప్పి', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('శ', '|'), ('వ', '|'), ('భ', 'U'), ('స్మ', '|'), ('మి', 'U'), ('మ్ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('న', '|'), ('లం', 'U'), ('ది', '|'), ('బి', '|'), ('కి', '|'), ('రం', 'U'), ('బు', '|'), ('చ', '|'), ('లి', '|'), ('కూ', 'U'), ('డు', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('ది', '|'), ('ను', '|'), ('చు', '|'), ('భూ', 'U'), ('త', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('ముల్', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గ', 'U'), ('బ్రే', 'U'), ('త', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('న', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మెలఁగుచుండియు భువనమంగళవిలాస- | లీలఁ జెలగుదువంట మేల్ బళీ యయారె!
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>మెలఁగుచుండియు భువనమంగళవిలాస- | లీలఁ జెలగుదువంట మేల్ బళీ యయారె!
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('మె', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('డి', '|'), ('యు', '|'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('లీ', 'U'), ('ల', '|'), ('జె', '|'), ('ల', '|'), ('గు', '|'), ('దు', '|'), ('వం', 'U'), ('ట', '|'), ('మేల్', 'U'), ('బ', '|'), ('ళీ', 'U'), ('య', '|'), ('యా', 'U'), ('రె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>జంభాహితుని భుజాస్తంభనం బొనరించి | విష్ణుని చక్రంబు విఱిచి పుచ్చి
 బ్రహ్మదేవునిఁ బటాపంచలుగాఁ గొట్టి | భగుని కన్నులు నేలఁబడఁగఁ దిగిచి
@@ -1501,63 +1402,57 @@
 దక్షుని తలఁ గొట్టి తవిలి వేల్పులనెల్లఁ | దఱిమి వేఁటాడిన తావకీన</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('జం', 'U'), ('భా', 'U'), ('హి', '|'), ('తు', '|'), ('ని', '|'), ('భు', '|'), ('జా', 'U'), ('స్తం', 'U'), ('భ', '|'), ('నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('చ', 'U'), ('క్రం', 'U'), ('బు', '|'), ('వి', '|'), ('ఱి', '|'), ('చి', '|'), ('పు', 'U'), ('చ్చి', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('బ', '|'), ('టా', 'U'), ('పం', 'U'), ('చ', '|'), ('లు', '|'), ('గా', 'U'), ('గొ', 'U'), ('ట్టి', '|'), ('భ', '|'), ('గు', '|'), ('ని', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('నే', 'U'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('గ', '|'), ('ది', '|'), ('గి', '|'), ('చి', '|'), ('పూ', 'U'), ('షా', 'U'), ('ర్కు', '|'), ('దం', 'U'), ('త', '|'), ('ముల్', 'U'), ('పొ', '|'), ('డి', '|'), ('పొ', '|'), ('డి', '|'), ('గా', 'U'), ('ద', 'U'), ('న్ని', '|'), ('సో', 'U'), ('ము', '|'), ('ని', '|'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('ల', '|'), ('భూ', 'U'), ('మి', '|'), ('జ', '|'), ('మ', '|'), ('రి', '|'), ('ద', 'U'), ('క్షు', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('త', '|'), ('వి', '|'), ('లి', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('ద', '|'), ('ఱి', '|'), ('మి', '|'), ('వే', 'U'), ('టా', 'U'), ('డి', '|'), ('న', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వీరభద్రావతార విహారలీలఁ | దలఁచినప్పుడె యాపదల్ తలఁగు నౌర
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>వీరభద్రావతార విహారలీలఁ | దలఁచినప్పుడె యాపదల్ తలఁగు నౌర
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్రా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('యా', 'U'), ('ప', '|'), ('దల్', 'U'), ('త', '|'), ('ల', '|'), ('గు', '|'), ('నౌ', 'U'), ('ర', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>బాపని కొక స్వయంపాకాన కియలేక | చుట్టాలకును గూడు పెట్టలేక
 పిడికెఁడు బిచ్చ మెన్నఁడు నొసంగగ లేక | కడుపార నన్నంబు గుడువలేక
@@ -1565,63 +1460,57 @@
 కడుగైనఁ దవుడైన విడిచివెట్టఁగలేక | మాడైన మక్కైన మానలేక</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('ప', '|'), ('ని', '|'), ('కొ', '|'), ('క', 'U'), ('స్వ', '|'), ('యం', 'U'), ('పా', 'U'), ('కా', 'U'), ('న', '|'), ('కి', '|'), ('య', '|'), ('లే', 'U'), ('క', '|'), ('చు', 'U'), ('ట్టా', 'U'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('గూ', 'U'), ('డు', '|'), ('పె', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('క', '|'), ('పి', '|'), ('డి', '|'), ('కె', '|'), ('డు', '|'), ('బి', 'U'), ('చ్చ', '|'), ('మె', 'U'), ('న్న', '|'), ('డు', '|'), ('నొ', '|'), ('సం', 'U'), ('గ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('క', '|'), ('డు', '|'), ('పా', 'U'), ('ర', '|'), ('న', 'U'), ('న్నం', 'U'), ('బు', '|'), ('గు', '|'), ('డు', '|'), ('వ', '|'), ('లే', 'U'), ('క', '|'), ('పై', 'U'), ('మీ', 'U'), ('ద', '|'), ('నొ', '|'), ('క', '|'), ('గ', 'U'), ('ట్టి', '|'), ('బ', 'U'), ('ట్ట', '|'), ('గ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('న', '|'), ('ద', '|'), ('ను', '|'), ('న', '|'), ('గా', 'U'), ('సై', 'U'), ('న', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('లే', 'U'), ('క', '|'), ('క', '|'), ('డు', '|'), ('గై', 'U'), ('న', '|'), ('ద', '|'), ('వు', '|'), ('డై', 'U'), ('న', '|'), ('వి', '|'), ('డి', '|'), ('చి', '|'), ('వె', 'U'), ('ట్ట', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('మా', 'U'), ('డై', 'U'), ('న', '|'), ('మ', 'U'), ('క్కై', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('లే', 'U'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఖలుఁడు విత్తంబు గూర్చినఁ గట్టి కొట్టి | పట్టి పుథించి నృపు లరి బలిమిఁ గొంద్రు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ఖలుఁడు విత్తంబు గూర్చినఁ గట్టి కొట్టి | పట్టి పుథించి నృపు లరి బలిమిఁ గొంద్రు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('ఖ', '|'), ('లు', '|'), ('డు', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('గ', 'U'), ('ట్టి', '|'), ('కొ', 'U'), ('ట్టి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('పు', '|'), ('థిం', 'U'), ('చి', '|'), ('నృ', '|'), ('పు', '|'), ('ల', '|'), ('రి', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('గొం', 'U'), ('ద్రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>జారచోరులకు గంజాయికల్లులకును | దొత్తుల కగ్గికి దొమ్మరులకు
 కుంటెనకత్తెలకును వెలయాండ్రకు | నల్లమందునకు భూవల్లభునకు
@@ -1629,63 +1518,57 @@
 మందులవాండ్రకు మాలదాసర్లకు | నాటపాటలవాండ్ర కౌను గాని</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('ర', '|'), ('చో', 'U'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('గం', 'U'), ('జా', 'U'), ('యి', '|'), ('క', 'U'), ('ల్లు', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('దొ', 'U'), ('త్తు', '|'), ('ల', '|'), ('క', 'U'), ('గ్గి', '|'), ('కి', '|'), ('దొ', 'U'), ('మ్మ', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('కుం', 'U'), ('టె', '|'), ('న', '|'), ('క', 'U'), ('త్తె', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('వె', '|'), ('ల', '|'), ('యాం', 'U'), ('డ్ర', '|'), ('కు', '|'), ('న', 'U'), ('ల్ల', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('కు', '|'), ('భూ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('న', '|'), ('కు', '|'), ('త', 'U'), ('ప్పు', '|'), ('దం', 'U'), ('డు', '|'), ('గ', '|'), ('ల', '|'), ('కు', '|'), ('ద', 'U'), ('బ్బ', '|'), ('ర', '|'), ('గాం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('నం', 'U'), ('జు', '|'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('గో', 'U'), ('డి', '|'), ('పుం', 'U'), ('జు', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('మం', 'U'), ('దు', '|'), ('ల', '|'), ('వాం', 'U'), ('డ్ర', '|'), ('కు', '|'), ('మా', 'U'), ('ల', '|'), ('దా', 'U'), ('స', 'U'), ('ర్ల', '|'), ('కు', '|'), ('నా', 'U'), ('ట', '|'), ('పా', 'U'), ('ట', '|'), ('ల', '|'), ('వాం', 'U'), ('డ్ర', '|'), ('కౌ', 'U'), ('ను', '|'), ('గా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సుకవిజనదేవతాగృహసూరివరుల | జేరదింతయుఁ దులువ కూర్చిన ధనంబు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>సుకవిజనదేవతాగృహసూరివరుల | జేరదింతయుఁ దులువ కూర్చిన ధనంబు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('క', '|'), ('వి', '|'), ('జ', '|'), ('న', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('గృ', '|'), ('హ', '|'), ('సూ', 'U'), ('రి', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('జే', 'U'), ('ర', '|'), ('దిం', 'U'), ('త', '|'), ('యు', '|'), ('దు', '|'), ('లు', '|'), ('వ', '|'), ('కూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>విధవాకుచంబుల విధమున ససి చెడ్డ | పాడింట నిడిన దీపంబు కరణి,
 గాననాంతరమునఁ గాయు వెన్నెల రీతి | షండున కబ్బిన చాన పోల్కిఁ
@@ -1693,63 +1576,57 @@
 ముసిడిఁ బండిన ఫలమ్ముల చందమున దుష్ట- | ఫణిశిరంబున వెల్గు మణి విధమున</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ధ', '|'), ('వా', 'U'), ('కు', '|'), ('చం', 'U'), ('బు', '|'), ('ల', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('న', '|'), ('స', '|'), ('సి', '|'), ('చె', 'U'), ('డ్డ', '|'), ('పా', 'U'), ('డిం', 'U'), ('ట', '|'), ('ని', '|'), ('డి', '|'), ('న', '|'), ('దీ', 'U'), ('పం', 'U'), ('బు', '|'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('గా', 'U'), ('న', '|'), ('నాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('గా', 'U'), ('యు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('రీ', 'U'), ('తి', '|'), ('షం', 'U'), ('డు', '|'), ('న', '|'), ('క', 'U'), ('బ్బి', '|'), ('న', '|'), ('చా', 'U'), ('న', '|'), ('పో', 'U'), ('ల్కి', 'U'), ('గ్రో', 'U'), ('తి', '|'), ('చే', 'U'), ('నొ', '|'), ('ద', '|'), ('వి', '|'), ('న', '|'), ('కొ', 'U'), ('బ్బ', '|'), ('రి', '|'), ('కా', 'U'), ('య', '|'), ('య', 'U'), ('ట్లం', 'U'), ('బు', '|'), ('ధిం', 'U'), ('బ', '|'), ('డి', '|'), ('న', '|'), ('తో', 'U'), ('యం', 'U'), ('బు', '|'), ('మా', 'U'), ('డ్కి', '|'), ('ము', '|'), ('సి', '|'), ('డి', '|'), ('బం', 'U'), ('డి', '|'), ('న', '|'), ('ఫ', '|'), ('ల', 'U'), ('మ్ము', '|'), ('ల', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('దు', 'U'), ('ష్ట', '|'), ('ఫ', '|'), ('ణి', '|'), ('శి', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('వె', 'U'), ('ల్గు', '|'), ('మ', '|'), ('ణి', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ధరణిఁ బరమనికృష్టుని దండనున్న | ధనము వృథయగు నేరికిఁ బనికిరాక,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ధరణిఁ బరమనికృష్టుని దండనున్న | ధనము వృథయగు నేరికిఁ బనికిరాక,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('ని', '|'), ('కృ', 'U'), ('ష్టు', '|'), ('ని', '|'), ('దం', 'U'), ('డ', '|'), ('ను', 'U'), ('న్న', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('వృ', '|'), ('థ', '|'), ('య', '|'), ('గు', '|'), ('నే', 'U'), ('రి', '|'), ('కి', '|'), ('బ', '|'), ('ని', '|'), ('కి', '|'), ('రా', 'U'), ('క', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>వేదశాస్త్రపురాణవిద్య లక్కఱగావు | పరిహాసవిద్యలు పనికివచ్చు
 గద్యపద్యవిచిత్రకవితలు కొఱగావు | గొల్లసుద్దుల కతల్ పెల్లుమీఱు
@@ -1757,63 +1634,57 @@
 శైవవైష్ణవమతాచారంబు లొప్పవు | పాషండమతములు బాళి నలరు</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', 'U'), ('క్క', '|'), ('ఱ', '|'), ('గా', 'U'), ('వు', '|'), ('ప', '|'), ('రి', '|'), ('హా', 'U'), ('స', '|'), ('వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', 'U'), ('ద్య', '|'), ('ప', 'U'), ('ద్య', '|'), ('వి', '|'), ('చి', 'U'), ('త్ర', '|'), ('క', '|'), ('వి', '|'), ('త', '|'), ('లు', '|'), ('కొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('వు', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('సు', 'U'), ('ద్దు', '|'), ('ల', '|'), ('క', '|'), ('తల్', 'U'), ('పె', 'U'), ('ల్లు', '|'), ('మీ', 'U'), ('ఱు', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('భా', 'U'), ('ష', '|'), ('ల', '|'), ('తీ', 'U'), ('రు', '|'), ('లే', 'U'), ('మి', '|'), ('యు', '|'), ('గా', 'U'), ('వు', '|'), ('పా', 'U'), ('ర', '|'), ('సీ', 'U'), ('కో', 'U'), ('క్తు', '|'), ('లు', 'U'), ('ప్ర', '|'), ('ణు', '|'), ('తి', '|'), ('కె', 'U'), ('క్కు', '|'), ('శై', 'U'), ('వ', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వ', '|'), ('మ', '|'), ('తా', 'U'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('లొ', 'U'), ('ప్ప', '|'), ('వు', '|'), ('పా', 'U'), ('షం', 'U'), ('డ', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('బా', 'U'), ('ళి', '|'), ('న', '|'), ('ల', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నౌర యిక్కలికాల మహత్త్వమెంతొ | వింతయై తోఁచుఁ గద ధరాభ్యంతరమున,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>నౌర యిక్కలికాల మహత్త్వమెంతొ | వింతయై తోఁచుఁ గద ధరాభ్యంతరమున,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('నౌ', 'U'), ('ర', '|'), ('యి', 'U'), ('క్క', '|'), ('లి', '|'), ('కా', 'U'), ('ల', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('మెం', 'U'), ('తొ', '|'), ('విం', 'U'), ('త', '|'), ('యై', 'U'), ('తో', 'U'), ('చు', '|'), ('గ', '|'), ('ద', '|'), ('ధ', '|'), ('రా', 'U'), ('భ్యం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>కాపుకవీశ్వరుల్ కంచఱయోగులు | సాతానివైష్ణవుల్ సాలెభటులు
 కోమటిదాతలు కొంటెభాగోతులు | మాలవెజ్జులు బోయమావటీలు
@@ -1821,63 +1692,57 @@
 లాడుదీర్పరు లుగ్రయవనధరాధీశ్వ- | రులు వైదికప్రధానులును మిగుల</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('పు', '|'), ('క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రుల్', 'U'), ('కం', 'U'), ('చ', '|'), ('ఱ', '|'), ('యో', 'U'), ('గు', '|'), ('లు', '|'), ('సా', 'U'), ('తా', 'U'), ('ని', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వుల్', 'U'), ('సా', 'U'), ('లె', '|'), ('భ', '|'), ('టు', '|'), ('లు', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('దా', 'U'), ('త', '|'), ('లు', '|'), ('కొం', 'U'), ('టె', '|'), ('భా', 'U'), ('గో', 'U'), ('తు', '|'), ('లు', '|'), ('మా', 'U'), ('ల', '|'), ('వె', 'U'), ('జ్జు', '|'), ('లు', '|'), ('బో', 'U'), ('య', '|'), ('మా', 'U'), ('వ', '|'), ('టీ', 'U'), ('లు', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('పౌ', 'U'), ('రా', 'U'), ('ణి', '|'), ('కుల్', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('దై', 'U'), ('వ', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('బా', 'U'), ('ని', '|'), ('స', '|'), ('వే', 'U'), ('శ్య', '|'), ('లు', '|'), ('జై', 'U'), ('న', '|'), ('బా', 'U'), ('ప', '|'), ('లా', 'U'), ('డు', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('రు', '|'), ('లు', 'U'), ('గ్ర', '|'), ('య', '|'), ('వ', '|'), ('న', '|'), ('ధ', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('లు', '|'), ('వై', 'U'), ('ది', '|'), ('క', 'U'), ('ప్ర', '|'), ('ధా', 'U'), ('ను', '|'), ('లు', '|'), ('ను', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>భూతలంబునఁ గలిదోషహేతుకమునఁ | బ్రబలురై రింకనేమి చెప్పంగవలయు
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>భూతలంబునఁ గలిదోషహేతుకమునఁ | బ్రబలురై రింకనేమి చెప్పంగవలయు
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('భూ', 'U'), ('త', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('గ', '|'), ('లి', '|'), ('దో', 'U'), ('ష', '|'), ('హే', 'U'), ('తు', '|'), ('క', '|'), ('ము', '|'), ('న', 'U'), ('బ్ర', '|'), ('బ', '|'), ('లు', '|'), ('రై', 'U'), ('రిం', 'U'), ('క', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>బొగ్గులఁ దైలంబు బుట్టింపగా వచ్చు | ధట్టించి జలరాశి దాటవచ్చు
 జెలరేఁగి ఘనదవానలము మ్రింగఁగ వచ్చు | భుజగులఁ బేర్లుగాఁ బూనవచ్చు
@@ -1885,63 +1750,57 @@
 గొదమసింగమును నక్కునఁ జేర్పఁగా వచ్చు | గాలి పోగిడి మూట గట్టవచ్చు</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('బొ', 'U'), ('గ్గు', '|'), ('ల', '|'), ('దై', 'U'), ('లం', 'U'), ('బు', '|'), ('బు', 'U'), ('ట్టిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('ధ', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('జ', '|'), ('ల', '|'), ('రా', 'U'), ('శి', '|'), ('దా', 'U'), ('ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('జె', '|'), ('ల', '|'), ('రే', 'U'), ('గి', '|'), ('ఘ', '|'), ('న', '|'), ('ద', '|'), ('వా', 'U'), ('న', '|'), ('ల', '|'), ('ము', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భు', '|'), ('జ', '|'), ('గు', '|'), ('ల', '|'), ('బే', 'U'), ('ర్లు', '|'), ('గా', 'U'), ('బూ', 'U'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('బె', 'U'), ('బ్బు', '|'), ('లి', '|'), ('న', '|'), ('ఱ', '|'), ('చే', 'U'), ('త', '|'), ('బె', '|'), ('న', '|'), ('గి', '|'), ('ప', 'U'), ('ట్ట', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ది', '|'), ('వి', '|'), ('రి', '|'), ('ఱా', 'U'), ('తి', '|'), ('ని', '|'), ('నా', 'U'), ('ర', '|'), ('దీ', 'U'), ('య', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గొ', '|'), ('ద', '|'), ('మ', '|'), ('సిం', 'U'), ('గ', '|'), ('ము', '|'), ('ను', '|'), ('న', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('గా', 'U'), ('లి', '|'), ('పో', 'U'), ('గి', '|'), ('డి', '|'), ('మూ', 'U'), ('ట', '|'), ('గ', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాని తులువల డెందంబు గరగఁ జేయ | వశము గాదయ్య భువిని నెవ్వరికినైన,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>గాని తులువల డెందంబు గరగఁ జేయ | వశము గాదయ్య భువిని నెవ్వరికినైన,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('ని', '|'), ('తు', '|'), ('లు', '|'), ('వ', '|'), ('ల', '|'), ('డెం', 'U'), ('దం', 'U'), ('బు', '|'), ('గ', '|'), ('ర', '|'), ('గ', '|'), ('జే', 'U'), ('య', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('ద', 'U'), ('య్య', '|'), ('భు', '|'), ('వి', '|'), ('ని', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('నై', 'U'), ('న', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>సల్లగా మాలదాసర సటారయగారి | తిర్నామములు సాన తేప వింటి
 గొల్లమారన బోయ దెల్లఁగా సతికితే | బొల్లేవు పోట్లాటలెల్ల యింటి
@@ -1949,63 +1808,57 @@
 సరవయ్య బయలీదు జమిలికతోఁ బాడు | నంకమ్మపాట లెన్నైన యింటి</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('మా', 'U'), ('ల', '|'), ('దా', 'U'), ('స', '|'), ('ర', '|'), ('స', '|'), ('టా', 'U'), ('ర', '|'), ('య', '|'), ('గా', 'U'), ('రి', '|'), ('తి', 'U'), ('ర్నా', 'U'), ('మ', '|'), ('ము', '|'), ('లు', '|'), ('సా', 'U'), ('న', '|'), ('తే', 'U'), ('ప', '|'), ('విం', 'U'), ('టి', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('మా', 'U'), ('ర', '|'), ('న', '|'), ('బో', 'U'), ('య', '|'), ('దె', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('తే', 'U'), ('బొ', 'U'), ('ల్లే', 'U'), ('వు', '|'), ('పో', 'U'), ('ట్లా', 'U'), ('ట', '|'), ('లె', 'U'), ('ల్ల', '|'), ('యిం', 'U'), ('టి', '|'), ('జ', '|'), ('య', '|'), ('న', '|'), ('యెం', 'U'), ('క', '|'), ('ట', '|'), ('బొ', 'U'), ('ట్లు', '|'), ('స', 'U'), ('బ్బం', 'U'), ('డు', '|'), ('సా', 'U'), ('రా', 'U'), ('లు', '|'), ('పూ', 'U'), ('రాం', 'U'), ('డ', '|'), ('ము', '|'), ('లు', '|'), ('సె', 'U'), ('ప్ప', '|'), ('గో', 'U'), ('రి', '|'), ('యిం', 'U'), ('టి', '|'), ('స', '|'), ('ర', '|'), ('వ', 'U'), ('య్య', '|'), ('బ', '|'), ('య', '|'), ('లీ', 'U'), ('దు', '|'), ('జ', '|'), ('మి', '|'), ('లి', '|'), ('క', '|'), ('తో', 'U'), ('బా', 'U'), ('డు', '|'), ('నం', 'U'), ('క', 'U'), ('మ్మ', '|'), ('పా', 'U'), ('ట', '|'), ('లె', 'U'), ('న్నై', 'U'), ('న', '|'), ('యిం', 'U'), ('టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాని సీ యెద్దుమాంసుల కయితకంబు | లందమనిపించు కాయల యందమండ్రు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>గాని సీ యెద్దుమాంసుల కయితకంబు | లందమనిపించు కాయల యందమండ్రు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('ని', '|'), ('సీ', 'U'), ('యె', 'U'), ('ద్దు', '|'), ('మాం', 'U'), ('సు', '|'), ('ల', '|'), ('క', '|'), ('యి', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('లం', 'U'), ('ద', '|'), ('మ', '|'), ('ని', '|'), ('పిం', 'U'), ('చు', '|'), ('కా', 'U'), ('య', '|'), ('ల', '|'), ('యం', 'U'), ('ద', '|'), ('మం', 'U'), ('డ్రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>అబ్బబ్బ కిందటేఁ డప్పయ్య తీర్తాన | జోలెజంగము కిస్తి సోలెఁడుప్పు
 సాతాని జియరయ్య సతికితే పోయిస్తి | కొల్లఁగా గుల్లెఁడు సల్లబొట్టు
@@ -2013,63 +1866,57 @@
 వేదాలు వాగితే యెల్లుబొట్టయ్యకు | కొలకుండ దోసెఁడు కొఱ్ఱలిస్తి</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('బ్బ', 'U'), ('బ్బ', '|'), ('కిం', 'U'), ('ద', '|'), ('టే', 'U'), ('డ', 'U'), ('ప్ప', 'U'), ('య్య', '|'), ('తీ', 'U'), ('ర్తా', 'U'), ('న', '|'), ('జో', 'U'), ('లె', '|'), ('జం', 'U'), ('గ', '|'), ('ము', '|'), ('కి', 'U'), ('స్తి', '|'), ('సో', 'U'), ('లె', '|'), ('డు', 'U'), ('ప్పు', '|'), ('సా', 'U'), ('తా', 'U'), ('ని', '|'), ('జి', '|'), ('య', '|'), ('ర', 'U'), ('య్య', '|'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('తే', 'U'), ('పో', 'U'), ('యి', 'U'), ('స్తి', '|'), ('కొ', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('గు', 'U'), ('ల్లె', '|'), ('డు', '|'), ('స', 'U'), ('ల్ల', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('లం', 'U'), ('క', '|'), ('స', 'U'), ('త్తె', '|'), ('ల', '|'), ('వా', 'U'), ('డు', '|'), ('పొ', '|'), ('కా', 'U'), ('న', '|'), ('పొ', '|'), ('గి', '|'), ('డి', '|'), ('తే', 'U'), ('మా', 'U'), ('ల', '|'), ('దా', 'U'), ('స', '|'), ('రి', '|'), ('కి', 'U'), ('స్తి', '|'), ('మా', 'U'), ('నె', '|'), ('డూ', 'U'), ('ద', '|'), ('వే', 'U'), ('దా', 'U'), ('లు', '|'), ('వా', 'U'), ('గి', '|'), ('తే', 'U'), ('యె', 'U'), ('ల్లు', '|'), ('బొ', 'U'), ('ట్ట', 'U'), ('య్య', '|'), ('కు', '|'), ('కొ', '|'), ('ల', '|'), ('కుం', 'U'), ('డ', '|'), ('దో', 'U'), ('సె', '|'), ('డు', '|'), ('కొ', 'U'), ('ఱ్ఱ', '|'), ('లి', 'U'), ('స్తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నౌర తమకన్న కూసుగాఁ డవల నింకఁ | గలఁడె యను మూర్ఖుఁ డిద్ధరఁ గామవైరి!
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>నౌర తమకన్న కూసుగాఁ డవల నింకఁ | గలఁడె యను మూర్ఖుఁ డిద్ధరఁ గామవైరి!
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('నౌ', 'U'), ('ర', '|'), ('త', '|'), ('మ', '|'), ('క', 'U'), ('న్న', '|'), ('కూ', 'U'), ('సు', '|'), ('గా', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('నిం', 'U'), ('క', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('య', '|'), ('ను', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('డి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('గా', 'U'), ('మ', '|'), ('వై', 'U'), ('రి', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>ఆసనబేదంబు లనుకొంటి సేనియా- | డులు సాల రచ్చింపవలెనటంట
 కైసవరుఁడనంట నాసారపుసుకుఁడ- | నంట యేధాంతుండనంట పెద్ద-
@@ -2077,63 +1924,57 @@
 సోమాదిగులనంట సామిపాకాలంట | సంతుకు తంబులు సతుకుకుంట</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('స', '|'), ('న', '|'), ('బే', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('కొం', 'U'), ('టి', '|'), ('సే', 'U'), ('ని', '|'), ('యా', 'U'), ('డు', '|'), ('లు', '|'), ('సా', 'U'), ('ల', '|'), ('ర', 'U'), ('చ్చిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('టం', 'U'), ('ట', '|'), ('కై', 'U'), ('స', '|'), ('వ', '|'), ('రు', '|'), ('డ', '|'), ('నం', 'U'), ('ట', '|'), ('నా', 'U'), ('సా', 'U'), ('ర', '|'), ('పు', '|'), ('సు', '|'), ('కు', '|'), ('డ', '|'), ('నం', 'U'), ('ట', '|'), ('యే', 'U'), ('ధాం', 'U'), ('తుం', 'U'), ('డ', '|'), ('నం', 'U'), ('ట', '|'), ('పె', 'U'), ('ద్ద', '|'), ('యె', 'U'), ('ద్దు', '|'), ('మా', 'U'), ('రి', '|'), ('సు', '|'), ('డ', '|'), ('నం', 'U'), ('ట', '|'), ('సి', 'U'), ('ద్దాం', 'U'), ('తు', '|'), ('డ', '|'), ('న', '|'), ('టం', 'U'), ('ట', '|'), ('వా', 'U'), ('సి', '|'), ('పే', 'U'), ('గు', '|'), ('ల', '|'), ('నం', 'U'), ('ట', '|'), ('దో', 'U'), ('సి', '|'), ('నం', 'U'), ('ట', '|'), ('సో', 'U'), ('మా', 'U'), ('ది', '|'), ('గు', '|'), ('ల', '|'), ('నం', 'U'), ('ట', '|'), ('సా', 'U'), ('మి', '|'), ('పా', 'U'), ('కా', 'U'), ('లం', 'U'), ('ట', '|'), ('సం', 'U'), ('తు', '|'), ('కు', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('స', '|'), ('తు', '|'), ('కు', '|'), ('కుం', 'U'), ('ట', '|')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యెంటఁబట్టిరి యబ్బబ్బ యేమి సేతు | బాపనపిసాసు లనుచోట్ల బలుకఁ దరమె,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>యెంటఁబట్టిరి యబ్బబ్బ యేమి సేతు | బాపనపిసాసు లనుచోట్ల బలుకఁ దరమె,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('యెం', 'U'), ('ట', '|'), ('బ', 'U'), ('ట్టి', '|'), ('రి', '|'), ('య', 'U'), ('బ్బ', 'U'), ('బ్బ', '|'), ('యే', 'U'), ('మి', '|'), ('సే', 'U'), ('తు', '|'), ('బా', 'U'), ('ప', '|'), ('న', '|'), ('పి', '|'), ('సా', 'U'), ('సు', '|'), ('ల', '|'), ('ను', '|'), ('చో', 'U'), ('ట్ల', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('ద', '|'), ('ర', '|'), ('మె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>మోట బొల్లెద్దుకు ముకుదాడు గట్టిన- | ట్టెద్దెరా మొగమెల్ల సుద్దపట్టె-
 లద్దించుకొని వచ్చి అయగారు యేంచేసె | తడియాకుఁ గావలె తయ్యడాడు
@@ -2141,63 +1982,57 @@
 ముత్తి గలుగునంట ముద్రదానము గమ్మ- | టంట దాసరికొయ్య యెంటఁబట్టి</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('మో', 'U'), ('ట', '|'), ('బొ', 'U'), ('ల్లె', 'U'), ('ద్దు', '|'), ('కు', '|'), ('ము', '|'), ('కు', '|'), ('దా', 'U'), ('డు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్టె', 'U'), ('ద్దె', '|'), ('రా', 'U'), ('మొ', '|'), ('గ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('సు', 'U'), ('ద్ద', '|'), ('ప', 'U'), ('ట్టె', '|'), ('ల', 'U'), ('ద్దిం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('వ', 'U'), ('చ్చి', '|'), ('అ', '|'), ('య', '|'), ('గా', 'U'), ('రు', '|'), ('యేం', 'U'), ('చే', 'U'), ('సె', '|'), ('త', '|'), ('డి', '|'), ('యా', 'U'), ('కు', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('త', 'U'), ('య్య', '|'), ('డా', 'U'), ('డు', '|'), ('బ', 'U'), ('ళ్ళం', 'U'), ('ట', '|'), ('ఆ', 'U'), ('మీ', 'U'), ('ద', '|'), ('ప', '|'), ('ర', '|'), ('పా', 'U'), ('మ', '|'), ('దం', 'U'), ('ట', '|'), ('మం', 'U'), ('గ', '|'), ('ల', '|'), ('దా', 'U'), ('ని', '|'), ('బొం', 'U'), ('దం', 'U'), ('ట', '|'), ('గ', '|'), ('న', '|'), ('డ', '|'), ('మం', 'U'), ('ట', '|'), ('ము', 'U'), ('త్తి', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('నం', 'U'), ('ట', '|'), ('ము', '|'), ('ద్ర', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('గ', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('ట', '|'), ('దా', 'U'), ('స', '|'), ('రి', '|'), ('కొ', 'U'), ('య్య', '|'), ('యెం', 'U'), ('ట', '|'), ('బ', 'U'), ('ట్టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పట్టిబుజములు గాలసబట్టెననెడు | చెనటుల తెఱంగు లేమని చెప్పనేర్తు
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>పట్టిబుజములు గాలసబట్టెననెడు | చెనటుల తెఱంగు లేమని చెప్పనేర్తు
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ట్టి', '|'), ('బు', '|'), ('జ', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('ల', '|'), ('స', '|'), ('బ', 'U'), ('ట్టె', '|'), ('న', '|'), ('నె', '|'), ('డు', '|'), ('చె', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('తె', '|'), ('ఱం', 'U'), ('గు', '|'), ('లే', 'U'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('ర్తు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>బోలెఁడు గందంబు బొమలదాఁకా మెత్తి | మెంటెఁ డీబూడిద ఒంట బామి
 రుదురాకపేర్లు జన్నిదములు మోఁకాలి | లాపున దిగయేసి యావుపాస-
@@ -2205,63 +2040,57 @@
 పచ్చాలు మాలయ్యపచ్చాలుననుకొంట | సంకలో కబ్బాలు సప్పుకొంట</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('బో', 'U'), ('లె', '|'), ('డు', '|'), ('గం', 'U'), ('దం', 'U'), ('బు', '|'), ('బొ', '|'), ('మ', '|'), ('ల', '|'), ('దా', 'U'), ('కా', 'U'), ('మె', 'U'), ('త్తి', '|'), ('మెం', 'U'), ('టె', '|'), ('డీ', 'U'), ('బూ', 'U'), ('డి', '|'), ('ద', '|'), ('ఒం', 'U'), ('ట', '|'), ('బా', 'U'), ('మి', '|'), ('రు', '|'), ('దు', '|'), ('రా', 'U'), ('క', '|'), ('పే', 'U'), ('ర్లు', '|'), ('జ', 'U'), ('న్ని', '|'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('మో', 'U'), ('కా', 'U'), ('లి', '|'), ('లా', 'U'), ('పు', '|'), ('న', '|'), ('ది', '|'), ('గ', '|'), ('యే', 'U'), ('సి', '|'), ('యా', 'U'), ('వు', '|'), ('పా', 'U'), ('స', '|'), ('నా', 'U'), ('ని', '|'), ('కి', '|'), ('నే', 'U'), ('తి', '|'), ('దా', 'U'), ('రై', 'U'), ('న', '|'), ('ను', '|'), ('దె', 'U'), ('మ్మం', 'U'), ('ట', '|'), ('దా', 'U'), ('బ', 'U'), ('ల్కు', '|'), ('నె', '|'), ('డ', '|'), ('న', '|'), ('మే', 'U'), ('ద్యా', 'U'), ('ల', '|'), ('టం', 'U'), ('ట', '|'), ('ప', 'U'), ('చ్చా', 'U'), ('లు', '|'), ('మా', 'U'), ('ల', 'U'), ('య్య', '|'), ('ప', 'U'), ('చ్చా', 'U'), ('లు', '|'), ('న', '|'), ('ను', '|'), ('కొం', 'U'), ('ట', '|'), ('సం', 'U'), ('క', '|'), ('లో', 'U'), ('క', 'U'), ('బ్బా', 'U'), ('లు', '|'), ('స', 'U'), ('ప్పు', '|'), ('కొం', 'U'), ('ట', '|')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సెడుగుబాపఁడు నాబంటుకొడు కబ్బబ్బ | యెంటఁబడె నను మూర్ఖుల నెన్నదరమె
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>సెడుగుబాపఁడు నాబంటుకొడు కబ్బబ్బ | యెంటఁబడె నను మూర్ఖుల నెన్నదరమె
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('సె', '|'), ('డు', '|'), ('గు', '|'), ('బా', 'U'), ('ప', '|'), ('డు', '|'), ('నా', 'U'), ('బం', 'U'), ('టు', '|'), ('కొ', '|'), ('డు', '|'), ('క', 'U'), ('బ్బ', 'U'), ('బ్బ', '|'), ('యెం', 'U'), ('ట', '|'), ('బ', '|'), ('డె', '|'), ('న', '|'), ('ను', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('ల', '|'), ('నె', 'U'), ('న్న', '|'), ('ద', '|'), ('ర', '|'), ('మె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>బట్టయ్యగాళ్ళంట బబ్బాయువంటను | బొజ్జయుంబనుకొంట బోజనాలు
 గావలెనంట తేగాలు దెమ్మనుకొంట | సేరి బూసుండాలు సేసుకొంట
@@ -2269,63 +2098,57 @@
 కలయిర్పులెట్టి తొందరగాఁగ దండకాల్ | సతకాలు సోకాలు సతుకుకొంట</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('బ', 'U'), ('ట్ట', 'U'), ('య్య', '|'), ('గా', 'U'), ('ళ్ళం', 'U'), ('ట', '|'), ('బ', 'U'), ('బ్బా', 'U'), ('యు', '|'), ('వం', 'U'), ('ట', '|'), ('ను', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('యుం', 'U'), ('బ', '|'), ('ను', '|'), ('కొం', 'U'), ('ట', '|'), ('బో', 'U'), ('జ', '|'), ('నా', 'U'), ('లు', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('నం', 'U'), ('ట', '|'), ('తే', 'U'), ('గా', 'U'), ('లు', '|'), ('దె', 'U'), ('మ్మ', '|'), ('ను', '|'), ('కొం', 'U'), ('ట', '|'), ('సే', 'U'), ('రి', '|'), ('బూ', 'U'), ('సుం', 'U'), ('డా', 'U'), ('లు', '|'), ('సే', 'U'), ('సు', '|'), ('కొం', 'U'), ('ట', '|'), ('యె', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కం', 'U'), ('ట', '|'), ('మ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కం', 'U'), ('ట', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('పె', '|'), ('త', '|'), ('రు', '|'), ('ల', '|'), ('పొ', '|'), ('గు', '|'), ('డు', '|'), ('కొం', 'U'), ('ట', '|'), ('క', '|'), ('ల', '|'), ('యి', 'U'), ('ర్పు', '|'), ('లె', 'U'), ('ట్టి', '|'), ('తొం', 'U'), ('ద', '|'), ('ర', '|'), ('గా', 'U'), ('గ', '|'), ('దం', 'U'), ('డ', '|'), ('కాల్', 'U'), ('స', '|'), ('త', '|'), ('కా', 'U'), ('లు', '|'), ('సో', 'U'), ('కా', 'U'), ('లు', '|'), ('స', '|'), ('తు', '|'), ('కు', '|'), ('కొం', 'U'), ('ట', '|')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఎంటఁ బట్టిరి గదరబ్బ యనెడు మూఢ | కష్టచిత్తుల కిఁక మఱెక్కడి యశంబు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ఎంటఁ బట్టిరి గదరబ్బ యనెడు మూఢ | కష్టచిత్తుల కిఁక మఱెక్కడి యశంబు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('ఎం', 'U'), ('ట', '|'), ('బ', 'U'), ('ట్టి', '|'), ('రి', '|'), ('గ', '|'), ('ద', '|'), ('ర', 'U'), ('బ్బ', '|'), ('య', '|'), ('నె', '|'), ('డు', '|'), ('మూ', 'U'), ('ఢ', '|'), ('క', 'U'), ('ష్ట', '|'), ('చి', 'U'), ('త్తు', '|'), ('ల', '|'), ('కి', '|'), ('క', '|'), ('మ', '|'), ('ఱె', 'U'), ('క్క', '|'), ('డి', '|'), ('య', '|'), ('శం', 'U'), ('బు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>పాతపొత్తపుకట్ట సేత పట్టుకవచ్చి | దోసిబాపఁడనంట దోసిలొట్టి
 జలము సంద్రుఁడటంట సని సాలదనుకొంట | సెడుగు వాసారులు సెప్పుకుంట
@@ -2333,63 +2156,57 @@
 మఱఁదలెన్నఁడు పెదమనిసైనదంటేను | తప్పక మూత్రంబె సెప్పలేఁడు</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('త', '|'), ('పొ', 'U'), ('త్త', '|'), ('పు', '|'), ('క', 'U'), ('ట్ట', '|'), ('సే', 'U'), ('త', '|'), ('ప', 'U'), ('ట్టు', '|'), ('క', '|'), ('వ', 'U'), ('చ్చి', '|'), ('దో', 'U'), ('సి', '|'), ('బా', 'U'), ('ప', '|'), ('డ', '|'), ('నం', 'U'), ('ట', '|'), ('దో', 'U'), ('సి', '|'), ('లొ', 'U'), ('ట్టి', '|'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('సం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('టం', 'U'), ('ట', '|'), ('స', '|'), ('ని', '|'), ('సా', 'U'), ('ల', '|'), ('ద', '|'), ('ను', '|'), ('కొం', 'U'), ('ట', '|'), ('సె', '|'), ('డు', '|'), ('గు', '|'), ('వా', 'U'), ('సా', 'U'), ('రు', '|'), ('లు', '|'), ('సె', 'U'), ('ప్పు', '|'), ('కుం', 'U'), ('ట', '|'), ('తిం', 'U'), ('డి', '|'), ('కి', '|'), ('దె', 'U'), ('మ్మం', 'U'), ('ట', '|'), ('దే', 'U'), ('యి', '|'), ('రిం', 'U'), ('పు', '|'), ('చు', '|'), ('తూ', 'U'), ('పె', '|'), ('తూ', 'U'), ('పె', '|'), ('కు', '|'), ('సే', 'U'), ('తు', '|'), ('లు', '|'), ('సా', 'U'), ('పు', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ఱ', '|'), ('ద', '|'), ('లె', 'U'), ('న్న', '|'), ('డు', '|'), ('పె', '|'), ('ద', '|'), ('మ', '|'), ('ని', '|'), ('సై', 'U'), ('న', '|'), ('దం', 'U'), ('టే', 'U'), ('ను', '|'), ('త', 'U'), ('ప్ప', '|'), ('క', '|'), ('మూ', 'U'), ('త్రం', 'U'), ('బె', '|'), ('సె', 'U'), ('ప్ప', '|'), ('లే', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సీ యితనికంటె సాకలిసెల్లిగాఁడు | మేలనెడు మోటకొయ్యల నేల దెలుప,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>సీ యితనికంటె సాకలిసెల్లిగాఁడు | మేలనెడు మోటకొయ్యల నేల దెలుప,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('సీ', 'U'), ('యి', '|'), ('త', '|'), ('ని', '|'), ('కం', 'U'), ('టె', '|'), ('సా', 'U'), ('క', '|'), ('లి', '|'), ('సె', 'U'), ('ల్లి', '|'), ('గా', 'U'), ('డు', '|'), ('మే', 'U'), ('ల', '|'), ('నె', '|'), ('డు', '|'), ('మో', 'U'), ('ట', '|'), ('కొ', 'U'), ('య్య', '|'), ('ల', '|'), ('నే', 'U'), ('ల', '|'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>కరణాలటంటను కైలకట్టల యిప్పి | పాతికలంటను పరిగలంట
 కాన్లంట గీన్లంట కలయి లేనియి కొన్ని | సెల్లులు బాకీలు సెప్పుకొంట
@@ -2397,63 +2214,57 @@
 యెగరాసి దిగరాసి సగమేసి యెగదొబ్బి | కొంపలు పడదోసి సంపుతారు</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('ణా', 'U'), ('ల', '|'), ('టం', 'U'), ('ట', '|'), ('ను', '|'), ('కై', 'U'), ('ల', '|'), ('క', 'U'), ('ట్ట', '|'), ('ల', '|'), ('యి', 'U'), ('ప్పి', '|'), ('పా', 'U'), ('తి', '|'), ('క', '|'), ('లం', 'U'), ('ట', '|'), ('ను', '|'), ('ప', '|'), ('రి', '|'), ('గ', '|'), ('లం', 'U'), ('ట', '|'), ('కా', 'U'), ('న్లం', 'U'), ('ట', '|'), ('గీ', 'U'), ('న్లం', 'U'), ('ట', '|'), ('క', '|'), ('ల', '|'), ('యి', '|'), ('లే', 'U'), ('ని', '|'), ('యి', '|'), ('కొ', 'U'), ('న్ని', '|'), ('సె', 'U'), ('ల్లు', '|'), ('లు', '|'), ('బా', 'U'), ('కీ', 'U'), ('లు', '|'), ('సె', 'U'), ('ప్పు', '|'), ('కొం', 'U'), ('ట', '|'), ('బి', '|'), ('ర', '|'), ('బి', '|'), ('ర', '|'), ('గం', 'U'), ('టా', 'U'), ('లు', '|'), ('గి', '|'), ('ర', '|'), ('గి', '|'), ('ర', '|'), ('ది', 'U'), ('ప్పు', '|'), ('తా', 'U'), ('నా', 'U'), ('కు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('నె', '|'), ('డ', '|'), ('గో', 'U'), ('కు', '|'), ('కుం', 'U'), ('ట', '|'), ('యె', '|'), ('గ', '|'), ('రా', 'U'), ('సి', '|'), ('ది', '|'), ('గ', '|'), ('రా', 'U'), ('సి', '|'), ('స', '|'), ('గ', '|'), ('మే', 'U'), ('సి', '|'), ('యె', '|'), ('గ', '|'), ('దొ', 'U'), ('బ్బి', '|'), ('కొం', 'U'), ('ప', '|'), ('లు', '|'), ('ప', '|'), ('డ', '|'), ('దో', 'U'), ('సి', '|'), ('సం', 'U'), ('పు', '|'), ('తా', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దయ్యమా కాయకసరైన దక్కనియ్య- | రేమి సేయుదు మను మోటులిలను గలరు
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>దయ్యమా కాయకసరైన దక్కనియ్య- | రేమి సేయుదు మను మోటులిలను గలరు
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('ద', 'U'), ('య్య', '|'), ('మా', 'U'), ('కా', 'U'), ('య', '|'), ('క', '|'), ('స', '|'), ('రై', 'U'), ('న', '|'), ('ద', 'U'), ('క్క', '|'), ('ని', 'U'), ('య్య', '|'), ('రే', 'U'), ('మి', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('మ', '|'), ('ను', '|'), ('మో', 'U'), ('టు', '|'), ('లి', '|'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>యెద్దుమందను గూర్చి యెగసాయమిడితేను | తుది నది యధికారి దోసుకొనియె
 దాపుదప్పులకంట దర్మకర్చులకంట | కాసువీసము లాగె కరణపయ్య
@@ -2461,63 +2272,57 @@
 కళ్ళము కంకులు గాలిఁ బట్టగఁ బోతె | బట్టుబాపనవోళ్ళు బతగనీయ-</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('యె', 'U'), ('ద్దు', '|'), ('మం', 'U'), ('ద', '|'), ('ను', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('యె', '|'), ('గ', '|'), ('సా', 'U'), ('య', '|'), ('మి', '|'), ('డి', '|'), ('తే', 'U'), ('ను', '|'), ('తు', '|'), ('ది', '|'), ('న', '|'), ('ది', '|'), ('య', '|'), ('ధి', '|'), ('కా', 'U'), ('రి', '|'), ('దో', 'U'), ('సు', '|'), ('కొ', '|'), ('ని', '|'), ('యె', '|'), ('దా', 'U'), ('పు', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ల', '|'), ('కం', 'U'), ('ట', '|'), ('ద', '|'), ('ర్మ', '|'), ('క', 'U'), ('ర్చు', '|'), ('ల', '|'), ('కం', 'U'), ('ట', '|'), ('కా', 'U'), ('సు', '|'), ('వీ', 'U'), ('స', '|'), ('ము', '|'), ('లా', 'U'), ('గె', '|'), ('క', '|'), ('ర', '|'), ('ణ', '|'), ('ప', 'U'), ('య్య', '|'), ('స', 'U'), ('ల్ల', 'U'), ('మ్మి', '|'), ('ప', '|'), ('వ', '|'), ('క', 'U'), ('మ్మి', '|'), ('సి', 'U'), ('ల్ల', '|'), ('ర', '|'), ('దా', 'U'), ('సి', '|'), ('తే', 'U'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('నా', 'U'), ('బం', 'U'), ('టు', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('దొ', 'U'), ('బ్బె', '|'), ('క', 'U'), ('ళ్ళ', '|'), ('ము', '|'), ('కం', 'U'), ('కు', '|'), ('లు', '|'), ('గా', 'U'), ('లి', '|'), ('బ', 'U'), ('ట్ట', '|'), ('గ', '|'), ('బో', 'U'), ('తె', '|'), ('బ', 'U'), ('ట్టు', '|'), ('బా', 'U'), ('ప', '|'), ('న', '|'), ('వో', 'U'), ('ళ్ళు', '|'), ('బ', '|'), ('త', '|'), ('గ', '|'), ('నీ', 'U'), ('య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>రహహ దందర మిటులయ్యె ననెడి మోటుఁ | బెద్దదొక్కుడుగాళ్ళఁ జెప్పెడిదిఁకేమి,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>రహహ దందర మిటులయ్యె ననెడి మోటుఁ | బెద్దదొక్కుడుగాళ్ళఁ జెప్పెడిదిఁకేమి,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('హ', '|'), ('హ', '|'), ('దం', 'U'), ('ద', '|'), ('ర', '|'), ('మి', '|'), ('టు', '|'), ('ల', 'U'), ('య్యె', '|'), ('న', '|'), ('నె', '|'), ('డి', '|'), ('మో', 'U'), ('టు', '|'), ('బె', 'U'), ('ద్ద', '|'), ('దొ', 'U'), ('క్కు', '|'), ('డు', '|'), ('గా', 'U'), ('ళ్ళ', '|'), ('జె', 'U'), ('ప్పె', '|'), ('డి', '|'), ('ది', '|'), ('కే', 'U'), ('మి', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>కాకంబునకు రత్నఖచితపంజరమేల | పందికి ముత్యాలపందిరేల
 యీపిటీఁగకు మేటి తీపుఁదేనియ యేల | శ్వానంబునకుఁ బట్టుజాలరేల
@@ -2525,63 +2330,57 @@
 గర్దభంబునకు బంగారుపల్లంబేల | షండున కందమౌ జాణ యేల</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('ర', 'U'), ('త్న', '|'), ('ఖ', '|'), ('చి', '|'), ('త', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('మే', 'U'), ('ల', '|'), ('పం', 'U'), ('ది', '|'), ('కి', '|'), ('ము', 'U'), ('త్యా', 'U'), ('ల', '|'), ('పం', 'U'), ('ది', '|'), ('రే', 'U'), ('ల', '|'), ('యీ', 'U'), ('పి', '|'), ('టీ', 'U'), ('గ', '|'), ('కు', '|'), ('మే', 'U'), ('టి', '|'), ('తీ', 'U'), ('పు', '|'), ('దే', 'U'), ('ని', '|'), ('య', '|'), ('యే', 'U'), ('ల', 'U'), ('శ్వా', 'U'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('బ', 'U'), ('ట్టు', '|'), ('జా', 'U'), ('ల', '|'), ('రే', 'U'), ('ల', '|'), ('మ', '|'), ('హి', '|'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('మృ', '|'), ('గ', '|'), ('మ', '|'), ('ద', '|'), ('వి', '|'), ('లే', 'U'), ('ప', '|'), ('న', '|'), ('మే', 'U'), ('ల', '|'), ('కో', 'U'), ('తి', '|'), ('కి', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('గొ', '|'), ('లు', '|'), ('సు', '|'), ('లే', 'U'), ('ల', '|'), ('గ', '|'), ('ర్ద', '|'), ('భం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('ప', 'U'), ('ల్లం', 'U'), ('బే', 'U'), ('ల', '|'), ('షం', 'U'), ('డు', '|'), ('న', '|'), ('కం', 'U'), ('ద', '|'), ('మౌ', 'U'), ('జా', 'U'), ('ణ', '|'), ('యే', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పరమలోభికి నృపసభాప్రథితమహిమ- | సుకవికృతభవ్యకావ్యవిస్ఫురణ యేల
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>పరమలోభికి నృపసభాప్రథితమహిమ- | సుకవికృతభవ్యకావ్యవిస్ఫురణ యేల
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మ', '|'), ('లో', 'U'), ('భి', '|'), ('కి', '|'), ('నృ', '|'), ('ప', '|'), ('స', '|'), ('భా', 'U'), ('ప్ర', '|'), ('థి', '|'), ('త', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('సు', '|'), ('క', '|'), ('వి', '|'), ('కృ', '|'), ('త', '|'), ('భ', 'U'), ('వ్య', '|'), ('కా', 'U'), ('వ్య', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('యే', 'U'), ('ల', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>పొడవైన కారెనుబోఁతుఁ గన్గొని తేంట్లు | మదగజేంద్రంబని పొదవునట్లు
 దళమైన యెండమావులు సూచి నీళ్ళని | చెలఁగి జింకలు దాడిసేయునట్లు
@@ -2589,63 +2388,57 @@
 బూరుగచెట్టుపైఁ బూవులుండుట చూచి | చిలుకలు ఫలముకై చేరినట్లు</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('పొ', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('కా', 'U'), ('రె', '|'), ('ను', '|'), ('బో', 'U'), ('తు', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('తేం', 'U'), ('ట్లు', '|'), ('మ', '|'), ('ద', '|'), ('గ', '|'), ('జేం', 'U'), ('ద్రం', 'U'), ('బ', '|'), ('ని', '|'), ('పొ', '|'), ('ద', '|'), ('వు', '|'), ('న', 'U'), ('ట్లు', '|'), ('ద', '|'), ('ళ', '|'), ('మై', 'U'), ('న', '|'), ('యెం', 'U'), ('డ', '|'), ('మా', 'U'), ('వు', '|'), ('లు', '|'), ('సూ', 'U'), ('చి', '|'), ('నీ', 'U'), ('ళ్ళ', '|'), ('ని', '|'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('జిం', 'U'), ('క', '|'), ('లు', '|'), ('దా', 'U'), ('డి', '|'), ('సే', 'U'), ('యు', '|'), ('న', 'U'), ('ట్లు', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ద', '|'), ('వా', 'U'), ('గ్ని', '|'), ('ధూ', 'U'), ('మ', '|'), ('ము', '|'), ('గాం', 'U'), ('చి', '|'), ('మొ', '|'), ('గు', '|'), ('ల', '|'), ('ని', '|'), ('చా', 'U'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('డా', 'U'), ('య', '|'), ('జ', '|'), ('ని', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('బూ', 'U'), ('రు', '|'), ('గ', '|'), ('చె', 'U'), ('ట్టు', '|'), ('పై', 'U'), ('బూ', 'U'), ('వు', '|'), ('లుం', 'U'), ('డు', '|'), ('ట', '|'), ('చూ', 'U'), ('చి', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('కై', 'U'), ('చే', 'U'), ('రి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ధరణి నధముల దాంభికత్వములు చూచి | చేరి యాచింపఁ దలతురు సూరిజనులు
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ధరణి నధముల దాంభికత్వములు చూచి | చేరి యాచింపఁ దలతురు సూరిజనులు
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('న', '|'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('దాం', 'U'), ('భి', '|'), ('క', 'U'), ('త్వ', '|'), ('ము', '|'), ('లు', '|'), ('చూ', 'U'), ('చి', '|'), ('చే', 'U'), ('రి', '|'), ('యా', 'U'), ('చిం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('రు', '|'), ('సూ', 'U'), ('రి', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>ఇల జొన్నఁ బడు గ్రుడ్డియెద్దు చాడ్పున మృదు- | పదగతు లరయక పరుపుకొనుచుఁ
 బెనకున నోడిన పిఱికిబంటును బోలె | వడి లేక ప్రాసంబు విడిచివైచి
@@ -2653,63 +2446,57 @@
 పెంటలపైఁ బొరల్వెట్టు రాసభమట్లు | పలుమఱు నపశబ్దమునె పలుకుచు</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('జొ', 'U'), ('న్న', '|'), ('బ', '|'), ('డు', 'U'), ('గ్రు', 'U'), ('డ్డి', '|'), ('యె', 'U'), ('ద్దు', '|'), ('చా', 'U'), ('డ్పు', '|'), ('న', '|'), ('మృ', '|'), ('దు', '|'), ('ప', '|'), ('ద', '|'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('ర', '|'), ('య', '|'), ('క', '|'), ('ప', '|'), ('రు', '|'), ('పు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('బె', '|'), ('న', '|'), ('కు', '|'), ('న', '|'), ('నో', 'U'), ('డి', '|'), ('న', '|'), ('పి', '|'), ('ఱి', '|'), ('కి', '|'), ('బం', 'U'), ('టు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('వ', '|'), ('డి', '|'), ('లే', 'U'), ('క', 'U'), ('ప్రా', 'U'), ('సం', 'U'), ('బు', '|'), ('వి', '|'), ('డి', '|'), ('చి', '|'), ('వై', 'U'), ('చి', '|'), ('సా', 'U'), ('రె', '|'), ('గొ', 'U'), ('క్కె', '|'), ('ర', '|'), ('రీ', 'U'), ('తి', '|'), ('జ', '|'), ('డ', '|'), ('ధు', '|'), ('ల', '|'), ('నె', '|'), ('ర', '|'), ('సు', '|'), ('ల', '|'), ('నె', '|'), ('మ', '|'), ('కు', '|'), ('చు', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('భం', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('దో', 'U'), ('గి', '|'), ('పెం', 'U'), ('ట', '|'), ('ల', '|'), ('పై', 'U'), ('బొ', '|'), ('ర', 'U'), ('ల్వె', 'U'), ('ట్టు', '|'), ('రా', 'U'), ('స', '|'), ('భ', '|'), ('మ', 'U'), ('ట్లు', '|'), ('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('న', '|'), ('ప', '|'), ('శ', 'U'), ('బ్ద', '|'), ('ము', '|'), ('నె', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తస్కరుని చందమునఁ బదార్థములు మ్రుచ్చి- | లించుచుఁ జరించు కుకవుల నెంచనేల?
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>తస్కరుని చందమునఁ బదార్థములు మ్రుచ్చి- | లించుచుఁ జరించు కుకవుల నెంచనేల?
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('స్క', '|'), ('రు', '|'), ('ని', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('బ', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లు', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లిం', 'U'), ('చు', '|'), ('చు', '|'), ('జ', '|'), ('రిం', 'U'), ('చు', '|'), ('కు', '|'), ('క', '|'), ('వు', '|'), ('ల', '|'), ('నెం', 'U'), ('చ', '|'), ('నే', 'U'), ('ల', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>దేశాటనంబును దేవతోపాస్తియుఁ | బండితస్నేహంబు బహుపురాణ-
 శోధకత్వము పరిశుద్ధతయును మహా- | ప్రతిభయుఁ గల్పనాపాటవంబు
@@ -2717,63 +2504,57 @@
 నిఖిలకలానైపుణియు నహంకారరా- | హిత్యంబు జనహితకృత్యములును</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('దే', 'U'), ('శా', 'U'), ('ట', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('దే', 'U'), ('వ', '|'), ('తో', 'U'), ('పా', 'U'), ('స్తి', '|'), ('యు', '|'), ('బం', 'U'), ('డి', '|'), ('త', 'U'), ('స్నే', 'U'), ('హం', 'U'), ('బు', '|'), ('బ', '|'), ('హు', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('శో', 'U'), ('ధ', '|'), ('క', 'U'), ('త్వ', '|'), ('ము', '|'), ('ప', '|'), ('రి', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('భ', '|'), ('యు', '|'), ('గ', 'U'), ('ల్ప', '|'), ('నా', 'U'), ('పా', 'U'), ('ట', '|'), ('వం', 'U'), ('బు', '|'), ('ఛం', 'U'), ('దో', 'U'), ('ము', '|'), ('ఖా', 'U'), ('శే', 'U'), ('ష', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('వే', 'U'), ('ది', 'U'), ('త్వం', 'U'), ('బు', '|'), ('సం', 'U'), ('గీ', 'U'), ('త', '|'), ('సా', 'U'), ('హి', 'U'), ('త్య', '|'), ('సౌ', 'U'), ('ష్ఠ', '|'), ('వం', 'U'), ('బు', '|'), ('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('క', '|'), ('లా', 'U'), ('నై', 'U'), ('పు', '|'), ('ణి', '|'), ('యు', '|'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('రా', 'U'), ('హి', 'U'), ('త్యం', 'U'), ('బు', '|'), ('జ', '|'), ('న', '|'), ('హి', '|'), ('త', '|'), ('కృ', 'U'), ('త్య', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గలిగి కవిరాజ రాజశేఖరులు మెచ్చు | కబ్బములు గూర్చువాఁడె పో కవి యనంగ,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>గలిగి కవిరాజ రాజశేఖరులు మెచ్చు | కబ్బములు గూర్చువాఁడె పో కవి యనంగ,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('లి', '|'), ('గి', '|'), ('క', '|'), ('వి', '|'), ('రా', 'U'), ('జ', '|'), ('రా', 'U'), ('జ', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చు', '|'), ('క', 'U'), ('బ్బ', '|'), ('ము', '|'), ('లు', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('వా', 'U'), ('డె', '|'), ('పో', 'U'), ('క', '|'), ('వి', '|'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>అలికులవేణి సింహకిశోరనిభమధ్య | పరిపక్వబింబోష్ఠి పద్మగంధి
 రాకేందువదన శరచ్చంద్రికాహాస | కోకిలకలవాణి కుందరదన
@@ -2781,63 +2562,57 @@
 ముకురకపోల చంపకపుష్పసమనాస | భుజగరోమావళి పులినజఘన</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('లి', '|'), ('కు', '|'), ('ల', '|'), ('వే', 'U'), ('ణి', '|'), ('సిం', 'U'), ('హ', '|'), ('కి', '|'), ('శో', 'U'), ('ర', '|'), ('ని', '|'), ('భ', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ప', '|'), ('రి', '|'), ('ప', 'U'), ('క్వ', '|'), ('బిం', 'U'), ('బో', 'U'), ('ష్ఠి', '|'), ('ప', 'U'), ('ద్మ', '|'), ('గం', 'U'), ('ధి', '|'), ('రా', 'U'), ('కేం', 'U'), ('దు', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('శ', '|'), ('ర', 'U'), ('చ్చం', 'U'), ('ద్రి', '|'), ('కా', 'U'), ('హా', 'U'), ('స', '|'), ('కో', 'U'), ('కి', '|'), ('ల', '|'), ('క', '|'), ('ల', '|'), ('వా', 'U'), ('ణి', '|'), ('కుం', 'U'), ('ద', '|'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('ప', 'U'), ('ల్ల', '|'), ('వ', '|'), ('పా', 'U'), ('ణి', '|'), ('శం', 'U'), ('పా', 'U'), ('ల', '|'), ('తా', 'U'), ('వి', 'U'), ('గ్ర', '|'), ('హ', '|'), ('లి', '|'), ('కు', '|'), ('చ', '|'), ('వ', 'U'), ('క్షో', 'U'), ('జ', '|'), ('నా', 'U'), ('ళీ', 'U'), ('క', '|'), ('నే', 'U'), ('త్ర', '|'), ('ము', '|'), ('కు', '|'), ('ర', '|'), ('క', '|'), ('పో', 'U'), ('ల', '|'), ('చం', 'U'), ('ప', '|'), ('క', '|'), ('పు', 'U'), ('ష్ప', '|'), ('స', '|'), ('మ', '|'), ('నా', 'U'), ('స', '|'), ('భు', '|'), ('జ', '|'), ('గ', '|'), ('రో', 'U'), ('మా', 'U'), ('వ', '|'), ('ళి', '|'), ('పు', '|'), ('లి', '|'), ('న', '|'), ('జ', '|'), ('ఘ', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనఁగ నెన్నిక గన్న లేయన్నుమిన్న | దొరకి ఘను నిన్ను నుతిగొన్న పురుషుఁ డహహ,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>యనఁగ నెన్నిక గన్న లేయన్నుమిన్న | దొరకి ఘను నిన్ను నుతిగొన్న పురుషుఁ డహహ,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('న', '|'), ('గ', '|'), ('నె', 'U'), ('న్ని', '|'), ('క', '|'), ('గ', 'U'), ('న్న', '|'), ('లే', 'U'), ('య', 'U'), ('న్ను', '|'), ('మి', 'U'), ('న్న', '|'), ('దొ', '|'), ('ర', '|'), ('కి', '|'), ('ఘ', '|'), ('ను', '|'), ('ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('తి', '|'), ('గొ', 'U'), ('న్న', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('డ', '|'), ('హ', '|'), ('హ', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>పతిని దైవమ యంచు మతి నెంచి యరయుచుఁ | గలనైనఁ గ్రోధంబు నిలుపఁబోక
 యతిథులఁ జుట్టాల నతిభక్తిఁ జూచుచు | సత్యవాక్యనిరూఢి జరుపుచుండి
@@ -2845,63 +2620,57 @@
 యత్తమామల మాట కడుగు దాఁటగఁబోక | మాన మాభరణంబుగా నమర్చి</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('ని', '|'), ('దై', 'U'), ('వ', '|'), ('మ', '|'), ('యం', 'U'), ('చు', '|'), ('మ', '|'), ('తి', '|'), ('నెం', 'U'), ('చి', '|'), ('య', '|'), ('ర', '|'), ('యు', '|'), ('చు', '|'), ('గ', '|'), ('ల', '|'), ('నై', 'U'), ('న', 'U'), ('గ్రో', 'U'), ('ధం', 'U'), ('బు', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('బో', 'U'), ('క', '|'), ('య', '|'), ('తి', '|'), ('థు', '|'), ('ల', '|'), ('జు', 'U'), ('ట్టా', 'U'), ('ల', '|'), ('న', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('జూ', 'U'), ('చు', '|'), ('చు', '|'), ('స', 'U'), ('త్య', '|'), ('వా', 'U'), ('క్య', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢి', '|'), ('జ', '|'), ('రు', '|'), ('పు', '|'), ('చుం', 'U'), ('డి', '|'), ('యు', '|'), ('భ', '|'), ('య', '|'), ('వం', 'U'), ('శ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('నిం', 'U'), ('చు', '|'), ('చు', '|'), ('ని', 'U'), ('మ్ము', '|'), ('గా', 'U'), ('న', '|'), ('గు', '|'), ('సు', '|'), ('చి', 'U'), ('త్త', 'U'), ('మ్ము', '|'), ('పూ', 'U'), ('ని', '|'), ('య', 'U'), ('త్త', '|'), ('మా', 'U'), ('మ', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('క', '|'), ('డు', '|'), ('గు', '|'), ('దా', 'U'), ('ట', '|'), ('గ', '|'), ('బో', 'U'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('మా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', '|'), ('మ', 'U'), ('ర్చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మెలఁగుచుండెడి యిల్లాలు కలుగవలయు | మహితభాగ్యాన్వితుండైన మానవునకు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>మెలఁగుచుండెడి యిల్లాలు కలుగవలయు | మహితభాగ్యాన్వితుండైన మానవునకు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('మె', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('యి', 'U'), ('ల్లా', 'U'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('మ', '|'), ('హి', '|'), ('త', '|'), ('భా', 'U'), ('గ్యా', 'U'), ('న్వి', '|'), ('తుం', 'U'), ('డై', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>తన యింటి యర్థంబుఁ దానె మ్రుచ్చిలుదాని | ననయంబుఁ గొరకొరలాడుదాని
 గయ్యంబునకు నెప్డు కాలు దువ్వెడిదాని | నెడపక యేవేళ నేడ్చుదాని
@@ -2909,63 +2678,57 @@
 పరహితశీలయై పరగుచుండెడిదాని | గయ్యాళియై పతిఁ గలఁచుదాని</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యిం', 'U'), ('టి', '|'), ('య', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('దా', 'U'), ('నె', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లు', '|'), ('దా', 'U'), ('ని', '|'), ('న', '|'), ('న', '|'), ('యం', 'U'), ('బు', '|'), ('గొ', '|'), ('ర', '|'), ('కొ', '|'), ('ర', '|'), ('లా', 'U'), ('డు', '|'), ('దా', 'U'), ('ని', '|'), ('గ', 'U'), ('య్యం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('నె', 'U'), ('ప్డు', '|'), ('కా', 'U'), ('లు', '|'), ('దు', 'U'), ('వ్వె', '|'), ('డి', '|'), ('దా', 'U'), ('ని', '|'), ('నె', '|'), ('డ', '|'), ('ప', '|'), ('క', '|'), ('యే', 'U'), ('వే', 'U'), ('ళ', '|'), ('నే', 'U'), ('డ్చు', '|'), ('దా', 'U'), ('ని', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('దా', 'U'), ('ని', '|'), ('ధ', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('శి', '|'), ('శు', '|'), ('వు', '|'), ('ల', '|'), ('గొ', 'U'), ('ట్టు', '|'), ('దా', 'U'), ('ని', '|'), ('ప', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('శీ', 'U'), ('ల', '|'), ('యై', 'U'), ('ప', '|'), ('ర', '|'), ('గు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('దా', 'U'), ('ని', '|'), ('గ', 'U'), ('య్యా', 'U'), ('ళి', '|'), ('యై', 'U'), ('ప', '|'), ('తి', '|'), ('గ', '|'), ('ల', '|'), ('చు', '|'), ('దా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తవిలి పదుగురుబిడ్డల తల్లియైన | విడువవలెనండ్రు పెద్ద లిప్పుడమియందు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>తవిలి పదుగురుబిడ్డల తల్లియైన | విడువవలెనండ్రు పెద్ద లిప్పుడమియందు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('వి', '|'), ('లి', '|'), ('ప', '|'), ('దు', '|'), ('గు', '|'), ('రు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('ల', '|'), ('త', 'U'), ('ల్లి', '|'), ('యై', 'U'), ('న', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('వ', '|'), ('లె', '|'), ('నం', 'U'), ('డ్రు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లి', 'U'), ('ప్పు', '|'), ('డ', '|'), ('మి', '|'), ('యం', 'U'), ('దు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>జగడాలచీలి వేసాలవెల్లి బిసాళి | తిండిపోతు గయాళి మొండికట్టె
 హేయభాజనము పల్మాయలపుట్టిల్లు | కంతులరాకాసి పంతగత్తె
@@ -2973,63 +2736,57 @@
 నిక్కులబండి బందెలమారి కల్లల- | పాతర సోమరిపో తనంగ</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('గ', '|'), ('డా', 'U'), ('ల', '|'), ('చీ', 'U'), ('లి', '|'), ('వే', 'U'), ('సా', 'U'), ('ల', '|'), ('వె', 'U'), ('ల్లి', '|'), ('బి', '|'), ('సా', 'U'), ('ళి', '|'), ('తిం', 'U'), ('డి', '|'), ('పో', 'U'), ('తు', '|'), ('గ', '|'), ('యా', 'U'), ('ళి', '|'), ('మొం', 'U'), ('డి', '|'), ('క', 'U'), ('ట్టె', '|'), ('హే', 'U'), ('య', '|'), ('భా', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('ప', 'U'), ('ల్మా', 'U'), ('య', '|'), ('ల', '|'), ('పు', 'U'), ('ట్టి', 'U'), ('ల్లు', '|'), ('కం', 'U'), ('తు', '|'), ('ల', '|'), ('రా', 'U'), ('కా', 'U'), ('సి', '|'), ('పం', 'U'), ('త', '|'), ('గ', 'U'), ('త్తె', '|'), ('య', '|'), ('వ', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('తా', 'U'), ('వ', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', '|'), ('ల', 'U'), ('ప్రో', 'U'), ('వు', '|'), ('చె', '|'), ('ర', '|'), ('ప', '|'), ('న', '|'), ('చే', 'U'), ('ట', '|'), ('మా', 'U'), ('సి', '|'), ('క', '|'), ('ల', '|'), ('మూ', 'U'), ('ట', '|'), ('ని', 'U'), ('క్కు', '|'), ('ల', '|'), ('బం', 'U'), ('డి', '|'), ('బం', 'U'), ('దె', '|'), ('ల', '|'), ('మా', 'U'), ('రి', '|'), ('క', 'U'), ('ల్ల', '|'), ('ల', '|'), ('పా', 'U'), ('త', '|'), ('ర', '|'), ('సో', 'U'), ('మ', '|'), ('రి', '|'), ('పో', 'U'), ('త', '|'), ('నం', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నెన్నఁబడు బేరజపురండ నేలుచుండు | పురుషుని యభాగ్య మేమని పొగడవచ్చు
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>నెన్నఁబడు బేరజపురండ నేలుచుండు | పురుషుని యభాగ్య మేమని పొగడవచ్చు
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('నె', 'U'), ('న్న', '|'), ('బ', '|'), ('డు', '|'), ('బే', 'U'), ('ర', '|'), ('జ', '|'), ('పు', '|'), ('రం', 'U'), ('డ', '|'), ('నే', 'U'), ('లు', '|'), ('చుం', 'U'), ('డు', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('ని', '|'), ('య', '|'), ('భా', 'U'), ('గ్య', '|'), ('మే', 'U'), ('మ', '|'), ('ని', '|'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>కిలకిల నగుచు ముద్దులు గుల్కు నొకవేళ | నొకవేళఁ గొరకొరలూని మెలఁగు
 మలితవిచారబాములఁ గుందు నొకవేళ | నొకవేళ దృఢపరుషోక్తులాడు
@@ -3037,63 +2794,57 @@
 లలిఁ బెక్కురీతుల లాలించు నొకవేళ | నొకవేళఁ బెనువంత నొందఁజేయు</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('కి', '|'), ('ల', '|'), ('కి', '|'), ('ల', '|'), ('న', '|'), ('గు', '|'), ('చు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లు', '|'), ('గు', 'U'), ('ల్కు', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('గొ', '|'), ('ర', '|'), ('కొ', '|'), ('ర', '|'), ('లూ', 'U'), ('ని', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('మ', '|'), ('లి', '|'), ('త', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('బా', 'U'), ('ము', '|'), ('ల', '|'), ('గుం', 'U'), ('దు', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('దృ', '|'), ('ఢ', '|'), ('ప', '|'), ('రు', '|'), ('షో', 'U'), ('క్తు', '|'), ('లా', 'U'), ('డు', '|'), ('ర', '|'), ('తి', '|'), ('క', '|'), ('ళా', 'U'), ('కౌ', 'U'), ('శ', '|'), ('లో', 'U'), ('న్న', '|'), ('తి', '|'), ('సూ', 'U'), ('పు', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('మొ', '|'), ('గ', '|'), ('మీ', 'U'), ('క', '|'), ('యూ', 'U'), ('ర', '|'), ('కుం', 'U'), ('డు', '|'), ('ల', '|'), ('లి', '|'), ('బె', 'U'), ('క్కు', '|'), ('రీ', 'U'), ('తు', '|'), ('ల', '|'), ('లా', 'U'), ('లిం', 'U'), ('చు', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('బె', '|'), ('ను', '|'), ('వం', 'U'), ('త', '|'), ('నొం', 'U'), ('ద', '|'), ('జే', 'U'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నౌర వింతలు భూమిపై నాఁడుదాని | మనసు దెలియంగరాదు పద్మజునికైన,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>నౌర వింతలు భూమిపై నాఁడుదాని | మనసు దెలియంగరాదు పద్మజునికైన,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('నౌ', 'U'), ('ర', '|'), ('విం', 'U'), ('త', '|'), ('లు', '|'), ('భూ', 'U'), ('మి', '|'), ('పై', 'U'), ('నా', 'U'), ('డు', '|'), ('దా', 'U'), ('ని', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('దె', '|'), ('లి', '|'), ('యం', 'U'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('జు', '|'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>ఒరుల భాగ్యము సూచి యోర్వఁజాలనివాడు | బుధజనద్వేషంబు పూనువాఁడు
 చెలిమిమైఁ దల్లిదండ్రులను బ్రోవనివాఁడు | పరకామినుల కాసపడెడివాఁడు
@@ -3101,63 +2852,57 @@
 భూసుపర్వక్షేత్రములు మ్రింగఁజూచువాఁ | డాడినమాట లేదనెడువాఁడు</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('రు', '|'), ('ల', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('సూ', 'U'), ('చి', '|'), ('యో', 'U'), ('ర్వ', '|'), ('జా', 'U'), ('ల', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('బు', '|'), ('ధ', '|'), ('జ', '|'), ('న', 'U'), ('ద్వే', 'U'), ('షం', 'U'), ('బు', '|'), ('పూ', 'U'), ('ను', '|'), ('వా', 'U'), ('డు', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('మై', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('ను', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('కా', 'U'), ('మి', '|'), ('ను', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('శి', '|'), ('వ', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('దూ', 'U'), ('ష', '|'), ('ణల్', 'U'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('కొం', 'U'), ('డె', '|'), ('ముల్', 'U'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('వా', 'U'), ('డు', '|'), ('భూ', 'U'), ('సు', '|'), ('ప', 'U'), ('ర్వ', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('ము', '|'), ('లు', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('వా', 'U'), ('డా', 'U'), ('డి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('లే', 'U'), ('ద', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ప్రోది చేసినవానితోఁ బోరువాఁడు | చేరు దుర్గతి నిహపరదూరుఁడగుచు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ప్రోది చేసినవానితోఁ బోరువాఁడు | చేరు దుర్గతి నిహపరదూరుఁడగుచు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('ప్రో', 'U'), ('ది', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('తో', 'U'), ('బో', 'U'), ('రు', '|'), ('వా', 'U'), ('డు', '|'), ('చే', 'U'), ('రు', '|'), ('దు', 'U'), ('ర్గ', '|'), ('తి', '|'), ('ని', '|'), ('హ', '|'), ('ప', '|'), ('ర', '|'), ('దూ', 'U'), ('రు', '|'), ('డ', '|'), ('గు', '|'), ('చు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>బహుపుత్రసంప త్తిఁ బ్రబలుచుండెడివారు | నిక్షేపములు ధాత్రి నిలుపువారు
 క్షితి శివోద్వాహముల్ సేయుచుండెడివారు | కొంచక గుళ్ళు కట్టించువారు
@@ -3165,63 +2910,57 @@
 కవిబుధోత్తములకుఁ గామితార్థములిచ్చి | యందంబుగాఁ గృతులందువారు</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('హు', '|'), ('పు', 'U'), ('త్ర', '|'), ('సం', 'U'), ('ప', 'U'), ('త్తి', 'U'), ('బ్ర', '|'), ('బ', '|'), ('లు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('ని', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('ధా', 'U'), ('త్రి', '|'), ('ని', '|'), ('లు', '|'), ('పు', '|'), ('వా', 'U'), ('రు', 'U'), ('క్షి', '|'), ('తి', '|'), ('శి', '|'), ('వో', 'U'), ('ద్వా', 'U'), ('హ', '|'), ('ముల్', 'U'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('కొం', 'U'), ('చ', '|'), ('క', '|'), ('గు', 'U'), ('ళ్ళు', '|'), ('క', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రు', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('టా', 'U'), ('క', 'U'), ('మ్ము', '|'), ('లి', 'U'), ('మ్మొ', '|'), ('న', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్వె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('వి', '|'), ('రి', '|'), ('వి', '|'), ('గా', 'U'), ('దో', 'U'), ('ట', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('వా', 'U'), ('రు', '|'), ('క', '|'), ('వి', '|'), ('బు', '|'), ('ధో', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('మి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('యం', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('గృ', '|'), ('తు', '|'), ('లం', 'U'), ('దు', '|'), ('వా', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సప్తసంతానకర్త లీ సదమలాత్ము | లెపుడు నిహపరసుఖముల నెనయుచుండ్రు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>సప్తసంతానకర్త లీ సదమలాత్ము | లెపుడు నిహపరసుఖముల నెనయుచుండ్రు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('ప్త', '|'), ('సం', 'U'), ('తా', 'U'), ('న', '|'), ('క', 'U'), ('ర్త', '|'), ('లీ', 'U'), ('స', '|'), ('ద', '|'), ('మ', '|'), ('లా', 'U'), ('త్ము', '|'), ('లె', '|'), ('పు', '|'), ('డు', '|'), ('ని', '|'), ('హ', '|'), ('ప', '|'), ('ర', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('ల', '|'), ('నె', '|'), ('న', '|'), ('యు', '|'), ('చుం', 'U'), ('డ్రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>వలవని చెలువతో మెలగువాఁ డొకకూళ | వాసిడించి చరించువాఁడు కూళ
 సిరి గల్గి కుడువక చిక్కువాఁ డొకకూళ | వనిత కుంకువ చెప్పువాఁడు కూళ
@@ -3229,63 +2968,57 @@
 ధనికుతోఁ బగవెట్టుకొనెడువాఁ డొకకూళ | వడిలేని దొరఁ గొల్చువాఁడు కూళ</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ల', '|'), ('వ', '|'), ('ని', '|'), ('చె', '|'), ('లు', '|'), ('వ', '|'), ('తో', 'U'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('వా', 'U'), ('డొ', '|'), ('క', '|'), ('కూ', 'U'), ('ళ', '|'), ('వా', 'U'), ('సి', '|'), ('డిం', 'U'), ('చి', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డు', '|'), ('కూ', 'U'), ('ళ', '|'), ('సి', '|'), ('రి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('కు', '|'), ('డు', '|'), ('వ', '|'), ('క', '|'), ('చి', 'U'), ('క్కు', '|'), ('వా', 'U'), ('డొ', '|'), ('క', '|'), ('కూ', 'U'), ('ళ', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('కుం', 'U'), ('కు', '|'), ('వ', '|'), ('చె', 'U'), ('ప్పు', '|'), ('వా', 'U'), ('డు', '|'), ('కూ', 'U'), ('ళ', '|'), ('చె', '|'), ('డి', '|'), ('బం', 'U'), ('ధు', '|'), ('నిం', 'U'), ('టి', '|'), ('కి', '|'), ('జే', 'U'), ('రు', '|'), ('వా', 'U'), ('డొ', '|'), ('క', '|'), ('కూ', 'U'), ('ళ', '|'), ('వ', '|'), ('సు', '|'), ('ధే', 'U'), ('శు', '|'), ('జె', '|'), ('డ', '|'), ('నా', 'U'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('కూ', 'U'), ('ళ', '|'), ('ధ', '|'), ('ని', '|'), ('కు', '|'), ('తో', 'U'), ('బ', '|'), ('గ', '|'), ('వె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('డొ', '|'), ('క', '|'), ('కూ', 'U'), ('ళ', '|'), ('వ', '|'), ('డి', '|'), ('లే', 'U'), ('ని', '|'), ('దొ', '|'), ('ర', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('వా', 'U'), ('డు', '|'), ('కూ', 'U'), ('ళ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కూడదన్నను గవితలఁ గూర్చి బలిమి | గుమతులకు నిచ్చువాఁ డొక్కకూళ సుమ్ము,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>కూడదన్నను గవితలఁ గూర్చి బలిమి | గుమతులకు నిచ్చువాఁ డొక్కకూళ సుమ్ము,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('కూ', 'U'), ('డ', '|'), ('ద', 'U'), ('న్న', '|'), ('ను', '|'), ('గ', '|'), ('వి', '|'), ('త', '|'), ('ల', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('గు', '|'), ('మ', '|'), ('తు', '|'), ('ల', '|'), ('కు', '|'), ('ని', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డొ', 'U'), ('క్క', '|'), ('కూ', 'U'), ('ళ', '|'), ('సు', 'U'), ('మ్ము', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>ఆరకూటములోన నపరంజి యిడినట్లు | చెరువులోఁ బన్నీరు చిలికినట్లు
 చౌటినేలను మంచిసస్యం బిడినయట్లు | వెలిమిడిలో నెయ్యి వేల్చినట్లు
@@ -3293,63 +3026,57 @@
 పాడింటిలోన దీపంబు నిల్పినయట్లు | వార్ధిలోఁ గురిసిన వానయట్లు</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ర', '|'), ('కూ', 'U'), ('ట', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('యి', '|'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('చె', '|'), ('రు', '|'), ('వు', '|'), ('లో', 'U'), ('బ', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('చి', '|'), ('లి', '|'), ('కి', '|'), ('న', 'U'), ('ట్లు', '|'), ('చౌ', 'U'), ('టి', '|'), ('నే', 'U'), ('ల', '|'), ('ను', '|'), ('మం', 'U'), ('చి', '|'), ('స', 'U'), ('స్యం', 'U'), ('బి', '|'), ('డి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('వె', '|'), ('లి', '|'), ('మి', '|'), ('డి', '|'), ('లో', 'U'), ('నె', 'U'), ('య్యి', '|'), ('వే', 'U'), ('ల్చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('షం', 'U'), ('డు', '|'), ('న', '|'), ('కం', 'U'), ('ద', '|'), ('మౌ', 'U'), ('స', '|'), ('కి', '|'), ('ని', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('పే', 'U'), ('డ', '|'), ('లో', 'U'), ('గ', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('డిం', 'U'), ('టి', '|'), ('లో', 'U'), ('న', '|'), ('దీ', 'U'), ('పం', 'U'), ('బు', '|'), ('ని', 'U'), ('ల్పి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('లో', 'U'), ('గు', '|'), ('రి', '|'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('న', '|'), ('య', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తొడరి సుజనులు ధరణిలో దుర్జనులకుఁ | జేయు నుపకృతి వ్యర్థమై చెడు గదయ్య,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>తొడరి సుజనులు ధరణిలో దుర్జనులకుఁ | జేయు నుపకృతి వ్యర్థమై చెడు గదయ్య,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('తొ', '|'), ('డ', '|'), ('రి', '|'), ('సు', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('జే', 'U'), ('యు', '|'), ('ను', '|'), ('ప', '|'), ('కృ', '|'), ('తి', 'U'), ('వ్య', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('చె', '|'), ('డు', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>పరమలోభిని దివాకరతనూభవుఁ డంచు | ఛద్మచిత్తుని హరిశ్చంద్రుఁ డనుచు
 నిర్దయాత్ముని రామనృపశిఖామణి యంచుఁ | గడుకురూపిని రతికాంతుఁ డనుచు
@@ -3357,63 +3084,57 @@
 కుండబీదను మరున్మండలేశ్వరుఁ డంచు | మతివిహీనుని భోగిపతి యటంచు</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మ', '|'), ('లో', 'U'), ('భి', '|'), ('ని', '|'), ('ది', '|'), ('వా', 'U'), ('క', '|'), ('ర', '|'), ('త', '|'), ('నూ', 'U'), ('భ', '|'), ('వు', '|'), ('డం', 'U'), ('చు', '|'), ('ఛ', 'U'), ('ద్మ', '|'), ('చి', 'U'), ('త్తు', '|'), ('ని', '|'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('ని', '|'), ('ర్ద', '|'), ('యా', 'U'), ('త్ము', '|'), ('ని', '|'), ('రా', 'U'), ('మ', '|'), ('నృ', '|'), ('ప', '|'), ('శి', '|'), ('ఖా', 'U'), ('మ', '|'), ('ణి', '|'), ('యం', 'U'), ('చు', '|'), ('గ', '|'), ('డు', '|'), ('కు', '|'), ('రూ', 'U'), ('పి', '|'), ('ని', '|'), ('ర', '|'), ('తి', '|'), ('కాం', 'U'), ('తు', '|'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('పా', 'U'), ('ప', '|'), ('క', '|'), ('ర్ము', '|'), ('న', '|'), ('భం', 'U'), ('గ', '|'), ('పాం', 'U'), ('డ', '|'), ('వా', 'U'), ('గ్ర', '|'), ('జు', '|'), ('డం', 'U'), ('చు', '|'), ('స', '|'), ('మ', '|'), ('ర', '|'), ('భీ', 'U'), ('రు', '|'), ('ని', '|'), ('స', 'U'), ('వ్య', '|'), ('సా', 'U'), ('చి', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('కుం', 'U'), ('డ', '|'), ('బీ', 'U'), ('ద', '|'), ('ను', '|'), ('మ', '|'), ('రు', 'U'), ('న్మం', 'U'), ('డ', '|'), ('లే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డం', 'U'), ('చు', '|'), ('మ', '|'), ('తి', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('ని', '|'), ('భో', 'U'), ('గి', '|'), ('ప', '|'), ('తి', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కవులు కక్కూర్తి నిసుమంత కడుపు కొఱకు | పొగడుచుండుదు రవివేకబుధు లగుచు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>కవులు కక్కూర్తి నిసుమంత కడుపు కొఱకు | పొగడుచుండుదు రవివేకబుధు లగుచు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('వు', '|'), ('లు', '|'), ('క', 'U'), ('క్కూ', 'U'), ('ర్తి', '|'), ('ని', '|'), ('సు', '|'), ('మం', 'U'), ('త', '|'), ('క', '|'), ('డు', '|'), ('పు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కు', '|'), ('పొ', '|'), ('గ', '|'), ('డు', '|'), ('చుం', 'U'), ('డు', '|'), ('దు', '|'), ('ర', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('బు', '|'), ('ధు', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>పూదోఁటఁ గారెనుబోతు దూఱినయట్లు | పైరులోఁ బెనుగాబు బలిసినట్లు
 గుడిమీద మఱ్ఱిమ్రాన్ గుదురు మీఱినయట్లు | చెదపుర్వునకు ఱెక్కలొదవినట్లు
@@ -3421,63 +3142,57 @@
 నట్టింట గడితంపుఁ బుట్ట పుట్టినయట్లు | గందమ్ములోఁ బేడ కలిసినట్లు</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('పూ', 'U'), ('దో', 'U'), ('ట', '|'), ('గా', 'U'), ('రె', '|'), ('ను', '|'), ('బో', 'U'), ('తు', '|'), ('దూ', 'U'), ('ఱి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('పై', 'U'), ('రు', '|'), ('లో', 'U'), ('బె', '|'), ('ను', '|'), ('గా', 'U'), ('బు', '|'), ('బ', '|'), ('లి', '|'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గు', '|'), ('డి', '|'), ('మీ', 'U'), ('ద', '|'), ('మ', 'U'), ('ఱ్ఱి', '|'), ('మ్రాన్', 'U'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('మీ', 'U'), ('ఱి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('చె', '|'), ('ద', '|'), ('పు', 'U'), ('ర్వు', '|'), ('న', '|'), ('కు', '|'), ('ఱె', 'U'), ('క్క', '|'), ('లొ', '|'), ('ద', '|'), ('వి', '|'), ('న', 'U'), ('ట్లు', '|'), ('వె', '|'), ('ర', '|'), ('వొ', 'U'), ('ప్ప', '|'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('న', '|'), ('వె', 'U'), ('న్ను', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('తు', '|'), ('ల', '|'), ('సి', '|'), ('లో', 'U'), ('గం', 'U'), ('జా', 'U'), ('యి', '|'), ('మొ', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('న', 'U'), ('ట్టిం', 'U'), ('ట', '|'), ('గ', '|'), ('డి', '|'), ('తం', 'U'), ('పు', '|'), ('బు', 'U'), ('ట్ట', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('గం', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('లో', 'U'), ('బే', 'U'), ('డ', '|'), ('క', '|'), ('లి', '|'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వంగడంబున నొక క్రూరవర్తనుండు | పొడమి తత్ప్రాభవంబెల్ల నుడుగఁజేయు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>వంగడంబున నొక క్రూరవర్తనుండు | పొడమి తత్ప్రాభవంబెల్ల నుడుగఁజేయు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('గ', '|'), ('డం', 'U'), ('బు', '|'), ('న', '|'), ('నొ', '|'), ('క', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('వ', 'U'), ('ర్త', '|'), ('నుం', 'U'), ('డు', '|'), ('పొ', '|'), ('డ', '|'), ('మి', '|'), ('త', 'U'), ('త్ప్రా', 'U'), ('భ', '|'), ('వం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('డు', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>కాకిమూఁకలలోనఁ గోకిలం బున్నట్లు | కొంగలలో నంచ కూడినట్లు
 సైరిభబులలోన సామజంబున్నట్లు | నక్కలలో జింక చిక్కినట్లు
@@ -3485,63 +3200,57 @@
 గ్రద్దలలో విహంగప్రభుఁడున్నట్లు | ఖరములలో వాజి దొరలినట్లు</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('కి', '|'), ('మూ', 'U'), ('క', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('గో', 'U'), ('కి', '|'), ('లం', 'U'), ('బు', 'U'), ('న్న', 'U'), ('ట్లు', '|'), ('కొం', 'U'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('నం', 'U'), ('చ', '|'), ('కూ', 'U'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('సై', 'U'), ('రి', '|'), ('భ', '|'), ('బు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('సా', 'U'), ('మ', '|'), ('జం', 'U'), ('బు', 'U'), ('న్న', 'U'), ('ట్లు', '|'), ('న', 'U'), ('క్క', '|'), ('ల', '|'), ('లో', 'U'), ('జిం', 'U'), ('క', '|'), ('చి', 'U'), ('క్కి', '|'), ('న', 'U'), ('ట్లు', '|'), ('ధు', 'U'), ('త్తూ', 'U'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('దు', '|'), ('ల', '|'), ('సి', '|'), ('చె', 'U'), ('ట్టు', 'U'), ('న్న', 'U'), ('ట్లు', '|'), ('ఱే', 'U'), ('చు', '|'), ('ల', '|'), ('లో', 'U'), ('బు', '|'), ('లి', '|'), ('రే', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లు', 'U'), ('గ్ర', 'U'), ('ద్ద', '|'), ('ల', '|'), ('లో', 'U'), ('వి', '|'), ('హం', 'U'), ('గ', 'U'), ('ప్ర', '|'), ('భు', '|'), ('డు', 'U'), ('న్న', 'U'), ('ట్లు', '|'), ('ఖ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('వా', 'U'), ('జి', '|'), ('దొ', '|'), ('ర', '|'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ధరణిఁ బెక్కండ్రు నీచవర్తనులలోన | ఘనుఁ డొకఁడు చిక్కి యేమియుఁ గాక యుండు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ధరణిఁ బెక్కండ్రు నీచవర్తనులలోన | ఘనుఁ డొకఁడు చిక్కి యేమియుఁ గాక యుండు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('బె', 'U'), ('క్కం', 'U'), ('డ్రు', '|'), ('నీ', 'U'), ('చ', '|'), ('వ', 'U'), ('ర్త', '|'), ('ను', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('ఘ', '|'), ('ను', '|'), ('డొ', '|'), ('క', '|'), ('డు', '|'), ('చి', 'U'), ('క్కి', '|'), ('యే', 'U'), ('మి', '|'), ('యు', '|'), ('గా', 'U'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>చక్కెరలోఁ బిప్పి సంగతంబైనట్లు | మొగిలిపువ్వున ముండ్లు మొలచినట్లు
 మాలి పంటికి జీడి మట్టు మీఱినయట్లు | కనకంబునకు గామ కలిగినట్లు
@@ -3549,63 +3258,57 @@
 పాలలోఁ దోడుఁ బాల్ మేళనంబైనట్లు | గంగలోపల నాఁచు గలిగినట్లు</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('లో', 'U'), ('బి', 'U'), ('ప్పి', '|'), ('సం', 'U'), ('గ', '|'), ('తం', 'U'), ('బై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('మొ', '|'), ('గి', '|'), ('లి', '|'), ('పు', 'U'), ('వ్వు', '|'), ('న', '|'), ('ముం', 'U'), ('డ్లు', '|'), ('మొ', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మా', 'U'), ('లి', '|'), ('పం', 'U'), ('టి', '|'), ('కి', '|'), ('జీ', 'U'), ('డి', '|'), ('మ', 'U'), ('ట్టు', '|'), ('మీ', 'U'), ('ఱి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('క', '|'), ('న', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('మ', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గొ', '|'), ('న', '|'), ('బు', '|'), ('ము', 'U'), ('త్తె', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('గొ', 'U'), ('గ్గి', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('చం', 'U'), ('ద', '|'), ('మా', 'U'), ('మ', '|'), ('కు', '|'), ('గం', 'U'), ('దు', '|'), ('వొం', 'U'), ('ది', '|'), ('న', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('ల', '|'), ('లో', 'U'), ('దో', 'U'), ('డు', '|'), ('బాల్', 'U'), ('మే', 'U'), ('ళ', '|'), ('నం', 'U'), ('బై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('గం', 'U'), ('గ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నా', 'U'), ('చు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఘనున కొక నేరమించుక కలిగెనేని | గొఱఁతగాఁ జూచి యెగ్గెన్నుకొనరు బుధులు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ఘనున కొక నేరమించుక కలిగెనేని | గొఱఁతగాఁ జూచి యెగ్గెన్నుకొనరు బుధులు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('ను', '|'), ('న', '|'), ('కొ', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('మిం', 'U'), ('చు', '|'), ('క', '|'), ('క', '|'), ('లి', '|'), ('గె', '|'), ('నే', 'U'), ('ని', '|'), ('గొ', '|'), ('ఱ', '|'), ('త', '|'), ('గా', 'U'), ('జూ', 'U'), ('చి', '|'), ('యె', 'U'), ('గ్గె', 'U'), ('న్ను', '|'), ('కొ', '|'), ('న', '|'), ('రు', '|'), ('బు', '|'), ('ధు', '|'), ('లు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>కొఱగాని పంచమకులునైన నడిగించుఁ | బరదేశములవెంటఁ దిరుగఁజేయుఁ
 గులములో వన్నె తక్కువయై మెలంగించు | మదిని హింసాంభోధిఁ గుదురుపఱచు
@@ -3613,63 +3316,57 @@
 తివిరి సాధులఁ బట్టి తెరవాట్లు కొట్టించు | గడలేని యిడుమలఁ గుడువఁజేయు</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('ని', '|'), ('పం', 'U'), ('చ', '|'), ('మ', '|'), ('కు', '|'), ('లు', '|'), ('నై', 'U'), ('న', '|'), ('న', '|'), ('డి', '|'), ('గిం', 'U'), ('చు', '|'), ('బ', '|'), ('ర', '|'), ('దే', 'U'), ('శ', '|'), ('ము', '|'), ('ల', '|'), ('వెం', 'U'), ('ట', '|'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('గు', '|'), ('ల', '|'), ('ము', '|'), ('లో', 'U'), ('వ', 'U'), ('న్నె', '|'), ('త', 'U'), ('క్కు', '|'), ('వ', '|'), ('యై', 'U'), ('మె', '|'), ('లం', 'U'), ('గిం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('హిం', 'U'), ('సాం', 'U'), ('భో', 'U'), ('ధి', '|'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('ప', '|'), ('ఱ', '|'), ('చు', '|'), ('స', '|'), ('భ', '|'), ('నా', 'U'), ('డు', '|'), ('మా', 'U'), ('ట', '|'), ('హా', 'U'), ('స్య', '|'), ('ర', '|'), ('సా', 'U'), ('స్ప', '|'), ('ద', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('తె', '|'), ('లి', '|'), ('వి', '|'), ('యొ', 'U'), ('క్క', '|'), ('పు', '|'), ('డై', 'U'), ('న', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('నీ', 'U'), ('దు', '|'), ('తి', '|'), ('వి', '|'), ('రి', '|'), ('సా', 'U'), ('ధు', '|'), ('ల', '|'), ('బ', 'U'), ('ట్టి', '|'), ('తె', '|'), ('ర', '|'), ('వా', 'U'), ('ట్లు', '|'), ('కొ', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('గ', '|'), ('డ', '|'), ('లే', 'U'), ('ని', '|'), ('యి', '|'), ('డు', '|'), ('మ', '|'), ('ల', '|'), ('గు', '|'), ('డు', '|'), ('వ', '|'), ('జే', 'U'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ధరణిలోపల నకట పేదఱికమెంత | కాని దది వద్దు సుమ పగవానికైన,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ధరణిలోపల నకట పేదఱికమెంత | కాని దది వద్దు సుమ పగవానికైన,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', '|'), ('క', '|'), ('ట', '|'), ('పే', 'U'), ('ద', '|'), ('ఱి', '|'), ('క', '|'), ('మెం', 'U'), ('త', '|'), ('కా', 'U'), ('ని', '|'), ('ద', '|'), ('ది', '|'), ('వ', 'U'), ('ద్దు', '|'), ('సు', '|'), ('మ', '|'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>కులమున కెల్ల మిక్కిలితనం బొనఁగూడు | నాడినమాటయే పాడి యెసఁగు
 నిఖిలవిద్యాభ్యాసనిపుణత లభియించుఁ | జేసిన పనులెల్ల వాసికెక్కు
@@ -3677,63 +3374,57 @@
 కవిబుధవందిమాగధుల చెల్మి ఘటించుఁ | బగరయైనను వెంటఁ బడి చరించు</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('కె', 'U'), ('ల్ల', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('త', '|'), ('నం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('డు', '|'), ('నా', 'U'), ('డి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('యే', 'U'), ('పా', 'U'), ('డి', '|'), ('యె', '|'), ('స', '|'), ('గు', '|'), ('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('భ్యా', 'U'), ('స', '|'), ('ని', '|'), ('పు', '|'), ('ణ', '|'), ('త', '|'), ('ల', '|'), ('భి', '|'), ('యిం', 'U'), ('చు', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('ప', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('సి', '|'), ('కె', 'U'), ('క్కు', '|'), ('మ', '|'), ('ను', '|'), ('జే', 'U'), ('శ్వ', '|'), ('రా', 'U'), ('స్థా', 'U'), ('న', '|'), ('మా', 'U'), ('న్య', '|'), ('త', '|'), ('స', '|'), ('మ', '|'), ('కూ', 'U'), ('ఱు', '|'), ('గ', '|'), ('డ', '|'), ('లే', 'U'), ('ని', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('యుం', 'U'), ('డు', '|'), ('క', '|'), ('వి', '|'), ('బు', '|'), ('ధ', '|'), ('వం', 'U'), ('ది', '|'), ('మా', 'U'), ('గ', '|'), ('ధు', '|'), ('ల', '|'), ('చె', 'U'), ('ల్మి', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('బ', '|'), ('గ', '|'), ('ర', '|'), ('యై', 'U'), ('న', '|'), ('ను', '|'), ('వెం', 'U'), ('ట', '|'), ('బ', '|'), ('డి', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గలియుగంబున నబ్బబ్బ కలిమివంటి | మంచివస్తువు కలదె యోజించి చూడ,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>గలియుగంబున నబ్బబ్బ కలిమివంటి | మంచివస్తువు కలదె యోజించి చూడ,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('లి', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('బ్బ', 'U'), ('బ్బ', '|'), ('క', '|'), ('లి', '|'), ('మి', '|'), ('వం', 'U'), ('టి', '|'), ('మం', 'U'), ('చి', '|'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('క', '|'), ('ల', '|'), ('దె', '|'), ('యో', 'U'), ('జిం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>బంధుజాతములోన బహుమాన మెడలించు | సభలలో మాటాడఁ జనవులేదు
 పరమైన విజ్ఞానసరత సిద్ధించదు | కుమతులు గెగ్గెర్లఁ గొట్టుచుంద్రు
@@ -3741,63 +3432,57 @@
 ధారుణీపతు లొక్కదానమే నొసఁగరు | కులసతి యతనిఁ దక్కువగఁ జూచు</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('బం', 'U'), ('ధు', '|'), ('జా', 'U'), ('త', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('బ', '|'), ('హు', '|'), ('మా', 'U'), ('న', '|'), ('మె', '|'), ('డ', '|'), ('లిం', 'U'), ('చు', '|'), ('స', '|'), ('భ', '|'), ('ల', '|'), ('లో', 'U'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('జ', '|'), ('న', '|'), ('వు', '|'), ('లే', 'U'), ('దు', '|'), ('ప', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('స', '|'), ('ర', '|'), ('త', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చ', '|'), ('దు', '|'), ('కు', '|'), ('మ', '|'), ('తు', '|'), ('లు', '|'), ('గె', 'U'), ('గ్గె', 'U'), ('ర్ల', '|'), ('గొ', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('ప', '|'), ('ర', '|'), ('భూ', 'U'), ('మి', '|'), ('కే', 'U'), ('గి', '|'), ('న', '|'), ('బా', 'U'), ('టిం', 'U'), ('ప', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', 'U'), ('బ్ర', '|'), ('తి', '|'), ('భా', 'U'), ('వి', '|'), ('శే', 'U'), ('షం', 'U'), ('బు', '|'), ('ప', 'U'), ('ట్టు', '|'), ('వ', '|'), ('డ', '|'), ('దు', '|'), ('ధా', 'U'), ('రు', '|'), ('ణీ', 'U'), ('ప', '|'), ('తు', '|'), ('లొ', 'U'), ('క్క', '|'), ('దా', 'U'), ('న', '|'), ('మే', 'U'), ('నొ', '|'), ('స', '|'), ('గ', '|'), ('రు', '|'), ('కు', '|'), ('ల', '|'), ('స', '|'), ('తి', '|'), ('య', '|'), ('త', '|'), ('ని', '|'), ('ద', 'U'), ('క్కు', '|'), ('వ', '|'), ('గ', '|'), ('జూ', 'U'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నకట విద్యావిహీనత యంత కీడు | లేదు గద మర్త్యులకు ధాత్రిమీఁద నరయ,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>నకట విద్యావిహీనత యంత కీడు | లేదు గద మర్త్యులకు ధాత్రిమీఁద నరయ,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('క', '|'), ('ట', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వి', '|'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('యం', 'U'), ('త', '|'), ('కీ', 'U'), ('డు', '|'), ('లే', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('ల', '|'), ('కు', '|'), ('ధా', 'U'), ('త్రి', '|'), ('మీ', 'U'), ('ద', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>కడుపార ఘృతమాంసఖండముల్ కడు మెక్కి | పుక్కిటఁ దమలంబు తుక్కు ద్రొక్కి
 లావగు గడితంపుఠీవి గన్గొని నిక్కి | విడువక గేస్తుల మెడలు నొక్కి
@@ -3805,63 +3490,57 @@
 కవిబుధవరుల ఢాకలకు మూలలఁ జిక్కి | కక్కుచుఁ బల్లకీ కుక్కులెక్కి</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('పా', 'U'), ('ర', '|'), ('ఘృ', '|'), ('త', '|'), ('మాం', 'U'), ('స', '|'), ('ఖం', 'U'), ('డ', '|'), ('ముల్', 'U'), ('క', '|'), ('డు', '|'), ('మె', 'U'), ('క్కి', '|'), ('పు', 'U'), ('క్కి', '|'), ('ట', '|'), ('ద', '|'), ('మ', '|'), ('లం', 'U'), ('బు', '|'), ('తు', 'U'), ('క్కు', '|'), ('ద్రొ', 'U'), ('క్కి', '|'), ('లా', 'U'), ('వ', '|'), ('గు', '|'), ('గ', '|'), ('డి', '|'), ('తం', 'U'), ('పు', '|'), ('ఠీ', 'U'), ('వి', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ని', 'U'), ('క్కి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('క', '|'), ('గే', 'U'), ('స్తు', '|'), ('ల', '|'), ('మె', '|'), ('డ', '|'), ('లు', '|'), ('నొ', 'U'), ('క్కి', '|'), ('కూ', 'U'), ('ర్చు', '|'), ('రొ', 'U'), ('క్క', '|'), ('ము', '|'), ('చం', 'U'), ('దు', '|'), ('గు', '|'), ('ల', 'U'), ('గ్రి', 'U'), ('క్కి', '|'), ('ఱి', '|'), ('య', 'U'), ('గ్రు', 'U'), ('క్కి', '|'), ('క', '|'), ('స', '|'), ('రు', '|'), ('చు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('పై', 'U'), ('వి', '|'), ('స', '|'), ('ము', 'U'), ('గ్ర', 'U'), ('క్కి', '|'), ('క', '|'), ('వి', '|'), ('బు', '|'), ('ధ', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('ఢా', 'U'), ('క', '|'), ('ల', '|'), ('కు', '|'), ('మూ', 'U'), ('ల', '|'), ('ల', '|'), ('జి', 'U'), ('క్కి', '|'), ('క', 'U'), ('క్కు', '|'), ('చు', '|'), ('బ', 'U'), ('ల్ల', '|'), ('కీ', 'U'), ('కు', 'U'), ('క్కు', '|'), ('లె', 'U'), ('క్కి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిక్కి మిక్కుటమైన యాదొక్కి బొక్కి- | లో టక్కరి నృపాలకులకీ ర్తి దక్కునొక్కొ,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>నిక్కి మిక్కుటమైన యాదొక్కి బొక్కి- | లో టక్కరి నృపాలకులకీ ర్తి దక్కునొక్కొ,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('క్కి', '|'), ('మి', 'U'), ('క్కు', '|'), ('ట', '|'), ('మై', 'U'), ('న', '|'), ('యా', 'U'), ('దొ', 'U'), ('క్కి', '|'), ('బొ', 'U'), ('క్కి', '|'), ('లో', 'U'), ('ట', 'U'), ('క్క', '|'), ('రి', '|'), ('నృ', '|'), ('పా', 'U'), ('ల', '|'), ('కు', '|'), ('ల', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('ద', 'U'), ('క్కు', '|'), ('నొ', 'U'), ('క్కొ', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>అనయమ్ము రాజ్యాంతమున నరకము ధ్రువ | మ్మని స్మృతుల్ వచియింప వినఁగలేదొ
 మును హరిశ్చంద్రాది మనుజేంద్రు లనఘులై | చనిరన్న సత్కథల్ వినఁగలేదొ
@@ -3869,63 +3548,57 @@
 మహిలోన జాతస్య మరణం ధ్రువమ్మని | విబుధులు పలుకంగ వినఁగలేదొ</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('య', 'U'), ('మ్ము', '|'), ('రా', 'U'), ('జ్యాం', 'U'), ('త', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('ము', 'U'), ('ధ్రు', '|'), ('వ', 'U'), ('మ్మ', '|'), ('ని', 'U'), ('స్మృ', '|'), ('తుల్', 'U'), ('వ', '|'), ('చి', '|'), ('యిం', 'U'), ('ప', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('ము', '|'), ('ను', '|'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్రా', 'U'), ('ది', '|'), ('మ', '|'), ('ను', '|'), ('జేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('న', '|'), ('ఘు', '|'), ('లై', 'U'), ('చ', '|'), ('ని', '|'), ('ర', 'U'), ('న్న', '|'), ('స', 'U'), ('త్క', '|'), ('థల్', 'U'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('రుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('ద', '|'), ('ట', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('ల', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వె', '|'), ('త', '|'), ('బె', 'U'), ('ట్టు', '|'), ('న', '|'), ('ను', '|'), ('మా', 'U'), ('ట', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('న', '|'), ('జా', 'U'), ('త', 'U'), ('స్య', '|'), ('మ', '|'), ('ర', '|'), ('ణం', 'U'), ('ధ్రు', '|'), ('వ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వి', '|'), ('బు', '|'), ('ధు', '|'), ('లు', '|'), ('ప', '|'), ('లు', '|'), ('కం', 'U'), ('గ', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కాని దుర్మతులయి ప్రజఁ గలంచి ధనముఁ | గూర్పఁజూతురు బేలలై కూళదొరలు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>కాని దుర్మతులయి ప్రజఁ గలంచి ధనముఁ | గూర్పఁజూతురు బేలలై కూళదొరలు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ని', '|'), ('దు', '|'), ('ర్మ', '|'), ('తు', '|'), ('ల', '|'), ('యి', 'U'), ('ప్ర', '|'), ('జ', '|'), ('గ', '|'), ('లం', 'U'), ('చి', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('గూ', 'U'), ('ర్ప', '|'), ('జూ', 'U'), ('తు', '|'), ('రు', '|'), ('బే', 'U'), ('ల', '|'), ('లై', 'U'), ('కూ', 'U'), ('ళ', '|'), ('దొ', '|'), ('ర', '|'), ('లు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>మరుమరీచికలు తామరసపత్రాంతర- | సలిలబిందువులు చంచలలు హస్తి-
 కర్ణాంతములు దీపకళికాశిఖలు బుద్బు- | దములు మంగలి చేతిదర్పణములు
@@ -3933,63 +3606,57 @@
 వీచులు చలదళవృక్షపలాశముల్ | తృణహుతాశనముల తెఱఁగు లిట్టి</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('రు', '|'), ('మ', '|'), ('రీ', 'U'), ('చి', '|'), ('క', '|'), ('లు', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('ప', 'U'), ('త్రాం', 'U'), ('త', '|'), ('ర', '|'), ('స', '|'), ('లి', '|'), ('ల', '|'), ('బిం', 'U'), ('దు', '|'), ('వు', '|'), ('లు', '|'), ('చం', 'U'), ('చ', '|'), ('ల', '|'), ('లు', '|'), ('హ', 'U'), ('స్తి', '|'), ('క', 'U'), ('ర్ణాం', 'U'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('దీ', 'U'), ('ప', '|'), ('క', '|'), ('ళి', '|'), ('కా', 'U'), ('శి', '|'), ('ఖ', '|'), ('లు', '|'), ('బు', 'U'), ('ద్బు', '|'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('లి', '|'), ('చే', 'U'), ('తి', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('మి', '|'), ('ణు', '|'), ('గు', '|'), ('రు', '|'), ('బు', '|'), ('రు', '|'), ('వు', '|'), ('ల', '|'), ('మె', '|'), ('ఱ', '|'), ('పు', '|'), ('ల', 'U'), ('భ్ర', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('లైం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('లి', '|'), ('కు', '|'), ('నా', 'U'), ('ట', '|'), ('లం', 'U'), ('బు', '|'), ('రా', 'U'), ('శి', '|'), ('వీ', 'U'), ('చు', '|'), ('లు', '|'), ('చ', '|'), ('ల', '|'), ('ద', '|'), ('ళ', '|'), ('వృ', 'U'), ('క్ష', '|'), ('ప', '|'), ('లా', 'U'), ('శ', '|'), ('ముల్', 'U'), ('తృ', '|'), ('ణ', '|'), ('హు', '|'), ('తా', 'U'), ('శ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('తె', '|'), ('ఱ', '|'), ('గు', '|'), ('లి', 'U'), ('ట్టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సిరులు నిలుకడలని నమ్మి చెనఁటు లురక | చెడుదు రెన్నడు ధర్మంబు సేయలేక,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>సిరులు నిలుకడలని నమ్మి చెనఁటు లురక | చెడుదు రెన్నడు ధర్మంబు సేయలేక,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('రు', '|'), ('లు', '|'), ('ని', '|'), ('లు', '|'), ('క', '|'), ('డ', '|'), ('ల', '|'), ('ని', '|'), ('న', 'U'), ('మ్మి', '|'), ('చె', '|'), ('న', '|'), ('టు', '|'), ('లు', '|'), ('ర', '|'), ('క', '|'), ('చె', '|'), ('డు', '|'), ('దు', '|'), ('రె', 'U'), ('న్న', '|'), ('డు', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('సే', 'U'), ('య', '|'), ('లే', 'U'), ('క', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>భోగియై ప్రతిదినత్యాగియై పుణ్యసం- | యోగియై సుజనానురాగి యగుచు
 దాతయై బుధజనత్రాతయై నిఖిలవి- | జ్ఞాతయై కుశలసంధాత యగుచు
@@ -3997,63 +3664,57 @@
 శాంతుఁడై సదమలస్వాంతుఁడై కీర్తిది- | గంతుఁడై పటుబలవంతుఁ డగుచు</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('భో', 'U'), ('గి', '|'), ('యై', 'U'), ('ప్ర', '|'), ('తి', '|'), ('ది', '|'), ('న', 'U'), ('త్యా', 'U'), ('గి', '|'), ('యై', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('సం', 'U'), ('యో', 'U'), ('గి', '|'), ('యై', 'U'), ('సు', '|'), ('జ', '|'), ('నా', 'U'), ('ను', '|'), ('రా', 'U'), ('గి', '|'), ('య', '|'), ('గు', '|'), ('చు', '|'), ('దా', 'U'), ('త', '|'), ('యై', 'U'), ('బు', '|'), ('ధ', '|'), ('జ', '|'), ('న', 'U'), ('త్రా', 'U'), ('త', '|'), ('యై', 'U'), ('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('వి', 'U'), ('జ్ఞా', 'U'), ('త', '|'), ('యై', 'U'), ('కు', '|'), ('శ', '|'), ('ల', '|'), ('సం', 'U'), ('ధా', 'U'), ('త', '|'), ('య', '|'), ('గు', '|'), ('చు', '|'), ('ధీ', 'U'), ('రు', '|'), ('డై', 'U'), ('ర', '|'), ('ణ', '|'), ('రం', 'U'), ('గ', '|'), ('వీ', 'U'), ('రు', '|'), ('డై', 'U'), ('ని', '|'), ('ర్మ', '|'), ('లా', 'U'), ('చా', 'U'), ('రు', '|'), ('డై', 'U'), ('ని', '|'), ('రు', '|'), ('ప', '|'), ('మో', 'U'), ('దా', 'U'), ('రు', '|'), ('డ', '|'), ('గు', '|'), ('చు', '|'), ('శాం', 'U'), ('తు', '|'), ('డై', 'U'), ('స', '|'), ('ద', '|'), ('మ', '|'), ('ల', 'U'), ('స్వాం', 'U'), ('తు', '|'), ('డై', 'U'), ('కీ', 'U'), ('ర్తి', '|'), ('ది', '|'), ('గం', 'U'), ('తు', '|'), ('డై', 'U'), ('ప', '|'), ('టు', '|'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>రాజ్యమేలంగఁ గలవాఁడె రాజు గాక | హీనమతియై చరించువాఁ డేటి రాజు?
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>రాజ్యమేలంగఁ గలవాఁడె రాజు గాక | హీనమతియై చరించువాఁ డేటి రాజు?
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జ్య', '|'), ('మే', 'U'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డె', '|'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('క', '|'), ('హీ', 'U'), ('న', '|'), ('మ', '|'), ('తి', '|'), ('యై', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డే', 'U'), ('టి', '|'), ('రా', 'U'), ('జు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>ఘూకంబు తెఱఁగున గొందుల నిరుకుచు | భుజగంబు చాడ్పున బుస్సుమనుచు
 బెబ్బులి కరణిఁ గంపిల డాక సేయుచు | భేకంబు గతి మేనిబెంపు గనుచు
@@ -4061,63 +3722,57 @@
 గోమాయువట్ల యెన్నోమాయ లూనుచుఁ | గ్రోడంబువలెఁ గొరకొర నెగపుచు</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('ఘూ', 'U'), ('కం', 'U'), ('బు', '|'), ('తె', '|'), ('ఱ', '|'), ('గు', '|'), ('న', '|'), ('గొం', 'U'), ('దు', '|'), ('ల', '|'), ('ని', '|'), ('రు', '|'), ('కు', '|'), ('చు', '|'), ('భు', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('చా', 'U'), ('డ్పు', '|'), ('న', '|'), ('బు', 'U'), ('స్సు', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('బె', 'U'), ('బ్బు', '|'), ('లి', '|'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('గం', 'U'), ('పి', '|'), ('ల', '|'), ('డా', 'U'), ('క', '|'), ('సే', 'U'), ('యు', '|'), ('చు', '|'), ('భే', 'U'), ('కం', 'U'), ('బు', '|'), ('గ', '|'), ('తి', '|'), ('మే', 'U'), ('ని', '|'), ('బెం', 'U'), ('పు', '|'), ('గ', '|'), ('ను', '|'), ('చు', '|'), ('భ', 'U'), ('ల్లూ', 'U'), ('క', '|'), ('మ', 'U'), ('ట్లు', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('డ', '|'), ('వి', 'U'), ('ఱ్ఱ', '|'), ('వీ', 'U'), ('గు', '|'), ('చు', '|'), ('నా', 'U'), ('బో', 'U'), ('తు', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('నా', 'U'), ('ము', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('గో', 'U'), ('మా', 'U'), ('యు', '|'), ('వ', 'U'), ('ట్ల', '|'), ('యె', 'U'), ('న్నో', 'U'), ('మా', 'U'), ('య', '|'), ('లూ', 'U'), ('ను', '|'), ('చు', 'U'), ('గ్రో', 'U'), ('డం', 'U'), ('బు', '|'), ('వ', '|'), ('లె', '|'), ('గొ', '|'), ('ర', '|'), ('కొ', '|'), ('ర', '|'), ('నె', '|'), ('గ', '|'), ('పు', '|'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దనరు క్రూరనృపాలకాధముల నమ్మి | సిరుల కాసించువాఁ డొక్క చెనఁటికాఁడె
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>దనరు క్రూరనృపాలకాధముల నమ్మి | సిరుల కాసించువాఁ డొక్క చెనఁటికాఁడె
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('న', '|'), ('రు', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('నృ', '|'), ('పా', 'U'), ('ల', '|'), ('కా', 'U'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('న', 'U'), ('మ్మి', '|'), ('సి', '|'), ('రు', '|'), ('ల', '|'), ('కా', 'U'), ('సిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డొ', 'U'), ('క్క', '|'), ('చె', '|'), ('న', '|'), ('టి', '|'), ('కా', 'U'), ('డె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>కోప మెక్కువ తాల్మి కొఱఁత కార్యము సున్న | నిలుకడ నాస్తి దుర్నీతి ఘనము
 కనికరం బిల్ల దుర్గర్వ మగ్గము సత్య- | కౌచముల్ కల్ల మచ్చరము హెచ్చు
@@ -4125,63 +3780,57 @@
 పరధనాపేక్ష నిబ్బరము లోభము పెల్లు | పరహితచింత నిప్పచ్చరమ్ము</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('ప', '|'), ('మె', 'U'), ('క్కు', '|'), ('వ', '|'), ('తా', 'U'), ('ల్మి', '|'), ('కొ', '|'), ('ఱ', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('సు', 'U'), ('న్న', '|'), ('ని', '|'), ('లు', '|'), ('క', '|'), ('డ', '|'), ('నా', 'U'), ('స్తి', '|'), ('దు', 'U'), ('ర్నీ', 'U'), ('తి', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('క', '|'), ('ని', '|'), ('క', '|'), ('రం', 'U'), ('బి', 'U'), ('ల్ల', '|'), ('దు', 'U'), ('ర్గ', 'U'), ('ర్వ', '|'), ('మ', 'U'), ('గ్గ', '|'), ('ము', '|'), ('స', 'U'), ('త్య', '|'), ('కౌ', 'U'), ('చ', '|'), ('ముల్', 'U'), ('క', 'U'), ('ల్ల', '|'), ('మ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ము', '|'), ('హె', 'U'), ('చ్చు', '|'), ('కా', 'U'), ('ప', 'U'), ('ట్య', '|'), ('ము', '|'), ('రు', '|'), ('వ', '|'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('ట', 'U'), ('మ్ము', '|'), ('పొ', '|'), ('గ', '|'), ('రు', '|'), ('ద', 'U'), ('ట్ట', '|'), ('ము', '|'), ('ద్రో', 'U'), ('హ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('ద', '|'), ('ళ', '|'), ('ము', '|'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('నా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('ని', 'U'), ('బ్బ', '|'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('భ', '|'), ('ము', '|'), ('పె', 'U'), ('ల్లు', '|'), ('ప', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('చిం', 'U'), ('త', '|'), ('ని', 'U'), ('ప్ప', 'U'), ('చ్చ', '|'), ('ర', 'U'), ('మ్ము', '|')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ధర్మమతి తొట్టు నీ యిట్టి దుర్మదాంధ- | నృపకులాధము లేరి కేమియ్యఁగలరు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ధర్మమతి తొట్టు నీ యిట్టి దుర్మదాంధ- | నృపకులాధము లేరి కేమియ్యఁగలరు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర్మ', '|'), ('మ', '|'), ('తి', '|'), ('తొ', 'U'), ('ట్టు', '|'), ('నీ', 'U'), ('యి', 'U'), ('ట్టి', '|'), ('దు', '|'), ('ర్మ', '|'), ('దాం', 'U'), ('ధ', '|'), ('నృ', '|'), ('ప', '|'), ('కు', '|'), ('లా', 'U'), ('ధ', '|'), ('ము', '|'), ('లే', 'U'), ('రి', '|'), ('కే', 'U'), ('మి', 'U'), ('య్య', '|'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
         <is>
           <t>అందలంబెక్కుట యవనిఁ బ్రశస్తమా | మ్రానెక్కి నిక్కదే మర్కటంబు
 తొడవులు దొడుగుట దొడ్డసౌభాగ్యమా | కడుసొమ్ము లూనదే గంగిరెద్దు
@@ -4189,63 +3838,57 @@
 ప్రజల దండించుట పరమసంతోషమా | ప్రాణులనెల్ల నేపఁడే జముండు</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('ద', '|'), ('లం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('ట', '|'), ('య', '|'), ('వ', '|'), ('ని', 'U'), ('బ్ర', '|'), ('శ', 'U'), ('స్త', '|'), ('మా', 'U'), ('మ్రా', 'U'), ('నె', 'U'), ('క్కి', '|'), ('ని', 'U'), ('క్క', '|'), ('దే', 'U'), ('మ', 'U'), ('ర్క', '|'), ('టం', 'U'), ('బు', '|'), ('తొ', '|'), ('డ', '|'), ('వు', '|'), ('లు', '|'), ('దొ', '|'), ('డు', '|'), ('గు', '|'), ('ట', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మా', 'U'), ('క', '|'), ('డు', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('లూ', 'U'), ('న', '|'), ('దే', 'U'), ('గం', 'U'), ('గి', '|'), ('రె', 'U'), ('ద్దు', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('ట', '|'), ('వి', '|'), ('మ', '|'), ('ల', 'U'), ('బ్ర', '|'), ('చా', 'U'), ('ర', '|'), ('మా', 'U'), ('బ', '|'), ('హు', '|'), ('ని', '|'), ('ధుల్', 'U'), ('గా', 'U'), ('వ', '|'), ('డే', 'U'), ('భై', 'U'), ('ర', '|'), ('వుం', 'U'), ('డు', 'U'), ('ప్ర', '|'), ('జ', '|'), ('ల', '|'), ('దం', 'U'), ('డిం', 'U'), ('చు', '|'), ('ట', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('మా', 'U'), ('ప్రా', 'U'), ('ణు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ప', '|'), ('డే', 'U'), ('జ', '|'), ('ముం', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దొరతనంబున కివి గావు వరుస లరయ | సాహసౌదార్యఘనపౌరుషములు గాని,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>దొరతనంబున కివి గావు వరుస లరయ | సాహసౌదార్యఘనపౌరుషములు గాని,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('దొ', '|'), ('ర', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('కి', '|'), ('వి', '|'), ('గా', 'U'), ('వు', '|'), ('వ', '|'), ('రు', '|'), ('స', '|'), ('ల', '|'), ('ర', '|'), ('య', '|'), ('సా', 'U'), ('హ', '|'), ('సౌ', 'U'), ('దా', 'U'), ('ర్య', '|'), ('ఘ', '|'), ('న', '|'), ('పౌ', 'U'), ('రు', '|'), ('ష', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('ని', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
         <is>
           <t>దానవైఖరిని రాధాతనూభవుఁ బోలి | చిరభోగమున శచీవరుని బోలి
 కారుణ్యమున రఘుక్ష్మావరేణ్యుని బోలి | సత్యంబునను హరిశ్చంద్రుఁ బోలి
@@ -4253,63 +3896,57 @@
 భూరివిద్యాప్రౌఢి భోజరాజును బోలి | హరిభక్తినియతిఁ బ్రహ్లాదుఁ బోలి</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('న', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('ని', '|'), ('రా', 'U'), ('ధా', 'U'), ('త', '|'), ('నూ', 'U'), ('భ', '|'), ('వు', '|'), ('బో', 'U'), ('లి', '|'), ('చి', '|'), ('ర', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('శ', '|'), ('చీ', 'U'), ('వ', '|'), ('రు', '|'), ('ని', '|'), ('బో', 'U'), ('లి', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('న', '|'), ('ర', '|'), ('ఘు', 'U'), ('క్ష్మా', 'U'), ('వ', '|'), ('రే', 'U'), ('ణ్యు', '|'), ('ని', '|'), ('బో', 'U'), ('లి', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్రు', '|'), ('బో', 'U'), ('లి', 'U'), ('న్యా', 'U'), ('య', 'U'), ('మ్ము', '|'), ('నం', 'U'), ('దు', '|'), ('గౌం', 'U'), ('తే', 'U'), ('యా', 'U'), ('గ్ర', '|'), ('జు', '|'), ('ని', '|'), ('బో', 'U'), ('లి', '|'), ('సా', 'U'), ('హ', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('స', 'U'), ('వ్య', '|'), ('సా', 'U'), ('చి', '|'), ('బో', 'U'), ('లి', '|'), ('భూ', 'U'), ('రి', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('భో', 'U'), ('జ', '|'), ('రా', 'U'), ('జు', '|'), ('ను', '|'), ('బో', 'U'), ('లి', '|'), ('హ', '|'), ('రి', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('య', '|'), ('తి', 'U'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('బో', 'U'), ('లి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సర్వసర్వంసహాభుజాధూర్వహుఁడు న- | భంగుఁ డగువాఁడెపో నృపపుంగవుండు
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>సర్వసర్వంసహాభుజాధూర్వహుఁడు న- | భంగుఁ డగువాఁడెపో నృపపుంగవుండు
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('ర్వ', '|'), ('స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('భు', '|'), ('జా', 'U'), ('ధూ', 'U'), ('ర్వ', '|'), ('హు', '|'), ('డు', '|'), ('న', '|'), ('భం', 'U'), ('గు', '|'), ('డ', '|'), ('గు', '|'), ('వా', 'U'), ('డె', '|'), ('పో', 'U'), ('నృ', '|'), ('ప', '|'), ('పుం', 'U'), ('గ', '|'), ('వుం', 'U'), ('డు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
         <is>
           <t>న్యాయంబు దప్పక నరులఁ గాపాడుచు | వసుమతిఁ బాలించువాఁడె రాజు
 దుష్టశిక్ష మహాశిష్టరక్షణ కళా- | వైఖరిఁ జెన్నొందువాఁడె రాజు
@@ -4317,63 +3954,57 @@
 శరణని వేఁడిన శాత్రవజనునైన | వదలక చేపట్టువాఁడె రాజు</t>
         </is>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
           <t>[('న్యా', 'U'), ('యం', 'U'), ('బు', '|'), ('ద', 'U'), ('ప్ప', '|'), ('క', '|'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('గా', 'U'), ('పా', 'U'), ('డు', '|'), ('చు', '|'), ('వ', '|'), ('సు', '|'), ('మ', '|'), ('తి', '|'), ('బా', 'U'), ('లిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డె', '|'), ('రా', 'U'), ('జు', '|'), ('దు', 'U'), ('ష్ట', '|'), ('శి', 'U'), ('క్ష', '|'), ('మ', '|'), ('హా', 'U'), ('శి', 'U'), ('ష్ట', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('క', '|'), ('ళా', 'U'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('జె', 'U'), ('న్నొం', 'U'), ('దు', '|'), ('వా', 'U'), ('డె', '|'), ('రా', 'U'), ('జు', '|'), ('క', '|'), ('వి', '|'), ('వం', 'U'), ('ది', '|'), ('మా', 'U'), ('గ', '|'), ('ధ', '|'), ('గా', 'U'), ('య', '|'), ('కా', 'U'), ('ర్థు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('వాం', 'U'), ('ఛి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డె', '|'), ('రా', 'U'), ('జు', '|'), ('శ', '|'), ('ర', '|'), ('ణ', '|'), ('ని', '|'), ('వే', 'U'), ('డి', '|'), ('న', '|'), ('శా', 'U'), ('త్ర', '|'), ('వ', '|'), ('జ', '|'), ('ను', '|'), ('నై', 'U'), ('న', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('చే', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('డె', '|'), ('రా', 'U'), ('జు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కాక తన పొట్టకై ప్రజఁ గలఁచు దురిత- | రతుఁడు వాఁ డొక రాజా తరాజు గాక,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>కాక తన పొట్టకై ప్రజఁ గలఁచు దురిత- | రతుఁడు వాఁ డొక రాజా తరాజు గాక,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('క', '|'), ('త', '|'), ('న', '|'), ('పొ', 'U'), ('ట్ట', '|'), ('కై', 'U'), ('ప్ర', '|'), ('జ', '|'), ('గ', '|'), ('ల', '|'), ('చు', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('ర', '|'), ('తు', '|'), ('డు', '|'), ('వా', 'U'), ('డొ', '|'), ('క', '|'), ('రా', 'U'), ('జా', 'U'), ('త', '|'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('క', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
         <is>
           <t>మరుదనంగుడు శిబి మాంధాత భరతుండు | రంతిదేవుఁడు భగీరథుఁడు పృథుఁడు
 శశిబిందుఁడు గయుండు జామదగ్ని దిలీపుఁ | డంబరీషుండు యయాతి దాశ-
@@ -4381,63 +4012,57 @@
 దుష్యంతుఁ డతని పుత్రుడు నలుండును పురు- | కుత్సుండు మొదలైన కుతలపతులు</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('రు', '|'), ('ద', '|'), ('నం', 'U'), ('గు', '|'), ('డు', '|'), ('శి', '|'), ('బి', '|'), ('మాం', 'U'), ('ధా', 'U'), ('త', '|'), ('భ', '|'), ('ర', '|'), ('తుం', 'U'), ('డు', '|'), ('రం', 'U'), ('తి', '|'), ('దే', 'U'), ('వు', '|'), ('డు', '|'), ('భ', '|'), ('గీ', 'U'), ('ర', '|'), ('థు', '|'), ('డు', '|'), ('పృ', '|'), ('థు', '|'), ('డు', '|'), ('శ', '|'), ('శి', '|'), ('బిం', 'U'), ('దు', '|'), ('డు', '|'), ('గ', '|'), ('యుం', 'U'), ('డు', '|'), ('జా', 'U'), ('మ', '|'), ('ద', 'U'), ('గ్ని', '|'), ('ది', '|'), ('లీ', 'U'), ('పు', '|'), ('డం', 'U'), ('బ', '|'), ('రీ', 'U'), ('షుం', 'U'), ('డు', '|'), ('య', '|'), ('యా', 'U'), ('తి', '|'), ('దా', 'U'), ('శ', '|'), ('ర', '|'), ('థి', '|'), ('సు', '|'), ('హో', 'U'), ('త్రు', '|'), ('డు', '|'), ('పు', '|'), ('రూ', 'U'), ('ర', '|'), ('వు', '|'), ('డు', '|'), ('నా', 'U'), ('భా', 'U'), ('గుం', 'U'), ('డు', '|'), ('కా', 'U'), ('ర్త', '|'), ('వీ', 'U'), ('ర్యా', 'U'), ('ర్జు', '|'), ('న', 'U'), ('క్ష్మా', 'U'), ('ప', '|'), ('తి', '|'), ('యు', '|'), ('ను', '|'), ('దు', 'U'), ('ష్యం', 'U'), ('తు', '|'), ('డ', '|'), ('త', '|'), ('ని', '|'), ('పు', 'U'), ('త్రు', '|'), ('డు', '|'), ('న', '|'), ('లుం', 'U'), ('డు', '|'), ('ను', '|'), ('పు', '|'), ('రు', '|'), ('కు', 'U'), ('త్సుం', 'U'), ('డు', '|'), ('మొ', '|'), ('ద', '|'), ('లై', 'U'), ('న', '|'), ('కు', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('తు', '|'), ('లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ధర్మపద్ధతి నిల నేలి తారమైనఁ | గొనక చనుచెల్ల వినరేమొ క్రూరనృపులు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ధర్మపద్ధతి నిల నేలి తారమైనఁ | గొనక చనుచెల్ల వినరేమొ క్రూరనృపులు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర్మ', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('ని', '|'), ('ల', '|'), ('నే', 'U'), ('లి', '|'), ('తా', 'U'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('గొ', '|'), ('న', '|'), ('క', '|'), ('చ', '|'), ('ను', '|'), ('చె', 'U'), ('ల్ల', '|'), ('వి', '|'), ('న', '|'), ('రే', 'U'), ('మొ', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('నృ', '|'), ('పు', '|'), ('లు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
         <is>
           <t>మొదవుల బదివేలు కదుపులు గూర్చిన | దూడ యొక్కటియైనఁ దోడరాదు
 మాత లసంఖ్యముల్ మాటుగా నించినఁ | బసిఁడి వీసమును వెంబడిని రాదు
@@ -4445,63 +4070,57 @@
 గొలుసులు రాసులు బలుపాతరల నిడ్డ | గింజ యొక్కటియన గెలన రాదు</t>
         </is>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('ద', '|'), ('వు', '|'), ('ల', '|'), ('బ', '|'), ('ది', '|'), ('వే', 'U'), ('లు', '|'), ('క', '|'), ('దు', '|'), ('పు', '|'), ('లు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('దూ', 'U'), ('డ', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('యై', 'U'), ('న', '|'), ('దో', 'U'), ('డ', '|'), ('రా', 'U'), ('దు', '|'), ('మా', 'U'), ('త', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('ముల్', 'U'), ('మా', 'U'), ('టు', '|'), ('గా', 'U'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('వీ', 'U'), ('స', '|'), ('ము', '|'), ('ను', '|'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('ని', '|'), ('రా', 'U'), ('దు', '|'), ('కో', 'U'), ('క', '|'), ('లు', '|'), ('మే', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('గొ', 'U'), ('ట్ల', '|'), ('నిం', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', '|'), ('గు', 'U'), ('డ్డ', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('యై', 'U'), ('న', '|'), ('గూ', 'U'), ('డ', '|'), ('రా', 'U'), ('ము', '|'), ('గొ', '|'), ('లు', '|'), ('సు', '|'), ('లు', '|'), ('రా', 'U'), ('సు', '|'), ('లు', '|'), ('బ', '|'), ('లు', '|'), ('పా', 'U'), ('త', '|'), ('ర', '|'), ('ల', '|'), ('ని', 'U'), ('డ్డ', '|'), ('గిం', 'U'), ('జ', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('య', '|'), ('న', '|'), ('గె', '|'), ('ల', '|'), ('న', '|'), ('రా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కావున నొడళ్ళు నిల్కడల్ కావటంచుఁ | జెలఁగి సుజనులు ధర్మంబు సేయుచుంద్రు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>కావున నొడళ్ళు నిల్కడల్ కావటంచుఁ | జెలఁగి సుజనులు ధర్మంబు సేయుచుంద్రు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('వు', '|'), ('న', '|'), ('నొ', '|'), ('డ', 'U'), ('ళ్ళు', '|'), ('ని', 'U'), ('ల్క', '|'), ('డల్', 'U'), ('కా', 'U'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('సు', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
         <is>
           <t>కొండంత విత్తంబు గూడఁబెట్టిననైనఁ | బొదలు ధనాపేక్ష వదలిపోదు
 స్వర్గాధిపత్యంబు సంభవించిన యేని | బహురాజ్యకాంక్ష యెప్పటికిఁ జనదు
@@ -4509,63 +4128,57 @@
 చతురంగబలము లసంఖ్యముల్ గూర్చిన | సేనాభిలాష మింతైనఁ దీఱ-</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
           <t>[('కొం', 'U'), ('డం', 'U'), ('త', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('గూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('బొ', '|'), ('ద', '|'), ('లు', '|'), ('ధ', '|'), ('నా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('పో', 'U'), ('దు', 'U'), ('స్వ', 'U'), ('ర్గా', 'U'), ('ధి', '|'), ('ప', 'U'), ('త్యం', 'U'), ('బు', '|'), ('సం', 'U'), ('భ', '|'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('యే', 'U'), ('ని', '|'), ('బ', '|'), ('హు', '|'), ('రా', 'U'), ('జ్య', '|'), ('కాం', 'U'), ('క్ష', '|'), ('యె', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కి', '|'), ('జ', '|'), ('న', '|'), ('దు', '|'), ('ప', '|'), ('ది', '|'), ('వే', 'U'), ('లు', '|'), ('పు', 'U'), ('త్రు', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('సి', '|'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('పు', 'U'), ('త్రో', 'U'), ('ద', '|'), ('య', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('పో', 'U'), ('వ', '|'), ('దె', '|'), ('పు', '|'), ('డు', '|'), ('చ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('ముల్', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('సే', 'U'), ('నా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('మిం', 'U'), ('తై', 'U'), ('న', '|'), ('దీ', 'U'), ('ఱ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దహహ డెందంబులోపల నంతకంత | నధికమగు నాస యింత కేమి మనఁగవచ్చు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>దహహ డెందంబులోపల నంతకంత | నధికమగు నాస యింత కేమి మనఁగవచ్చు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('హ', '|'), ('హ', '|'), ('డెం', 'U'), ('దం', 'U'), ('బు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నం', 'U'), ('త', '|'), ('కం', 'U'), ('త', '|'), ('న', '|'), ('ధి', '|'), ('క', '|'), ('మ', '|'), ('గు', '|'), ('నా', 'U'), ('స', '|'), ('యిం', 'U'), ('త', '|'), ('కే', 'U'), ('మి', '|'), ('మ', '|'), ('న', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
         <is>
           <t>నిరతాన్నదానవైఖరిఁ జెలంగెడివారు | నెనరొప్ప దీనుల మనుచువారు
 గోవిప్రబాంధవగురుభక్తి గలవారు | శివు విష్ణుఁ బూజలు సేయువారు
@@ -4573,63 +4186,57 @@
 సుజ్ఞానసహితులై సొబగు మీఱెడివారు | సత్యవచోరూఢి సలుపువారు</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ర', '|'), ('తా', 'U'), ('న్న', '|'), ('దా', 'U'), ('న', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('జె', '|'), ('లం', 'U'), ('గె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('నె', '|'), ('న', '|'), ('రొ', 'U'), ('ప్ప', '|'), ('దీ', 'U'), ('ను', '|'), ('ల', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('వా', 'U'), ('రు', '|'), ('గో', 'U'), ('వి', 'U'), ('ప్ర', '|'), ('బాం', 'U'), ('ధ', '|'), ('వ', '|'), ('గు', '|'), ('రు', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('రు', '|'), ('శి', '|'), ('వు', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('బూ', 'U'), ('జ', '|'), ('లు', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('రు', '|'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ప', '|'), ('ర', '|'), ('వ', '|'), ('ధూ', 'U'), ('ప', '|'), ('ర', '|'), ('త', '|'), ('జెం', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('రు', '|'), ('ప', '|'), ('ర', '|'), ('హి', '|'), ('తా', 'U'), ('చ', '|'), ('ర', '|'), ('ణు', '|'), ('లై', 'U'), ('ప', '|'), ('ర', '|'), ('గు', '|'), ('వా', 'U'), ('రు', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('స', '|'), ('హి', '|'), ('తు', '|'), ('లై', 'U'), ('సొ', '|'), ('బ', '|'), ('గు', '|'), ('మీ', 'U'), ('ఱె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('స', 'U'), ('త్య', '|'), ('వ', '|'), ('చో', 'U'), ('రూ', 'U'), ('ఢి', '|'), ('స', '|'), ('లు', '|'), ('పు', '|'), ('వా', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తలఁపులోపల ననయంబు ధర్మకార్య- | నిష్ఠ గలవార లందఱు నీకుఁ బ్రియులు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>తలఁపులోపల ననయంబు ధర్మకార్య- | నిష్ఠ గలవార లందఱు నీకుఁ బ్రియులు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('పు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', '|'), ('న', '|'), ('యం', 'U'), ('బు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('ర', '|'), ('లం', 'U'), ('ద', '|'), ('ఱు', '|'), ('నీ', 'U'), ('కు', 'U'), ('బ్రి', '|'), ('యు', '|'), ('లు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
         <is>
           <t>న్యాయపద్ధతి భూషణము ధరాధిపునకుఁ | బొలఁతికి మానంబు భూషణంబు
 శమదమంబులు భూషణములు నిశ్చలునకుఁ | బొసఁగ నింటికి సతి భూషణంబు
@@ -4637,63 +4244,57 @@
 నలినబంధుఁడు భూషణము నభోవీధికిఁ | బుడమికి సస్యంబు భూషణంబు</t>
         </is>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
           <t>[('న్యా', 'U'), ('య', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('ధ', '|'), ('రా', 'U'), ('ధి', '|'), ('పు', '|'), ('న', '|'), ('కు', '|'), ('బొ', '|'), ('ల', '|'), ('తి', '|'), ('కి', '|'), ('మా', 'U'), ('నం', 'U'), ('బు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('శ', '|'), ('మ', '|'), ('ద', '|'), ('మం', 'U'), ('బు', '|'), ('లు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('లు', '|'), ('న', '|'), ('కు', '|'), ('బొ', '|'), ('స', '|'), ('గ', '|'), ('నిం', 'U'), ('టి', '|'), ('కి', '|'), ('స', '|'), ('తి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('రు', '|'), ('ని', '|'), ('క', 'U'), ('ల్మి', '|'), ('కి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('దా', 'U'), ('న', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('వి', 'U'), ('ద్య', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('లి', '|'), ('న', '|'), ('బం', 'U'), ('ధు', '|'), ('డు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('భో', 'U'), ('వీ', 'U'), ('ధి', '|'), ('కి', '|'), ('బు', '|'), ('డ', '|'), ('మి', '|'), ('కి', '|'), ('స', 'U'), ('స్యం', 'U'), ('బు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బుధుల కెప్పుడు నీ పదాంభోజయుగళ- | పూజనాసక్తి వెలలేని భూషణంబు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>బుధుల కెప్పుడు నీ పదాంభోజయుగళ- | పూజనాసక్తి వెలలేని భూషణంబు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
           <t>[('బు', '|'), ('ధు', '|'), ('ల', '|'), ('కె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నీ', 'U'), ('ప', '|'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('యు', '|'), ('గ', '|'), ('ళ', '|'), ('పూ', 'U'), ('జ', '|'), ('నా', 'U'), ('స', 'U'), ('క్తి', '|'), ('వె', '|'), ('ల', '|'), ('లే', 'U'), ('ని', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
         <is>
           <t>అంభోధి కభిషేక మాచరించినయట్లు | గంగకుఁ బాద్య మొసంగినట్లు
 మేరువునకు నలంకారంబు లిడినట్టు- | లినునకు నారతు లెత్తినట్లు
@@ -4701,63 +4302,57 @@
 భూపముఖ్యునకుఁ దాంబూల మిచ్చినయట్లు | సోమున కద్దంబు సూపినట్లు</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('భో', 'U'), ('ధి', '|'), ('క', '|'), ('భి', '|'), ('షే', 'U'), ('క', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('గం', 'U'), ('గ', '|'), ('కు', '|'), ('బా', 'U'), ('ద్య', '|'), ('మొ', '|'), ('సం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మే', 'U'), ('రు', '|'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('న', '|'), ('లం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లి', '|'), ('డి', '|'), ('న', 'U'), ('ట్టు', '|'), ('లి', '|'), ('ను', '|'), ('న', '|'), ('కు', '|'), ('నా', 'U'), ('ర', '|'), ('తు', '|'), ('లె', 'U'), ('త్తి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మ', '|'), ('ల', '|'), ('యా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('గ', '|'), ('ల', '|'), ('ప', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', '|'), ('య', 'U'), ('ట్టు', '|'), ('లి', '|'), ('ల', '|'), ('వ', '|'), ('సం', 'U'), ('తు', '|'), ('న', '|'), ('కు', '|'), ('బూ', 'U'), ('లి', '|'), ('డి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('భూ', 'U'), ('ప', '|'), ('ము', 'U'), ('ఖ్యు', '|'), ('న', '|'), ('కు', '|'), ('దాం', 'U'), ('బూ', 'U'), ('ల', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('సో', 'U'), ('ము', '|'), ('న', '|'), ('క', 'U'), ('ద్దం', 'U'), ('బు', '|'), ('సూ', 'U'), ('పి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిఖిలలోకైకభర్తకు నీకు నొక్క | బిల్వదళ మార్యవర్యు లర్పించుచుంద్రు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>నిఖిలలోకైకభర్తకు నీకు నొక్క | బిల్వదళ మార్యవర్యు లర్పించుచుంద్రు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('లో', 'U'), ('కై', 'U'), ('క', '|'), ('భ', 'U'), ('ర్త', '|'), ('కు', '|'), ('నీ', 'U'), ('కు', '|'), ('నొ', 'U'), ('క్క', '|'), ('బి', 'U'), ('ల్వ', '|'), ('ద', '|'), ('ళ', '|'), ('మా', 'U'), ('ర్య', '|'), ('వ', 'U'), ('ర్యు', '|'), ('ల', 'U'), ('ర్పిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
         <is>
           <t>నడచిపోవఁగ జవం బడరకుండుటఁ జేసి | పుణ్యతీర్థము లాడఁ బోవరాదు
 కాసు వీసము చేతఁ గల్గకుండుటఁ జేసి | దానధర్మక్రియల్ తలఁపరాదు
@@ -4765,63 +4360,57 @@
 గడితంపుటాఁకలి విడువకుండుటఁ జేసి | యుపవాసములు నిష్ఠ నుండరాదు</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('డ', '|'), ('చి', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('జ', '|'), ('వం', 'U'), ('బ', '|'), ('డ', '|'), ('ర', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లా', 'U'), ('డ', '|'), ('బో', 'U'), ('వ', '|'), ('రా', 'U'), ('దు', '|'), ('కా', 'U'), ('సు', '|'), ('వీ', 'U'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('దా', 'U'), ('న', '|'), ('ధ', '|'), ('ర్మ', 'U'), ('క్రి', '|'), ('యల్', 'U'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('రు', 'U'), ('గ్బా', 'U'), ('ధ', '|'), ('త', '|'), ('ర', '|'), ('ల', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', 'U'), ('స్నా', 'U'), ('న', '|'), ('జ', '|'), ('పా', 'U'), ('దు', '|'), ('లు', '|'), ('స', '|'), ('లు', '|'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('గ', '|'), ('డి', '|'), ('తం', 'U'), ('పు', '|'), ('టా', 'U'), ('క', '|'), ('లి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('యు', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('నుం', 'U'), ('డ', '|'), ('రా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కాని నిన్నొక్కమాఱైనఁ గడఁగి తలఁప- | రాదె యెన్నరు గాక దుర్మతులు మదిని,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>కాని నిన్నొక్కమాఱైనఁ గడఁగి తలఁప- | రాదె యెన్నరు గాక దుర్మతులు మదిని,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ని', '|'), ('ని', 'U'), ('న్నొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('ఱై', 'U'), ('న', '|'), ('గ', '|'), ('డ', '|'), ('గి', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('రా', 'U'), ('దె', '|'), ('యె', 'U'), ('న్న', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('దు', '|'), ('ర్మ', '|'), ('తు', '|'), ('లు', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
         <is>
           <t>శతవత్సరంబులు జనులకుఁగా నాయు- | వంబుజాసనుఁడు మర్యాద చేసె-
 నందులో సగమేఁడు లరుగు నిద్రలచేత | శైశవక్రీడల జరుగుఁ గొన్ని
@@ -4829,63 +4418,57 @@
 వార్ధకంబున బహువ్యాధిపీడలచేతఁ | గడమ యేఁడులు రిత్త గడచుచుండు</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('త', '|'), ('వ', 'U'), ('త్స', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('నా', 'U'), ('యు', '|'), ('వం', 'U'), ('బు', '|'), ('జా', 'U'), ('స', '|'), ('ను', '|'), ('డు', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('చే', 'U'), ('సె', '|'), ('నం', 'U'), ('దు', '|'), ('లో', 'U'), ('స', '|'), ('గ', '|'), ('మే', 'U'), ('డు', '|'), ('ల', '|'), ('రు', '|'), ('గు', '|'), ('ని', '|'), ('ద్ర', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('శై', 'U'), ('శ', '|'), ('వ', 'U'), ('క్రీ', 'U'), ('డ', '|'), ('ల', '|'), ('జ', '|'), ('రు', '|'), ('గు', '|'), ('గొ', 'U'), ('న్ని', '|'), ('తా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('మా', 'U'), ('ర', '|'), ('భూ', 'U'), ('త', '|'), ('ము', '|'), ('సో', 'U'), ('క', '|'), ('నం', 'U'), ('గ', '|'), ('నా', 'U'), ('స', 'U'), ('క్తి', '|'), ('చే', 'U'), ('న', '|'), ('రు', '|'), ('గు', '|'), ('గొ', 'U'), ('న్ని', '|'), ('వా', 'U'), ('ర్ధ', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('బ', '|'), ('హు', 'U'), ('వ్యా', 'U'), ('ధి', '|'), ('పీ', 'U'), ('డ', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('గ', '|'), ('డ', '|'), ('మ', '|'), ('యే', 'U'), ('డు', '|'), ('లు', '|'), ('రి', 'U'), ('త్త', '|'), ('గ', '|'), ('డ', '|'), ('చు', '|'), ('చుం', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కటకటా యెన్నఁడును దెల్వి గలిగి నిన్నుఁ | జేరి భజియింపకే ప్రాణి చెడు గదయ్య,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>కటకటా యెన్నఁడును దెల్వి గలిగి నిన్నుఁ | జేరి భజియింపకే ప్రాణి చెడు గదయ్య,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ట', '|'), ('క', '|'), ('టా', 'U'), ('యె', 'U'), ('న్న', '|'), ('డు', '|'), ('ను', '|'), ('దె', 'U'), ('ల్వి', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('ని', 'U'), ('న్ను', '|'), ('జే', 'U'), ('రి', '|'), ('భ', '|'), ('జి', '|'), ('యిం', 'U'), ('ప', '|'), ('కే', 'U'), ('ప్రా', 'U'), ('ణి', '|'), ('చె', '|'), ('డు', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
         <is>
           <t>ప్రకృతి గుణంబులఁ బాసి షడ్వర్గంబు- | నడఁచి జితేంద్రియులైన యంచి-
 తాష్టాంగయోగక్రియారూఢులై చరా- | చరరూపమగు ప్రపంచంబు మిథ్య
@@ -4893,63 +4476,57 @@
 బూసలలో దారమును బోలి యెడపక | నిండారి యుండెడు నిన్ను నెపుడు</t>
         </is>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('కృ', '|'), ('తి', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('బా', 'U'), ('సి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('న', '|'), ('డ', '|'), ('చి', '|'), ('జి', '|'), ('తేం', 'U'), ('ద్రి', '|'), ('యు', '|'), ('లై', 'U'), ('న', '|'), ('యం', 'U'), ('చి', '|'), ('తా', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('యో', 'U'), ('గ', 'U'), ('క్రి', '|'), ('యా', 'U'), ('రూ', 'U'), ('ఢు', '|'), ('లై', 'U'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('రూ', 'U'), ('ప', '|'), ('మ', '|'), ('గు', 'U'), ('ప్ర', '|'), ('పం', 'U'), ('చం', 'U'), ('బు', '|'), ('మి', 'U'), ('థ్య', '|'), ('య', '|'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('చు', '|'), ('చు', '|'), ('స', '|'), ('మ', 'U'), ('స్తాం', 'U'), ('త', '|'), ('ర', 'U'), ('స్థా', 'U'), ('యి', '|'), ('వై', 'U'), ('ను', 'U'), ('వ్వు', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నూ', 'U'), ('నె', '|'), ('వో', 'U'), ('లె', '|'), ('బూ', 'U'), ('స', '|'), ('ల', '|'), ('లో', 'U'), ('దా', 'U'), ('ర', '|'), ('ము', '|'), ('ను', '|'), ('బో', 'U'), ('లి', '|'), ('యె', '|'), ('డ', '|'), ('ప', '|'), ('క', '|'), ('నిం', 'U'), ('డా', 'U'), ('రి', '|'), ('యుం', 'U'), ('డె', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('నె', '|'), ('పు', '|'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>లోనిచూపునఁ దగఁ దమలోనఁ గాంచి | సోఽహమనువారె సంతతోత్సాహమతులు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>లోనిచూపునఁ దగఁ దమలోనఁ గాంచి | సోఽహమనువారె సంతతోత్సాహమతులు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('ని', '|'), ('చూ', 'U'), ('పు', '|'), ('న', '|'), ('ద', '|'), ('గ', '|'), ('ద', '|'), ('మ', '|'), ('లో', 'U'), ('న', '|'), ('గాం', 'U'), ('చి', '|'), ('సో', 'U'), ('హ', '|'), ('మ', '|'), ('ను', '|'), ('వా', 'U'), ('రె', '|'), ('సం', 'U'), ('త', '|'), ('తో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('మ', '|'), ('తు', '|'), ('లు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
         <is>
           <t>వాయుభక్షణ చేసి వనటఁ గుందదె పాము | గుహలలో దూఱదే గూబపులుఁగు
 వృక్షశాఖలమీఁద వ్రేలుచుండదె పక్షి | కానలఁ దిరుగదే వానరంబు
@@ -4957,63 +4534,57 @@
 నీట మునుంగదే మాటిమాటికిఁ గప్ప | యాకులు మెసవదే మేఁకపిల్ల</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('యు', '|'), ('భ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('చే', 'U'), ('సి', '|'), ('వ', '|'), ('న', '|'), ('ట', '|'), ('గుం', 'U'), ('ద', '|'), ('దె', '|'), ('పా', 'U'), ('ము', '|'), ('గు', '|'), ('హ', '|'), ('ల', '|'), ('లో', 'U'), ('దూ', 'U'), ('ఱ', '|'), ('దే', 'U'), ('గూ', 'U'), ('బ', '|'), ('పు', '|'), ('లు', '|'), ('గు', '|'), ('వృ', 'U'), ('క్ష', '|'), ('శా', 'U'), ('ఖ', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', 'U'), ('వ్రే', 'U'), ('లు', '|'), ('చుం', 'U'), ('డ', '|'), ('దె', '|'), ('ప', 'U'), ('క్షి', '|'), ('కా', 'U'), ('న', '|'), ('ల', '|'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('దే', 'U'), ('వా', 'U'), ('న', '|'), ('రం', 'U'), ('బు', '|'), ('చె', '|'), ('ల', '|'), ('రే', 'U'), ('గి', '|'), ('కూ', 'U'), ('య', '|'), ('దే', 'U'), ('ఝి', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('కూ', 'U'), ('టం', 'U'), ('బు', '|'), ('గ', 'U'), ('హ్వ', '|'), ('రి', '|'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('దే', 'U'), ('గం', 'U'), ('గి', '|'), ('రె', 'U'), ('ద్దు', '|'), ('నీ', 'U'), ('ట', '|'), ('ము', '|'), ('నుం', 'U'), ('గ', '|'), ('దే', 'U'), ('మా', 'U'), ('టి', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('గ', 'U'), ('ప్ప', '|'), ('యా', 'U'), ('కు', '|'), ('లు', '|'), ('మె', '|'), ('స', '|'), ('వ', '|'), ('దే', 'U'), ('మే', 'U'), ('క', '|'), ('పి', 'U'), ('ల్ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యెన్ని తెఱఁగులఁ బొరలుచునున్న నిన్ను | లీలఁ గొలువని ఖలునకు లేదు ముక్తి,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>యెన్ని తెఱఁగులఁ బొరలుచునున్న నిన్ను | లీలఁ గొలువని ఖలునకు లేదు ముక్తి,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
           <t>[('యె', 'U'), ('న్ని', '|'), ('తె', '|'), ('ఱ', '|'), ('గు', '|'), ('ల', '|'), ('బొ', '|'), ('ర', '|'), ('లు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('ని', 'U'), ('న్ను', '|'), ('లీ', 'U'), ('ల', '|'), ('గొ', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('ఖ', '|'), ('లు', '|'), ('న', '|'), ('కు', '|'), ('లే', 'U'), ('దు', '|'), ('ము', 'U'), ('క్తి', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
         <is>
           <t>పరుసంబు వలన నబ్బురముగా లోహంబు | మేల్మిబంగారమై మెఱసినట్లు
 భ్రమరంబు వలన విభ్రమరూఢి యలరారి | శలభంబు భ్రమరమై చెలఁగినట్లు
@@ -5021,63 +4592,57 @@
 కతకంబు వలన నుద్గాఢపంకోదకం- | బతినిర్మలోదకంబైనయట్లు</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('సం', 'U'), ('బు', '|'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('న', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('లో', 'U'), ('హం', 'U'), ('బు', '|'), ('మే', 'U'), ('ల్మి', '|'), ('బం', 'U'), ('గా', 'U'), ('ర', '|'), ('మై', 'U'), ('మె', '|'), ('ఱ', '|'), ('సి', '|'), ('న', 'U'), ('ట్లు', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రం', 'U'), ('బు', '|'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('వి', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రూ', 'U'), ('ఢి', '|'), ('య', '|'), ('ల', '|'), ('రా', 'U'), ('రి', '|'), ('శ', '|'), ('ల', '|'), ('భం', 'U'), ('బు', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('మై', 'U'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మ', '|'), ('ల', '|'), ('య', '|'), ('భూ', 'U'), ('జా', 'U'), ('తం', 'U'), ('బు', '|'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('నిం', 'U'), ('బ', '|'), ('ము', '|'), ('ప', '|'), ('టీ', 'U'), ('రా', 'U'), ('వ', '|'), ('నీ', 'U'), ('జా', 'U'), ('త', '|'), ('మై', 'U'), ('య', '|'), ('ల', '|'), ('రి', '|'), ('న', 'U'), ('ట్లు', '|'), ('క', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('ను', 'U'), ('ద్గా', 'U'), ('ఢ', '|'), ('పం', 'U'), ('కో', 'U'), ('ద', '|'), ('కం', 'U'), ('బ', '|'), ('తి', '|'), ('ని', '|'), ('ర్మ', '|'), ('లో', 'U'), ('ద', '|'), ('కం', 'U'), ('బై', 'U'), ('న', '|'), ('య', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సద్గురుకృపాకటాక్షవీక్షణము వలన | బ్రాకృతుఁడు జ్ఞానియై ముక్తిపదము గాంచు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>సద్గురుకృపాకటాక్షవీక్షణము వలన | బ్రాకృతుఁడు జ్ఞానియై ముక్తిపదము గాంచు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('కృ', '|'), ('పా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('వీ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('వ', '|'), ('ల', '|'), ('న', 'U'), ('బ్రా', 'U'), ('కృ', '|'), ('తు', '|'), ('డు', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('యై', 'U'), ('ము', 'U'), ('క్తి', '|'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('గాం', 'U'), ('చు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
         <is>
           <t>మణిభూషణములు చామరములు ముత్యాల | గొడుగులు పడిగలు గుజ్జుపరపు
 మిద్దెటిళ్ళు మెఱుంగుటద్దముల్ గద్దియల్ | చందుగల్ చందువాల్ మందసములు
@@ -5085,63 +4650,57 @@
 పల్లకీలు గుఱాలు బంట్లు బానిసలును | ధనధాన్య వసన గో దంతి తతులు</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ణి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('చా', 'U'), ('మ', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('ము', 'U'), ('త్యా', 'U'), ('ల', '|'), ('గొ', '|'), ('డు', '|'), ('గు', '|'), ('లు', '|'), ('ప', '|'), ('డి', '|'), ('గ', '|'), ('లు', '|'), ('గు', 'U'), ('జ్జు', '|'), ('ప', '|'), ('ర', '|'), ('పు', '|'), ('మి', 'U'), ('ద్దె', '|'), ('టి', 'U'), ('ళ్ళు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ద్ది', '|'), ('యల్', 'U'), ('చం', 'U'), ('దు', '|'), ('గల్', 'U'), ('చం', 'U'), ('దు', '|'), ('వాల్', 'U'), ('మం', 'U'), ('ద', '|'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('పూ', 'U'), ('ల', '|'), ('పా', 'U'), ('న్పు', '|'), ('లు', '|'), ('శీ', 'U'), ('ర', '|'), ('తా', 'U'), ('ళ', '|'), ('వృం', 'U'), ('త', '|'), ('ము', '|'), ('మేల్', 'U'), ('క', '|'), ('ల', '|'), ('ప', '|'), ('ముల్', 'U'), ('తూ', 'U'), ('గు', '|'), ('టు', 'U'), ('య్యె', '|'), ('ల', '|'), ('లు', '|'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('ప', 'U'), ('ల్ల', '|'), ('కీ', 'U'), ('లు', '|'), ('గు', '|'), ('ఱా', 'U'), ('లు', '|'), ('బం', 'U'), ('ట్లు', '|'), ('బా', 'U'), ('ని', '|'), ('స', '|'), ('లు', '|'), ('ను', '|'), ('ధ', '|'), ('న', '|'), ('ధా', 'U'), ('న్య', '|'), ('వ', '|'), ('స', '|'), ('న', '|'), ('గో', 'U'), ('దం', 'U'), ('తి', '|'), ('త', '|'), ('తు', '|'), ('లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కులుకుప్రాయంపు ముద్దుగుమ్మలును గలిగి | పొలుచువారలె మును నిన్నుఁ గొలుచువారు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>కులుకుప్రాయంపు ముద్దుగుమ్మలును గలిగి | పొలుచువారలె మును నిన్నుఁ గొలుచువారు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('లు', '|'), ('కు', 'U'), ('ప్రా', 'U'), ('యం', 'U'), ('పు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('మ్మ', '|'), ('లు', '|'), ('ను', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('పొ', '|'), ('లు', '|'), ('చు', '|'), ('వా', 'U'), ('ర', '|'), ('లె', '|'), ('ము', '|'), ('ను', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', '|'), ('లు', '|'), ('చు', '|'), ('వా', 'U'), ('రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
         <is>
           <t>దానహీనుండైన మానవాధము కల్మి | తెరలెడు జుంటీఁగ తేనెచుట్టు
 చుట్టాల నతిథులఁ జొరనీని ఖలునిల్లు | పెనుబాము వసియించు పెద్దపుట్ట
@@ -5149,63 +4708,57 @@
 పతివాంఛ దీర్పని పడఁతి చక్కదనంబు | కాననాంతరచంద్రికాప్రసక్తి</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('న', '|'), ('హీ', 'U'), ('నుం', 'U'), ('డై', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('వా', 'U'), ('ధ', '|'), ('ము', '|'), ('క', 'U'), ('ల్మి', '|'), ('తె', '|'), ('ర', '|'), ('లె', '|'), ('డు', '|'), ('జుం', 'U'), ('టీ', 'U'), ('గ', '|'), ('తే', 'U'), ('నె', '|'), ('చు', 'U'), ('ట్టు', '|'), ('చు', 'U'), ('ట్టా', 'U'), ('ల', '|'), ('న', '|'), ('తి', '|'), ('థు', '|'), ('ల', '|'), ('జొ', '|'), ('ర', '|'), ('నీ', 'U'), ('ని', '|'), ('ఖ', '|'), ('లు', '|'), ('ని', 'U'), ('ల్లు', '|'), ('పె', '|'), ('ను', '|'), ('బా', 'U'), ('ము', '|'), ('వ', '|'), ('సి', '|'), ('యిం', 'U'), ('చు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('పు', 'U'), ('ట్ట', '|'), ('స', '|'), ('భ', '|'), ('ల', 'U'), ('బ్ర', '|'), ('సం', 'U'), ('గిం', 'U'), ('ప', '|'), ('జా', 'U'), ('ల', '|'), ('ని', '|'), ('జ', '|'), ('ను', '|'), ('ని', 'U'), ('ప్ర', '|'), ('హృ', 'U'), ('ష్ట', '|'), ('సా', 'U'), ('హి', '|'), ('తి', '|'), ('సా', 'U'), ('న', 'U'), ('క్రిం', 'U'), ('ది', '|'), ('వ', 'U'), ('న్నె', '|'), ('ప', '|'), ('తి', '|'), ('వాం', 'U'), ('ఛ', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('ని', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('చ', 'U'), ('క్క', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('కా', 'U'), ('న', '|'), ('నాం', 'U'), ('త', '|'), ('ర', '|'), ('చం', 'U'), ('ద్రి', '|'), ('కా', 'U'), ('ప్ర', '|'), ('స', 'U'), ('క్తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చిత్త మిగురొత్త నినుఁ బూజ సేయలేని | నరుని జన్మము మహిషజన్మము గదయ్య,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>చిత్త మిగురొత్త నినుఁ బూజ సేయలేని | నరుని జన్మము మహిషజన్మము గదయ్య,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
           <t>[('చి', 'U'), ('త్త', '|'), ('మి', '|'), ('గు', '|'), ('రొ', 'U'), ('త్త', '|'), ('ని', '|'), ('ను', '|'), ('బూ', 'U'), ('జ', '|'), ('సే', 'U'), ('య', '|'), ('లే', 'U'), ('ని', '|'), ('న', '|'), ('రు', '|'), ('ని', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('మ', '|'), ('హి', '|'), ('ష', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
         <is>
           <t>కుంభికుంభస్థలాక్షుద్రామిషము మెక్కు | సింగంబు కప్పల మ్రింగఁ జనునె
 సారభూరుహఫలాహారలీలఁ జెలంగు | కీర ముమ్మెతలఁ జేరుకొనునె
@@ -5213,63 +4766,57 @@
 ప్రబలవర్షాంబుధారలు గ్రోలు వానకో - | యిల యిల మంచుసోనలకుఁ జనునె</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
           <t>[('కుం', 'U'), ('భి', '|'), ('కుం', 'U'), ('భ', 'U'), ('స్థ', '|'), ('లా', 'U'), ('క్షు', '|'), ('ద్రా', 'U'), ('మి', '|'), ('ష', '|'), ('ము', '|'), ('మె', 'U'), ('క్కు', '|'), ('సిం', 'U'), ('గం', 'U'), ('బు', '|'), ('క', 'U'), ('ప్ప', '|'), ('ల', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('జ', '|'), ('ను', '|'), ('నె', '|'), ('సా', 'U'), ('ర', '|'), ('భూ', 'U'), ('రు', '|'), ('హ', '|'), ('ఫ', '|'), ('లా', 'U'), ('హా', 'U'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('కీ', 'U'), ('ర', '|'), ('ము', 'U'), ('మ్మె', '|'), ('త', '|'), ('ల', '|'), ('జే', 'U'), ('రు', '|'), ('కొ', '|'), ('ను', '|'), ('నె', '|'), ('య', 'U'), ('భ్రా', 'U'), ('ప', '|'), ('గా', 'U'), ('హా', 'U'), ('ట', '|'), ('కా', 'U'), ('బ్జ', '|'), ('మృ', '|'), ('ణా', 'U'), ('ళ', '|'), ('ముల్', 'U'), ('కొ', '|'), ('ను', '|'), ('నం', 'U'), ('చ', '|'), ('బు', '|'), ('ర', '|'), ('ద', '|'), ('వా', 'U'), ('గు', '|'), ('ల', '|'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('నె', 'U'), ('ప్ర', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('ర్షాం', 'U'), ('బు', '|'), ('ధా', 'U'), ('ర', '|'), ('లు', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('వా', 'U'), ('న', '|'), ('కో', 'U'), ('యి', '|'), ('ల', '|'), ('యి', '|'), ('ల', '|'), ('మం', 'U'), ('చు', '|'), ('సో', 'U'), ('న', '|'), ('ల', '|'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ప్రభుభుజానీతభూరివైభవనిమగ్న- | విద్వదవతంస మల్పుల వేడఁ జనునె?
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ప్రభుభుజానీతభూరివైభవనిమగ్న- | విద్వదవతంస మల్పుల వేడఁ జనునె?
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('భు', '|'), ('భు', '|'), ('జా', 'U'), ('నీ', 'U'), ('త', '|'), ('భూ', 'U'), ('రి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ని', '|'), ('మ', 'U'), ('గ్న', '|'), ('వి', 'U'), ('ద్వ', '|'), ('ద', '|'), ('వ', '|'), ('తం', 'U'), ('స', '|'), ('మ', 'U'), ('ల్పు', '|'), ('ల', '|'), ('వే', 'U'), ('డ', '|'), ('జ', '|'), ('ను', '|'), ('నె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
         <is>
           <t>అడిగినప్పుడ తన యొడలి చర్మం బూడ్చి | కర్ణుఁ డీయండె యాఖండలునకు
 నుడివినప్పుడ యొప్పి పుడమి మూఁడడుగులు | వైరోచనుం డీఁడె వామనునకు
@@ -5277,63 +4824,57 @@
 ప్రార్థించినప్పుడే బ్రాహ్మణుఁ గాచి ఖే- | చరుఁడు ప్రాణములీఁడె సురవిరోధి-</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('డి', '|'), ('గి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డ', '|'), ('త', '|'), ('న', '|'), ('యొ', '|'), ('డ', '|'), ('లి', '|'), ('చ', '|'), ('ర్మం', 'U'), ('బూ', 'U'), ('డ్చి', '|'), ('క', 'U'), ('ర్ణు', '|'), ('డీ', 'U'), ('యం', 'U'), ('డె', '|'), ('యా', 'U'), ('ఖం', 'U'), ('డ', '|'), ('లు', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('డి', '|'), ('వి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డ', '|'), ('యొ', 'U'), ('ప్పి', '|'), ('పు', '|'), ('డ', '|'), ('మి', '|'), ('మూ', 'U'), ('డ', '|'), ('డు', '|'), ('గు', '|'), ('లు', '|'), ('వై', 'U'), ('రో', 'U'), ('చ', '|'), ('నుం', 'U'), ('డీ', 'U'), ('డె', '|'), ('వా', 'U'), ('మ', '|'), ('ను', '|'), ('న', '|'), ('కు', '|'), ('శ', '|'), ('ర', '|'), ('ణ', 'U'), ('న్న', '|'), ('య', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('గు', 'U'), ('వ్వ', '|'), ('ను', 'U'), ('బ్రో', 'U'), ('చి', '|'), ('శి', '|'), ('బి', '|'), ('మే', 'U'), ('ని', '|'), ('పొ', '|'), ('ల', '|'), ('సీ', 'U'), ('డె', 'U'), ('శ్యే', 'U'), ('న', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('ప్రా', 'U'), ('ర్థిం', 'U'), ('చి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('బ్రా', 'U'), ('హ్మ', '|'), ('ణు', '|'), ('గా', 'U'), ('చి', '|'), ('ఖే', 'U'), ('చ', '|'), ('రు', '|'), ('డు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లీ', 'U'), ('డె', '|'), ('సు', '|'), ('ర', '|'), ('వి', '|'), ('రో', 'U'), ('ధి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కరయ వితరణశూరులైనట్టి ఘనులు | కొంచకేమైన ఘనుల కర్పించుచుంద్రు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>కరయ వితరణశూరులైనట్టి ఘనులు | కొంచకేమైన ఘనుల కర్పించుచుంద్రు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('య', '|'), ('వి', '|'), ('త', '|'), ('ర', '|'), ('ణ', '|'), ('శూ', 'U'), ('రు', '|'), ('లై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('ను', '|'), ('లు', '|'), ('కొం', 'U'), ('చ', '|'), ('కే', 'U'), ('మై', 'U'), ('న', '|'), ('ఘ', '|'), ('ను', '|'), ('ల', '|'), ('క', 'U'), ('ర్పిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
         <is>
           <t>పురుషోత్తమము భద్రగిరి యహోబలము శ్రీ- | శైలంబు వేంకటాచలము కాంచి
 సింహాచలంబును శ్రీరంగమును ప్రయా- | గంబు కేదారంబు కాళహస్తి
@@ -5341,63 +4882,57 @@
 భీమేశ్వరంబును రామేశ్వరంబును | గోకర్ణమును హిమక్షోణిధరము</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రు', '|'), ('షో', 'U'), ('త్త', '|'), ('మ', '|'), ('ము', '|'), ('భ', '|'), ('ద్ర', '|'), ('గి', '|'), ('రి', '|'), ('య', '|'), ('హో', 'U'), ('బ', '|'), ('ల', '|'), ('ము', 'U'), ('శ్రీ', 'U'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('వేం', 'U'), ('క', '|'), ('టా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('కాం', 'U'), ('చి', '|'), ('సిం', 'U'), ('హా', 'U'), ('చ', '|'), ('లం', 'U'), ('బు', '|'), ('ను', 'U'), ('శ్రీ', 'U'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('ను', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('గం', 'U'), ('బు', '|'), ('కే', 'U'), ('దా', 'U'), ('రం', 'U'), ('బు', '|'), ('కా', 'U'), ('ళ', '|'), ('హ', 'U'), ('స్తి', '|'), ('కుం', 'U'), ('భ', '|'), ('కో', 'U'), ('ణం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కూ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('కా', 'U'), ('శి', '|'), ('సు', 'U'), ('బ్ర', 'U'), ('హ్మ', 'U'), ('ణ్య', '|'), ('ము', '|'), ('ను', '|'), ('చి', '|'), ('దం', 'U'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('యో', 'U'), ('ధ్య', '|'), ('భీ', 'U'), ('మే', 'U'), ('శ్వ', '|'), ('రం', 'U'), ('బు', '|'), ('ను', '|'), ('రా', 'U'), ('మే', 'U'), ('శ్వ', '|'), ('రం', 'U'), ('బు', '|'), ('ను', '|'), ('గో', 'U'), ('క', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ను', '|'), ('హి', '|'), ('మ', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('ధ', '|'), ('ర', '|'), ('ము', '|')]</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మొదలుగాఁ గల పుణ్యభూములకుఁ జనఁగ | వలవ దరలేక నినుఁ గొల్చు నలఘుమతికి,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>మొదలుగాఁ గల పుణ్యభూములకుఁ జనఁగ | వలవ దరలేక నినుఁ గొల్చు నలఘుమతికి,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('ద', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('పు', 'U'), ('ణ్య', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('జ', '|'), ('న', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('వ', '|'), ('ద', '|'), ('ర', '|'), ('లే', 'U'), ('క', '|'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('న', '|'), ('ల', '|'), ('ఘు', '|'), ('మ', '|'), ('తి', '|'), ('కి', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
         <is>
           <t>లవణాబ్ధి లంఘించు పవనాత్మజున కొక్క | తోటకాలువ పూని దాటుటెంత
 జగమెల్ల ముంచు వర్షము నించు కాలాంబు- | ధరమున కొకపాదు దడుపుటెంత
@@ -5405,63 +4940,57 @@
 చెడుగు రక్కసిమూఁకఁ జెండు చక్రమునకుఁ | బుడమి నొక్కరుని జంపుట యదెంత</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
           <t>[('ల', '|'), ('వ', '|'), ('ణా', 'U'), ('బ్ధి', '|'), ('లం', 'U'), ('ఘిం', 'U'), ('చు', '|'), ('ప', '|'), ('వ', '|'), ('నా', 'U'), ('త్మ', '|'), ('జు', '|'), ('న', '|'), ('కొ', 'U'), ('క్క', '|'), ('తో', 'U'), ('ట', '|'), ('కా', 'U'), ('లు', '|'), ('వ', '|'), ('పూ', 'U'), ('ని', '|'), ('దా', 'U'), ('టు', '|'), ('టెం', 'U'), ('త', '|'), ('జ', '|'), ('గ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('ముం', 'U'), ('చు', '|'), ('వ', 'U'), ('ర్ష', '|'), ('ము', '|'), ('నిం', 'U'), ('చు', '|'), ('కా', 'U'), ('లాం', 'U'), ('బు', '|'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('కొ', '|'), ('క', '|'), ('పా', 'U'), ('దు', '|'), ('ద', '|'), ('డు', '|'), ('పు', '|'), ('టెం', 'U'), ('త', '|'), ('బ', '|'), ('హు', '|'), ('లో', 'U'), ('క', '|'), ('వాం', 'U'), ('ఛి', '|'), ('త', '|'), ('ఫ', '|'), ('ల', '|'), ('ద', '|'), ('మౌ', 'U'), ('సు', '|'), ('ర', '|'), ('శా', 'U'), ('ఖి', '|'), ('కొ', '|'), ('క', '|'), ('య', '|'), ('ణూ', 'U'), ('ప', '|'), ('మ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బొ', '|'), ('స', '|'), ('గు', '|'), ('టెం', 'U'), ('త', '|'), ('చె', '|'), ('డు', '|'), ('గు', '|'), ('ర', 'U'), ('క్క', '|'), ('సి', '|'), ('మూ', 'U'), ('క', '|'), ('జెం', 'U'), ('డు', '|'), ('చ', 'U'), ('క్ర', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('బు', '|'), ('డ', '|'), ('మి', '|'), ('నొ', 'U'), ('క్క', '|'), ('రు', '|'), ('ని', '|'), ('జం', 'U'), ('పు', '|'), ('ట', '|'), ('య', '|'), ('దెం', 'U'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సకలబ్రహ్మాండభాండరక్షణకలాభి- | రామునకు నీకు ననుఁ బ్రోచుటేమి వింత?
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>సకలబ్రహ్మాండభాండరక్షణకలాభి- | రామునకు నీకు ననుఁ బ్రోచుటేమి వింత?
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('ల', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('క', '|'), ('లా', 'U'), ('భి', '|'), ('రా', 'U'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('నీ', 'U'), ('కు', '|'), ('న', '|'), ('ను', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('టే', 'U'), ('మి', '|'), ('విం', 'U'), ('త', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
         <is>
           <t>నదులలో జాహ్నవి నరులలో విప్రుండు | గ్రహములలోనఁ బంకజహితుండు
 తృణములలో దర్భ మృగముల సింగంబు | వ్రతముల ద్వాదశి లతల జాజి
@@ -5469,63 +4998,57 @@
 గిరులలో మేరువు పురములలో కాశి | తరువుల రావి సంతతులఁ గృతియు</t>
         </is>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('దు', '|'), ('ల', '|'), ('లో', 'U'), ('జా', 'U'), ('హ్న', '|'), ('వి', '|'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('లో', 'U'), ('వి', 'U'), ('ప్రుం', 'U'), ('డు', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('బం', 'U'), ('క', '|'), ('జ', '|'), ('హి', '|'), ('తుం', 'U'), ('డు', '|'), ('తృ', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('ద', 'U'), ('ర్భ', '|'), ('మృ', '|'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('సిం', 'U'), ('గం', 'U'), ('బు', 'U'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('ల', 'U'), ('ద్వా', 'U'), ('ద', '|'), ('శి', '|'), ('ల', '|'), ('త', '|'), ('ల', '|'), ('జా', 'U'), ('జి', '|'), ('దా', 'U'), ('న', 'U'), ('మ్ము', '|'), ('లం', 'U'), ('ద', 'U'), ('న్న', '|'), ('దా', 'U'), ('న', 'U'), ('మ్ము', '|'), ('లో', 'U'), ('హ', '|'), ('జా', 'U'), ('త', 'U'), ('మ్ము', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('గా', 'U'), ('ర్త', 'U'), ('స్వ', '|'), ('రం', 'U'), ('బు', '|'), ('గి', '|'), ('రు', '|'), ('ల', '|'), ('లో', 'U'), ('మే', 'U'), ('రు', '|'), ('వు', '|'), ('పు', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('కా', 'U'), ('శి', '|'), ('త', '|'), ('రు', '|'), ('వు', '|'), ('ల', '|'), ('రా', 'U'), ('వి', '|'), ('సం', 'U'), ('త', '|'), ('తు', '|'), ('ల', '|'), ('గృ', '|'), ('తి', '|'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నెట్లు పూజ్యములయ్యె నట్లెల్లవేల్పు- | గములయందును నీవె కా ఘనుఁడ వరయ,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>నెట్లు పూజ్యములయ్యె నట్లెల్లవేల్పు- | గములయందును నీవె కా ఘనుఁడ వరయ,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
           <t>[('నె', 'U'), ('ట్లు', '|'), ('పూ', 'U'), ('జ్య', '|'), ('ము', '|'), ('ల', 'U'), ('య్యె', '|'), ('న', 'U'), ('ట్లె', 'U'), ('ల్ల', '|'), ('వే', 'U'), ('ల్పు', '|'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('ఘ', '|'), ('ను', '|'), ('డ', '|'), ('వ', '|'), ('ర', '|'), ('య', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
         <is>
           <t>నటుని పోల్కి ననేకనామరూపవిభేద- | ములు పూని శుభలీలఁ జెలఁగువాని
 తవిలి పూసలలోని దారంబు కైవడి | జగదంతరాత్మయై నెగడువాని
@@ -5533,63 +5056,57 @@
 విపులాంబువులఁ బ్రతిబింబితుండౌ హేళి | వలె సర్వసాక్షియై వెలుఁగువాని</t>
         </is>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('టు', '|'), ('ని', '|'), ('పో', 'U'), ('ల్కి', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('నా', 'U'), ('మ', '|'), ('రూ', 'U'), ('ప', '|'), ('వి', '|'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('పూ', 'U'), ('ని', '|'), ('శు', '|'), ('భ', '|'), ('లీ', 'U'), ('ల', '|'), ('జె', '|'), ('ల', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|'), ('త', '|'), ('వి', '|'), ('లి', '|'), ('పూ', 'U'), ('స', '|'), ('ల', '|'), ('లో', 'U'), ('ని', '|'), ('దా', 'U'), ('రం', 'U'), ('బు', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('జ', '|'), ('గ', '|'), ('దం', 'U'), ('త', '|'), ('రా', 'U'), ('త్మ', '|'), ('యై', 'U'), ('నె', '|'), ('గ', '|'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('నైం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('లి', '|'), ('కు', '|'), ('రీ', 'U'), ('తి', '|'), ('న', '|'), ('ఖి', '|'), ('లం', 'U'), ('బు', '|'), ('ను', 'U'), ('ద్భ', '|'), ('వ', 'U'), ('స్థి', '|'), ('తి', '|'), ('ల', '|'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('నొం', 'U'), ('ద', '|'), ('జే', 'U'), ('యు', '|'), ('వా', 'U'), ('ని', '|'), ('వి', '|'), ('పు', '|'), ('లాం', 'U'), ('బు', '|'), ('వు', '|'), ('ల', 'U'), ('బ్ర', '|'), ('తి', '|'), ('బిం', 'U'), ('బి', '|'), ('తుం', 'U'), ('డౌ', 'U'), ('హే', 'U'), ('ళి', '|'), ('వ', '|'), ('లె', '|'), ('స', 'U'), ('ర్వ', '|'), ('సా', 'U'), ('క్షి', '|'), ('యై', 'U'), ('వె', '|'), ('లు', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిన్ను సేవింతు భావింతు సన్నుతింతుఁ | బ్రేమ యేపార సాక్షాత్కరింపుమయ్య,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>నిన్ను సేవింతు భావింతు సన్నుతింతుఁ | బ్రేమ యేపార సాక్షాత్కరింపుమయ్య,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్ను', '|'), ('సే', 'U'), ('విం', 'U'), ('తు', '|'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('స', 'U'), ('న్ను', '|'), ('తిం', 'U'), ('తు', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('యే', 'U'), ('పా', 'U'), ('ర', '|'), ('సా', 'U'), ('క్షా', 'U'), ('త్క', '|'), ('రిం', 'U'), ('పు', '|'), ('మ', 'U'), ('య్య', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
         <is>
           <t>సాలెపుర్వునకుఁ కుంజరమున కహికిని | ముక్తి యొసంగిన భక్తసులభ!
 జముని దక్షుని పరాశరతనూజుని గర్వ- | దూరులఁ జేసిన భూరిశౌర్య!
@@ -5597,63 +5114,57 @@
 నంది భృంగీశ బాణ దశాననుల మహా- | ప్రమథులఁ జేసిన విమలచరిత!</t>
         </is>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('లె', '|'), ('పు', 'U'), ('ర్వు', '|'), ('న', '|'), ('కు', '|'), ('కుం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('క', '|'), ('హి', '|'), ('కి', '|'), ('ని', '|'), ('ము', 'U'), ('క్తి', '|'), ('యొ', '|'), ('సం', 'U'), ('గి', '|'), ('న', '|'), ('భ', 'U'), ('క్త', '|'), ('సు', '|'), ('ల', '|'), ('భ', '|'), ('జ', '|'), ('ము', '|'), ('ని', '|'), ('ద', 'U'), ('క్షు', '|'), ('ని', '|'), ('ప', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('త', '|'), ('నూ', 'U'), ('జు', '|'), ('ని', '|'), ('గ', 'U'), ('ర్వ', '|'), ('దూ', 'U'), ('రు', '|'), ('ల', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('భూ', 'U'), ('రి', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('హ', '|'), ('రి', '|'), ('వి', '|'), ('రిం', 'U'), ('చ', '|'), ('న', '|'), ('పు', '|'), ('రం', 'U'), ('ద', '|'), ('రు', '|'), ('ల', '|'), ('క', '|'), ('ఖం', 'U'), ('డ', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('లొ', '|'), ('సం', 'U'), ('గి', '|'), ('న', '|'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('జ', '|'), ('న', '|'), ('క', '|'), ('నం', 'U'), ('ది', '|'), ('భృం', 'U'), ('గీ', 'U'), ('శ', '|'), ('బా', 'U'), ('ణ', '|'), ('ద', '|'), ('శా', 'U'), ('న', '|'), ('ను', '|'), ('ల', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('మ', '|'), ('థు', '|'), ('ల', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('చ', '|'), ('రి', '|'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీ మహత్త్వంబు పూని వర్ణింపఁ దరమె | వాణికి వేయిమోములవానికైన,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>నీ మహత్త్వంబు పూని వర్ణింపఁ దరమె | వాణికి వేయిమోములవానికైన,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('పూ', 'U'), ('ని', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('ద', '|'), ('ర', '|'), ('మె', '|'), ('వా', 'U'), ('ణి', '|'), ('కి', '|'), ('వే', 'U'), ('యి', '|'), ('మో', 'U'), ('ము', '|'), ('ల', '|'), ('వా', 'U'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
         <is>
           <t>ఆరకూటమ్ము బంగారమై యొప్పునే | తగర ముజ్జ్వలకలధౌత మగునె
 గాజుపూస యనర్ఘగారుత్మత మ్మౌనె | జిల్లేడు దేవతాక్షితిజ మగునె
@@ -5661,63 +5172,57 @@
 మతకరి జోరీఁగ మదపుటేనుఁగ యౌనె | ఘనబిడాలము చిత్రకాయ మగునె</t>
         </is>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ర', '|'), ('కూ', 'U'), ('ట', 'U'), ('మ్ము', '|'), ('బం', 'U'), ('గా', 'U'), ('ర', '|'), ('మై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('నే', 'U'), ('త', '|'), ('గ', '|'), ('ర', '|'), ('ము', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('క', '|'), ('ల', '|'), ('ధౌ', 'U'), ('త', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('గా', 'U'), ('జు', '|'), ('పూ', 'U'), ('స', '|'), ('య', '|'), ('న', 'U'), ('ర్ఘ', '|'), ('గా', 'U'), ('రు', 'U'), ('త్మ', '|'), ('త', 'U'), ('మ్మౌ', 'U'), ('నె', '|'), ('జి', 'U'), ('ల్లే', 'U'), ('డు', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('క్షి', '|'), ('తి', '|'), ('జ', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('కా', 'U'), ('స', '|'), ('రం', 'U'), ('బ', '|'), ('తి', '|'), ('ద', 'U'), ('ర్ప', '|'), ('కం', 'U'), ('ఠీ', 'U'), ('ర', '|'), ('వ', 'U'), ('మ్మౌ', 'U'), ('నె', '|'), ('కా', 'U'), ('కం', 'U'), ('బు', '|'), ('వ', '|'), ('ర', '|'), ('మా', 'U'), ('న', '|'), ('సౌ', 'U'), ('క', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('మ', '|'), ('త', '|'), ('క', '|'), ('రి', '|'), ('జో', 'U'), ('రీ', 'U'), ('గ', '|'), ('మ', '|'), ('ద', '|'), ('పు', '|'), ('టే', 'U'), ('ను', '|'), ('గ', '|'), ('యౌ', 'U'), ('నె', '|'), ('ఘ', '|'), ('న', '|'), ('బి', '|'), ('డా', 'U'), ('ల', '|'), ('ము', '|'), ('చి', 'U'), ('త్ర', '|'), ('కా', 'U'), ('య', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>రాజగునె జాగ్రదుడు దురాగ్రహముచేతఁ | బ్రజల బాధించు ఘోరదర్పధ్వజుండు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>రాజగునె జాగ్రదుడు దురాగ్రహముచేతఁ | బ్రజల బాధించు ఘోరదర్పధ్వజుండు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జ', '|'), ('గు', '|'), ('నె', '|'), ('జా', 'U'), ('గ్ర', '|'), ('దు', '|'), ('డు', '|'), ('దు', '|'), ('రా', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ము', '|'), ('చే', 'U'), ('త', 'U'), ('బ్ర', '|'), ('జ', '|'), ('ల', '|'), ('బా', 'U'), ('ధిం', 'U'), ('చు', '|'), ('ఘో', 'U'), ('ర', '|'), ('ద', 'U'), ('ర్ప', 'U'), ('ధ్వ', '|'), ('జుం', 'U'), ('డు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
         <is>
           <t>జింక బొడ్డునఁ దావి జిల్లు కస్తురివోలె | జంబాలమున నీరజంబు వోలె
 మొరవ మంచిహొరంగుమెఱుఁగువజ్రమువలెఁ | గప్పచిప్పను మౌక్తికంబు వోలె
@@ -5725,63 +5230,57 @@
 వనబిడాలమునందుఁ గన జవాదిని బోలెఁ | బ్రకటింపఁ గృమియందుఁ బట్టువోలె</t>
         </is>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
           <t>[('జిం', 'U'), ('క', '|'), ('బొ', 'U'), ('డ్డు', '|'), ('న', '|'), ('దా', 'U'), ('వి', '|'), ('జి', 'U'), ('ల్లు', '|'), ('క', 'U'), ('స్తు', '|'), ('రి', '|'), ('వో', 'U'), ('లె', '|'), ('జం', 'U'), ('బా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('నీ', 'U'), ('ర', '|'), ('జం', 'U'), ('బు', '|'), ('వో', 'U'), ('లె', '|'), ('మొ', '|'), ('ర', '|'), ('వ', '|'), ('మం', 'U'), ('చి', '|'), ('హొ', '|'), ('రం', 'U'), ('గు', '|'), ('మె', '|'), ('ఱు', '|'), ('గు', '|'), ('వ', 'U'), ('జ్ర', '|'), ('ము', '|'), ('వ', '|'), ('లె', '|'), ('గ', 'U'), ('ప్ప', '|'), ('చి', 'U'), ('ప్ప', '|'), ('ను', '|'), ('మౌ', 'U'), ('క్తి', '|'), ('కం', 'U'), ('బు', '|'), ('వో', 'U'), ('లె', '|'), ('స', '|'), ('ర', '|'), ('సో', 'U'), ('త్క', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('వి', '|'), ('రి', '|'), ('దే', 'U'), ('ని', '|'), ('య', '|'), ('లు', '|'), ('వో', 'U'), ('లె', '|'), ('నెం', 'U'), ('డు', '|'), ('గ', 'U'), ('డ్డి', '|'), ('ని', '|'), ('గృ', '|'), ('శా', 'U'), ('నుం', 'U'), ('డు', '|'), ('వో', 'U'), ('లె', '|'), ('వ', '|'), ('న', '|'), ('బి', '|'), ('డా', 'U'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('గ', '|'), ('న', '|'), ('జ', '|'), ('వా', 'U'), ('ది', '|'), ('ని', '|'), ('బో', 'U'), ('లె', 'U'), ('బ్ర', '|'), ('క', '|'), ('టిం', 'U'), ('ప', '|'), ('గృ', '|'), ('మి', '|'), ('యం', 'U'), ('దు', '|'), ('బ', 'U'), ('ట్టు', '|'), ('వో', 'U'), ('లె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జగతిలోపలఁ గారణజన్ము లొక్క | కానియెడఁ బుట్టియుఁ బ్రసిద్ధిఁ గాంచుచుంద్రు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>జగతిలోపలఁ గారణజన్ము లొక్క | కానియెడఁ బుట్టియుఁ బ్రసిద్ధిఁ గాంచుచుంద్రు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('గ', '|'), ('తి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('గా', 'U'), ('ర', '|'), ('ణ', '|'), ('జ', 'U'), ('న్ము', '|'), ('లొ', 'U'), ('క్క', '|'), ('కా', 'U'), ('ని', '|'), ('యె', '|'), ('డ', '|'), ('బు', 'U'), ('ట్టి', '|'), ('యు', 'U'), ('బ్ర', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('గాం', 'U'), ('చు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
         <is>
           <t>సిరికిఁ దోఁబుట్టువౌ జ్యేష్ఠామహాదేవి | దీనత నింటింటఁ దిరుగఁజాగె
 హరికిఁ గూరిమిపట్టి యగు మకరాంకుండు | మెయిలేక సోకుఁడై మెలఁగుచుండె
@@ -5789,63 +5288,57 @@
 నలినాసనునకు మానసపుత్రుఁడైన ద- | క్షుం డుక్కు సెడి తలకొట్లఁ బడియె</t>
         </is>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('రి', '|'), ('కి', '|'), ('దో', 'U'), ('బు', 'U'), ('ట్టు', '|'), ('వౌ', 'U'), ('జ్యే', 'U'), ('ష్ఠా', 'U'), ('మ', '|'), ('హా', 'U'), ('దే', 'U'), ('వి', '|'), ('దీ', 'U'), ('న', '|'), ('త', '|'), ('నిం', 'U'), ('టిం', 'U'), ('ట', '|'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('జా', 'U'), ('గె', '|'), ('హ', '|'), ('రి', '|'), ('కి', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('య', '|'), ('గు', '|'), ('మ', '|'), ('క', '|'), ('రాం', 'U'), ('కుం', 'U'), ('డు', '|'), ('మె', '|'), ('యి', '|'), ('లే', 'U'), ('క', '|'), ('సో', 'U'), ('కు', '|'), ('డై', 'U'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('డె', '|'), ('మృ', '|'), ('డు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('ది', '|'), ('లి', '|'), ('కొ', '|'), ('డు', '|'), ('కై', 'U'), ('న', '|'), ('వె', '|'), ('న', '|'), ('క', 'U'), ('య్య', '|'), ('యి', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('బెం', 'U'), ('డ్లి', '|'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('డ', 'U'), ('య్యె', '|'), ('న', '|'), ('లి', '|'), ('నా', 'U'), ('స', '|'), ('ను', '|'), ('న', '|'), ('కు', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('పు', 'U'), ('త్రు', '|'), ('డై', 'U'), ('న', '|'), ('ద', 'U'), ('క్షుం', 'U'), ('డు', 'U'), ('క్కు', '|'), ('సె', '|'), ('డి', '|'), ('త', '|'), ('ల', '|'), ('కొ', 'U'), ('ట్ల', '|'), ('బ', '|'), ('డి', '|'), ('యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిలను దుష్కర్మసహితుల కెట్టి గట్టి | బంధుజనులున్నఁ గీడు వాపంగ లేరు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>నిలను దుష్కర్మసహితుల కెట్టి గట్టి | బంధుజనులున్నఁ గీడు వాపంగ లేరు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ల', '|'), ('ను', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర్మ', '|'), ('స', '|'), ('హి', '|'), ('తు', '|'), ('ల', '|'), ('కె', 'U'), ('ట్టి', '|'), ('గ', 'U'), ('ట్టి', '|'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('ను', '|'), ('లు', 'U'), ('న్న', '|'), ('గీ', 'U'), ('డు', '|'), ('వా', 'U'), ('పం', 'U'), ('గ', '|'), ('లే', 'U'), ('రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
         <is>
           <t>గజముపై మహిషంబు కాలు ద్రవ్వెడునట్లు | కొండతోఁ దగరు డీకొనినయట్లు
 కార్చిచ్చుపైఁ బతంగము తారసిలునట్లు | మృగరాజుపై నక్క మొగియునట్లు
@@ -5853,63 +5346,57 @@
 పిల్లితో నెలుక దర్పించి దార్కొనునట్లు | తోడేలితో మేఁక దొడరునట్లు</t>
         </is>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('జ', '|'), ('ము', '|'), ('పై', 'U'), ('మ', '|'), ('హి', '|'), ('షం', 'U'), ('బు', '|'), ('కా', 'U'), ('లు', '|'), ('ద్ర', 'U'), ('వ్వె', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('కొం', 'U'), ('డ', '|'), ('తో', 'U'), ('ద', '|'), ('గ', '|'), ('రు', '|'), ('డీ', 'U'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('కా', 'U'), ('ర్చి', 'U'), ('చ్చు', '|'), ('పై', 'U'), ('బ', '|'), ('తం', 'U'), ('గ', '|'), ('ము', '|'), ('తా', 'U'), ('ర', '|'), ('సి', '|'), ('లు', '|'), ('న', 'U'), ('ట్లు', '|'), ('మృ', '|'), ('గ', '|'), ('రా', 'U'), ('జు', '|'), ('పై', 'U'), ('న', 'U'), ('క్క', '|'), ('మొ', '|'), ('గి', '|'), ('యు', '|'), ('న', 'U'), ('ట్లు', '|'), ('బె', 'U'), ('బ్బు', '|'), ('లి', '|'), ('తో', 'U'), ('జిం', 'U'), ('క', '|'), ('పె', '|'), ('న', '|'), ('గ', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('పె', '|'), ('ను', '|'), ('బా', 'U'), ('ము', '|'), ('పై', 'U'), ('గ', 'U'), ('ప్ప', '|'), ('చ', '|'), ('ని', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('పి', 'U'), ('ల్లి', '|'), ('తో', 'U'), ('నె', '|'), ('లు', '|'), ('క', '|'), ('ద', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('దా', 'U'), ('ర్కొ', '|'), ('ను', '|'), ('న', 'U'), ('ట్లు', '|'), ('తో', 'U'), ('డే', 'U'), ('లి', '|'), ('తో', 'U'), ('మే', 'U'), ('క', '|'), ('దొ', '|'), ('డ', '|'), ('రు', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>క్రూరు లొక కొంద రసమానవైర మూని | పోరుచుందురు ఘనులతో బుద్ధిమాలి
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>క్రూరు లొక కొంద రసమానవైర మూని | పోరుచుందురు ఘనులతో బుద్ధిమాలి
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
           <t>[('క్రూ', 'U'), ('రు', '|'), ('లొ', '|'), ('క', '|'), ('కొం', 'U'), ('ద', '|'), ('ర', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('వై', 'U'), ('ర', '|'), ('మూ', 'U'), ('ని', '|'), ('పో', 'U'), ('రు', '|'), ('చుం', 'U'), ('దు', '|'), ('రు', '|'), ('ఘ', '|'), ('ను', '|'), ('ల', '|'), ('తో', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('మా', 'U'), ('లి', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
         <is>
           <t>పొద్దుపొద్దుకు వచ్చి పోలిబొట్లయ్య దా | పంచాగమిప్పి ఒప్పన్న సేసి
 సాతి బూదారంబు సాతి నచ్చత్తరా | మసిలేటి కారితే యల్లకలికి
@@ -5917,63 +5404,57 @@
 సూరీడు సందుడు సుకురుండు నని బుర- | స్సపతి పద్దనకొంట సాగినారు</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
           <t>[('పొ', 'U'), ('ద్దు', '|'), ('పొ', 'U'), ('ద్దు', '|'), ('కు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('పో', 'U'), ('లి', '|'), ('బొ', 'U'), ('ట్ల', 'U'), ('య్య', '|'), ('దా', 'U'), ('పం', 'U'), ('చా', 'U'), ('గ', '|'), ('మి', 'U'), ('ప్పి', '|'), ('ఒ', 'U'), ('ప్ప', 'U'), ('న్న', '|'), ('సే', 'U'), ('సి', '|'), ('సా', 'U'), ('తి', '|'), ('బూ', 'U'), ('దా', 'U'), ('రం', 'U'), ('బు', '|'), ('సా', 'U'), ('తి', '|'), ('న', 'U'), ('చ్చ', 'U'), ('త్త', '|'), ('రా', 'U'), ('మ', '|'), ('సి', '|'), ('లే', 'U'), ('టి', '|'), ('కా', 'U'), ('రి', '|'), ('తే', 'U'), ('య', 'U'), ('ల్ల', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('గాం', 'U'), ('దా', 'U'), ('రి', '|'), ('పొ', 'U'), ('ద్దు', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వ', 'U'), ('ర్చీ', 'U'), ('ర్జా', 'U'), ('లు', '|'), ('రా', 'U'), ('వు', '|'), ('మీ', 'U'), ('దా', 'U'), ('తు', '|'), ('లా', 'U'), ('రా', 'U'), ('శి', '|'), ('నీ', 'U'), ('కు', '|'), ('సూ', 'U'), ('రీ', 'U'), ('డు', '|'), ('సం', 'U'), ('దు', '|'), ('డు', '|'), ('సు', '|'), ('కు', '|'), ('రుం', 'U'), ('డు', '|'), ('న', '|'), ('ని', '|'), ('బు', '|'), ('ర', 'U'), ('స్స', '|'), ('ప', '|'), ('తి', '|'), ('ప', 'U'), ('ద్ద', '|'), ('న', '|'), ('కొం', 'U'), ('ట', '|'), ('సా', 'U'), ('గి', '|'), ('నా', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మంచిదని సెప్పి సూకలు మానెఁ డన్ని | కొల్లఁగొనిపోయె నని మూర్ఖకోటి పలుకు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>మంచిదని సెప్పి సూకలు మానెఁ డన్ని | కొల్లఁగొనిపోయె నని మూర్ఖకోటి పలుకు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('చి', '|'), ('ద', '|'), ('ని', '|'), ('సె', 'U'), ('ప్పి', '|'), ('సూ', 'U'), ('క', '|'), ('లు', '|'), ('మా', 'U'), ('నె', '|'), ('డ', 'U'), ('న్ని', '|'), ('కొ', 'U'), ('ల్ల', '|'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('యె', '|'), ('న', '|'), ('ని', '|'), ('మూ', 'U'), ('ర్ఖ', '|'), ('కో', 'U'), ('టి', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
         <is>
           <t>నింబభూజమునకు నిర్మలోదక మిడి | మనిచినఁ దన చేఁదు మానఁగలదె
 పాపకూనకు మంచిపాల్పోసి పెంచిన | నెడరూను తన విషం బుడుగఁగలదె
@@ -5981,63 +5462,57 @@
 కందదుంపకుఁ బానకము పోసి పెంచిన | గొదలేని తన దూల వదలఁగలదె</t>
         </is>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
           <t>[('నిం', 'U'), ('బ', '|'), ('భూ', 'U'), ('జ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('ని', '|'), ('ర్మ', '|'), ('లో', 'U'), ('ద', '|'), ('క', '|'), ('మి', '|'), ('డి', '|'), ('మ', '|'), ('ని', '|'), ('చి', '|'), ('న', '|'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('పా', 'U'), ('ప', '|'), ('కూ', 'U'), ('న', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('పా', 'U'), ('ల్పో', 'U'), ('సి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('నె', '|'), ('డ', '|'), ('రూ', 'U'), ('ను', '|'), ('త', '|'), ('న', '|'), ('వి', '|'), ('షం', 'U'), ('బు', '|'), ('డు', '|'), ('గ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('ఉ', 'U'), ('ల్లి', '|'), ('గ', 'U'), ('డ్డ', '|'), ('కు', '|'), ('దు', '|'), ('షా', 'U'), ('రో', 'U'), ('ద', '|'), ('కం', 'U'), ('బి', '|'), ('డి', 'U'), ('ప్రో', 'U'), ('ది', '|'), ('యి', '|'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('ద', '|'), ('న', '|'), ('కం', 'U'), ('పు', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('కం', 'U'), ('ద', '|'), ('దుం', 'U'), ('ప', '|'), ('కు', '|'), ('బా', 'U'), ('న', '|'), ('క', '|'), ('ము', '|'), ('పో', 'U'), ('సి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('గొ', '|'), ('ద', '|'), ('లే', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('దూ', 'U'), ('ల', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దుర్గుణున కెన్ని మంచి వస్తువులు పెట్టి | మనుపఁ జూచిన తన యోజ మానఁగలఁడె,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>దుర్గుణున కెన్ని మంచి వస్తువులు పెట్టి | మనుపఁ జూచిన తన యోజ మానఁగలఁడె,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ర్గు', '|'), ('ణు', '|'), ('న', '|'), ('కె', 'U'), ('న్ని', '|'), ('మం', 'U'), ('చి', '|'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('మ', '|'), ('ను', '|'), ('ప', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('త', '|'), ('న', '|'), ('యో', 'U'), ('జ', '|'), ('మా', 'U'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
         <is>
           <t>ఎనుబోతునకు విద్దె లెన్నింటి నేర్పిన | మడుగున కేగుటల్ మానఁగలదె
 శునకంబునకు నెన్ని సూడిదల్ వెట్టినఁ | బుల్లెలు నాకక మళ్ళఁగలదె
@@ -6045,63 +5520,57 @@
 యూరబందికి నెన్ని తీరుల మేపినఁ | బరగళ్ళ కేగక బ్రదుకఁగలదె</t>
         </is>
       </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('ను', '|'), ('బో', 'U'), ('తు', '|'), ('న', '|'), ('కు', '|'), ('వి', 'U'), ('ద్దె', '|'), ('లె', 'U'), ('న్నిం', 'U'), ('టి', '|'), ('నే', 'U'), ('ర్పి', '|'), ('న', '|'), ('మ', '|'), ('డు', '|'), ('గు', '|'), ('న', '|'), ('కే', 'U'), ('గు', '|'), ('టల్', 'U'), ('మా', 'U'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('శు', '|'), ('న', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('నె', 'U'), ('న్ని', '|'), ('సూ', 'U'), ('డి', '|'), ('దల్', 'U'), ('వె', 'U'), ('ట్టి', '|'), ('న', '|'), ('బు', 'U'), ('ల్లె', '|'), ('లు', '|'), ('నా', 'U'), ('క', '|'), ('క', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('కె', 'U'), ('న్ని', '|'), ('సిం', 'U'), ('గా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('ది', 'U'), ('ద్ది', '|'), ('న', '|'), ('బూ', 'U'), ('డ్దె', '|'), ('లో', 'U'), ('బొ', '|'), ('ర', '|'), ('ల', '|'), ('క', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('యూ', 'U'), ('ర', '|'), ('బం', 'U'), ('ది', '|'), ('కి', '|'), ('నె', 'U'), ('న్ని', '|'), ('తీ', 'U'), ('రు', '|'), ('ల', '|'), ('మే', 'U'), ('పి', '|'), ('న', '|'), ('బ', '|'), ('ర', '|'), ('గ', 'U'), ('ళ్ళ', '|'), ('కే', 'U'), ('గ', '|'), ('క', 'U'), ('బ్ర', '|'), ('దు', '|'), ('క', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>హీనుఁడగువాని సత్ప్రభు లెన్నిగతుల | నునిచి మనిచినఁ జెడుజాడ లుడుగఁగలఁడె,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>హీనుఁడగువాని సత్ప్రభు లెన్నిగతుల | నునిచి మనిచినఁ జెడుజాడ లుడుగఁగలఁడె,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
           <t>[('హీ', 'U'), ('ను', '|'), ('డ', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భు', '|'), ('లె', 'U'), ('న్ని', '|'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('ని', '|'), ('చి', '|'), ('మ', '|'), ('ని', '|'), ('చి', '|'), ('న', '|'), ('జె', '|'), ('డు', '|'), ('జా', 'U'), ('డ', '|'), ('లు', '|'), ('డు', '|'), ('గ', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
         <is>
           <t>నోరు చేఁదై కూడుగూరలు చవి దప్పు | గడగడ నొడలెల్ల వడకుచుండు
 జెవుడున నేమియుఁ జెవులకు వినరాదు | తెగులును జింతయుఁ దగులుకొనుచు
@@ -6109,63 +5578,57 @@
 బాలు రందఱుఁ గూడి గేలి గావింతురు | మగువలు పకపక నగుచునుంద్రు</t>
         </is>
       </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
           <t>[('నో', 'U'), ('రు', '|'), ('చే', 'U'), ('దై', 'U'), ('కూ', 'U'), ('డు', '|'), ('గూ', 'U'), ('ర', '|'), ('లు', '|'), ('చ', '|'), ('వి', '|'), ('ద', 'U'), ('ప్పు', '|'), ('గ', '|'), ('డ', '|'), ('గ', '|'), ('డ', '|'), ('నొ', '|'), ('డ', '|'), ('లె', 'U'), ('ల్ల', '|'), ('వ', '|'), ('డ', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|'), ('జె', '|'), ('వు', '|'), ('డు', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('యు', '|'), ('జె', '|'), ('వు', '|'), ('ల', '|'), ('కు', '|'), ('వి', '|'), ('న', '|'), ('రా', 'U'), ('దు', '|'), ('తె', '|'), ('గు', '|'), ('లు', '|'), ('ను', '|'), ('జిం', 'U'), ('త', '|'), ('యు', '|'), ('ద', '|'), ('గు', '|'), ('లు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('బొ', '|'), ('ర', '|'), ('గ', 'U'), ('ప్పి', '|'), ('కా', 'U'), ('న', '|'), ('రా', 'U'), ('దె', 'U'), ('ద్ది', '|'), ('యు', '|'), ('సి', 'U'), ('గ్గొ', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('యై', 'U'), ('న', '|'), ('జే', 'U'), ('ర', '|'), ('బో', 'U'), ('దు', '|'), ('బా', 'U'), ('లు', '|'), ('రం', 'U'), ('ద', '|'), ('ఱు', '|'), ('గూ', 'U'), ('డి', '|'), ('గే', 'U'), ('లి', '|'), ('గా', 'U'), ('విం', 'U'), ('తు', '|'), ('రు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('లు', '|'), ('ప', '|'), ('క', '|'), ('ప', '|'), ('క', '|'), ('న', '|'), ('గు', '|'), ('చు', '|'), ('నుం', 'U'), ('ద్రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మదిఁ దలంపగఁ గటకటా ముదిమియంత | రోఁత లేదు గదా ధారుణీతలమున,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>మదిఁ దలంపగఁ గటకటా ముదిమియంత | రోఁత లేదు గదా ధారుణీతలమున,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ది', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('గ', '|'), ('గ', '|'), ('ట', '|'), ('క', '|'), ('టా', 'U'), ('ము', '|'), ('ది', '|'), ('మి', '|'), ('యం', 'U'), ('త', '|'), ('రో', 'U'), ('త', '|'), ('లే', 'U'), ('దు', '|'), ('గ', '|'), ('దా', 'U'), ('ధా', 'U'), ('రు', '|'), ('ణీ', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
         <is>
           <t>బావిలోపలఁ బడ్డ పామును వెడలింపఁ | జనువానిఁ గరువక చనఁగఁగలదె
 చిచ్చులోఁ బడెడు వృశ్చికమును వెడలింపఁ | జనువాని మీటక నడలఁగలదె
@@ -6173,63 +5636,57 @@
 బురదగోఁతను బడ్డ పోట్లావు లెగనెత్తఁ | జనువాని బొడువక జరగఁగలదె</t>
         </is>
       </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('వి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బ', 'U'), ('డ్డ', '|'), ('పా', 'U'), ('ము', '|'), ('ను', '|'), ('వె', '|'), ('డ', '|'), ('లిం', 'U'), ('ప', '|'), ('జ', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('గ', '|'), ('రు', '|'), ('వ', '|'), ('క', '|'), ('చ', '|'), ('న', '|'), ('గ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('చి', 'U'), ('చ్చు', '|'), ('లో', 'U'), ('బ', '|'), ('డె', '|'), ('డు', '|'), ('వృ', 'U'), ('శ్చి', '|'), ('క', '|'), ('ము', '|'), ('ను', '|'), ('వె', '|'), ('డ', '|'), ('లిం', 'U'), ('ప', '|'), ('జ', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('మీ', 'U'), ('ట', '|'), ('క', '|'), ('న', '|'), ('డ', '|'), ('ల', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('పె', '|'), ('ను', '|'), ('వె', 'U'), ('ల్లి', '|'), ('బ', '|'), ('డి', '|'), ('పో', 'U'), ('వు', '|'), ('బె', 'U'), ('బ్బు', '|'), ('లి', '|'), ('బ', '|'), ('రి', '|'), ('కిం', 'U'), ('ప', '|'), ('జ', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('క', '|'), ('మ', '|'), ('ను', '|'), ('ప', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('బు', '|'), ('ర', '|'), ('ద', '|'), ('గో', 'U'), ('త', '|'), ('ను', '|'), ('బ', 'U'), ('డ్డ', '|'), ('పో', 'U'), ('ట్లా', 'U'), ('వు', '|'), ('లె', '|'), ('గ', '|'), ('నె', 'U'), ('త్త', '|'), ('జ', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('బొ', '|'), ('డు', '|'), ('వ', '|'), ('క', '|'), ('జ', '|'), ('ర', '|'), ('గ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అవనిలోపల ఖలుని నెయ్యంబు మీఱ | మనుపఁ జనువానిఁ జెఱుపక మానఁగలఁడె?
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>అవనిలోపల ఖలుని నెయ్యంబు మీఱ | మనుపఁ జనువానిఁ జెఱుపక మానఁగలఁడె?
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ఖ', '|'), ('లు', '|'), ('ని', '|'), ('నె', 'U'), ('య్యం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మ', '|'), ('ను', '|'), ('ప', '|'), ('జ', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('జె', '|'), ('ఱు', '|'), ('ప', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
         <is>
           <t>ఘనగహనాంతరోద్గతతృణానీకంబు | ధేనువునందుఁ బాలైనయట్లు
 వితతదుర్వర్ణరూపితలోహపిండంబు | రసమునఁ బసిడియై యొసఁగినట్లు
@@ -6237,63 +5694,57 @@
 భూరికుల్యాతకవారి రసాలమూ- | లమునఁ బానకమై చెలంగినట్లు</t>
         </is>
       </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('గ', '|'), ('హ', '|'), ('నాం', 'U'), ('త', '|'), ('రో', 'U'), ('ద్గ', '|'), ('త', '|'), ('తృ', '|'), ('ణా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('ధే', 'U'), ('ను', '|'), ('వు', '|'), ('నం', 'U'), ('దు', '|'), ('బా', 'U'), ('లై', 'U'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('వి', '|'), ('త', '|'), ('త', '|'), ('దు', 'U'), ('ర్వ', 'U'), ('ర్ణ', '|'), ('రూ', 'U'), ('పి', '|'), ('త', '|'), ('లో', 'U'), ('హ', '|'), ('పిం', 'U'), ('డం', 'U'), ('బు', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('న', '|'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('యై', 'U'), ('యొ', '|'), ('స', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('సాం', 'U'), ('ద్రా', 'U'), ('భ్ర', '|'), ('వా', 'U'), ('రి', '|'), ('వృ', '|'), ('ష', 'U'), ('త్క', '|'), ('దం', 'U'), ('బ', '|'), ('ము', '|'), ('శు', 'U'), ('క్తి', '|'), ('యం', 'U'), ('దు', '|'), ('ము', 'U'), ('క్తా', 'U'), ('మ', '|'), ('ణి', '|'), ('యై', 'U'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('భూ', 'U'), ('రి', '|'), ('కు', 'U'), ('ల్యా', 'U'), ('త', '|'), ('క', '|'), ('వా', 'U'), ('రి', '|'), ('ర', '|'), ('సా', 'U'), ('ల', '|'), ('మూ', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('బా', 'U'), ('న', '|'), ('క', '|'), ('మై', 'U'), ('చె', '|'), ('లం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కరిహయాందోళికారత్నకాంచనాదు- | లగుచు నిజవక్త్రమున నిడ్డ హార్యమొప్పు,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>కరిహయాందోళికారత్నకాంచనాదు- | లగుచు నిజవక్త్రమున నిడ్డ హార్యమొప్పు,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రి', '|'), ('హ', '|'), ('యాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('ర', 'U'), ('త్న', '|'), ('కాం', 'U'), ('చ', '|'), ('నా', 'U'), ('దు', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('ని', '|'), ('జ', '|'), ('వ', 'U'), ('క్త్ర', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('డ్డ', '|'), ('హా', 'U'), ('ర్య', '|'), ('మొ', 'U'), ('ప్పు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
         <is>
           <t>అన్నంబు నాలుక కరుచియై కన్పట్టు | నిలిచినచో నిల్వ నలవికాదు
 మనుజేంద్రుతోనైన మాటాడ సైపదు | పనులయందేమియు మనసు లేదు
@@ -6301,48 +5752,45 @@
 తెవులు పుట్టిన రీతి దేహంబు కృశియించుఁ | గలనైన నిద్దుర గలుగఁబోదు</t>
         </is>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('న్నం', 'U'), ('బు', '|'), ('నా', 'U'), ('లు', '|'), ('క', '|'), ('క', '|'), ('రు', '|'), ('చి', '|'), ('యై', 'U'), ('క', 'U'), ('న్ప', 'U'), ('ట్టు', '|'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('చో', 'U'), ('ని', 'U'), ('ల్వ', '|'), ('న', '|'), ('ల', '|'), ('వి', '|'), ('కా', 'U'), ('దు', '|'), ('మ', '|'), ('ను', '|'), ('జేం', 'U'), ('ద్రు', '|'), ('తో', 'U'), ('నై', 'U'), ('న', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('సై', 'U'), ('ప', '|'), ('దు', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('యం', 'U'), ('దే', 'U'), ('మి', '|'), ('యు', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('లే', 'U'), ('దు', '|'), ('న', '|'), ('డు', '|'), ('చు', '|'), ('చో', 'U'), ('న', '|'), ('డు', '|'), ('గు', '|'), ('లు', '|'), ('త', '|'), ('డ', '|'), ('బా', 'U'), ('టు', '|'), ('గై', 'U'), ('కొ', '|'), ('ను', '|'), ('ద', '|'), ('గ', '|'), ('బం', 'U'), ('దు', '|'), ('వు', '|'), ('ల', '|'), ('నై', 'U'), ('న', '|'), ('న', '|'), ('గ', '|'), ('వు', '|'), ('రా', 'U'), ('దు', '|'), ('తె', '|'), ('వు', '|'), ('లు', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('దే', 'U'), ('హం', 'U'), ('బు', '|'), ('కృ', '|'), ('శి', '|'), ('యిం', 'U'), ('చు', '|'), ('గ', '|'), ('ల', '|'), ('నై', 'U'), ('న', '|'), ('ని', 'U'), ('ద్దు', '|'), ('ర', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('బో', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>శివశివా ధాత్రిఁ దా వలచిన వధూటిఁ | బాయు వెత వద్దు సుమ్మెట్టి పలువకైన,
+భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>శివశివా ధాత్రిఁ దా వలచిన వధూటిఁ | బాయు వెత వద్దు సుమ్మెట్టి పలువకైన,
-భూనుతవిలాస, పీఠికాపురనివాస, | కుముదహితకోటిసంకాశ, కుక్కుటేశ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>kukkuteswara</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
-        <is>
-          <t>kukkuteswara</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
         <is>
           <t>[('శి', '|'), ('వ', '|'), ('శి', '|'), ('వా', 'U'), ('ధా', 'U'), ('త్రి', '|'), ('దా', 'U'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('బా', 'U'), ('యు', '|'), ('వె', '|'), ('త', '|'), ('వ', 'U'), ('ద్దు', '|'), ('సు', 'U'), ('మ్మె', 'U'), ('ట్టి', '|'), ('ప', '|'), ('లు', '|'), ('వ', '|'), ('కై', 'U'), ('న', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>

--- a/dataset/lg/kukkuteswara.xlsx
+++ b/dataset/lg/kukkuteswara.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('ను', '|'), ('గ', '|'), ('జా', 'U'), ('న', '|'), ('ను', '|'), ('డె', '|'), ('పు', '|'), ('డు', '|'), ('నిన్', 'U'), ('బొ', '|'), ('గ', '|'), ('డు', '|'), ('కృ', '|'), ('తు', '|'), ('ల', '|'), ('జి', '|'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('సం', 'U'), ('పూ', 'U'), ('ర్తి', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
+          <t>[('న', '|'), ('ను', '|'), ('గ', '|'), ('జా', 'U'), ('న', '|'), ('ను', '|'), ('డె', '|'), ('పు', '|'), ('డు', '|'), ('ని', 'U'), ('న్బొ', '|'), ('గ', '|'), ('డు', '|'), ('కృ', '|'), ('తు', '|'), ('ల', '|'), ('జి', '|'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('సం', 'U'), ('పూ', 'U'), ('ర్తి', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గే', 'U'), ('రి', '|'), ('సా', 'U'), ('యం', 'U'), ('త', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('దాం', 'U'), ('డ', '|'), ('వం', 'U'), ('బా', 'U'), ('డు', '|'), ('నీ', 'U'), ('హొ', '|'), ('యల్', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
+          <t>[('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గే', 'U'), ('రి', '|'), ('సా', 'U'), ('యం', 'U'), ('త', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('దాం', 'U'), ('డ', '|'), ('వం', 'U'), ('బా', 'U'), ('డు', '|'), ('నీ', 'U'), ('హొ', '|'), ('య', 'U'), ('ల్ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('లి', '|'), ('మి', '|'), ('నో', 'U'), ('గి', '|'), ('ర', '|'), ('యి', 'U'), ('డ్డ', '|'), ('చి', '|'), ('రి', '|'), ('తొం', 'U'), ('డ', '|'), ('బ', 'U'), ('త్తు', '|'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('జం', 'U'), ('పిం', 'U'), ('చు', '|'), ('ట', '|'), ('దు', '|'), ('డు', '|'), ('కు', '|'), ('గా', 'U'), ('దె', '|'), ('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('య', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('క', '|'), ('భ', 'U'), ('ల్లా', 'U'), ('ణు', '|'), ('ని', 'U'), ('ల్లా', 'U'), ('లి', '|'), ('గో', 'U'), ('రు', '|'), ('ట', '|'), ('యె', 'U'), ('గ్గు', '|'), ('గా', 'U'), ('దె', '|'), ('మా', 'U'), ('ల', '|'), ('ని', '|'), ('యెం', 'U'), ('గి', '|'), ('లి', '|'), ('మాం', 'U'), ('సం', 'U'), ('బు', '|'), ('రో', 'U'), ('య', '|'), ('క', '|'), ('త', '|'), ('వి', '|'), ('లి', '|'), ('మె', '|'), ('సం', 'U'), ('గు', '|'), ('ట', '|'), ('త', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('దె', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('ది', '|'), ('పం', 'U'), ('పు', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('కై', 'U'), ('కి', '|'), ('ని', '|'), ('య', '|'), ('క', '|'), ('కుం', 'U'), ('టె', '|'), ('నల్', 'U'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('కొ', '|'), ('ఱ', '|'), ('త', '|'), ('గా', 'U'), ('దె', '|')]</t>
+          <t>[('చె', '|'), ('లి', '|'), ('మి', '|'), ('నో', 'U'), ('గి', '|'), ('ర', '|'), ('యి', 'U'), ('డ్డ', '|'), ('చి', '|'), ('రి', '|'), ('తొం', 'U'), ('డ', '|'), ('బ', 'U'), ('త్తు', '|'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('జం', 'U'), ('పిం', 'U'), ('చు', '|'), ('ట', '|'), ('దు', '|'), ('డు', '|'), ('కు', '|'), ('గా', 'U'), ('దె', '|'), ('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('య', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('క', '|'), ('భ', 'U'), ('ల్లా', 'U'), ('ణు', '|'), ('ని', 'U'), ('ల్లా', 'U'), ('లి', '|'), ('గో', 'U'), ('రు', '|'), ('ట', '|'), ('యె', 'U'), ('గ్గు', '|'), ('గా', 'U'), ('దె', '|'), ('మా', 'U'), ('ల', '|'), ('ని', '|'), ('యెం', 'U'), ('గి', '|'), ('లి', '|'), ('మాం', 'U'), ('సం', 'U'), ('బు', '|'), ('రో', 'U'), ('య', '|'), ('క', '|'), ('త', '|'), ('వి', '|'), ('లి', '|'), ('మె', '|'), ('సం', 'U'), ('గు', '|'), ('ట', '|'), ('త', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('దె', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('ది', '|'), ('పం', 'U'), ('పు', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('కై', 'U'), ('కి', '|'), ('ని', '|'), ('య', '|'), ('క', '|'), ('కుం', 'U'), ('టె', '|'), ('న', 'U'), ('ల్తి', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('కొ', '|'), ('ఱ', '|'), ('త', '|'), ('గా', 'U'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('ద', '|'), ('శ', '|'), ('శ', '|'), ('తా', 'U'), ('బ్ద', '|'), ('ము', '|'), ('ల', '|'), ('నిన్', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('పూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('మె', 'U'), ('చ్చి', '|'), ('చ', '|'), ('క్రి', '|'), ('కి', '|'), ('జ', '|'), ('క్ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వు', '|'), ('త', '|'), ('ర', '|'), ('ల', '|'), ('క', '|'), ('ని', '|'), ('ను', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('త', 'U'), ('ప్ప', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('క్రీ', 'U'), ('డి', '|'), ('కె', '|'), ('స', '|'), ('గ', '|'), ('బా', 'U'), ('శు', '|'), ('ప', '|'), ('తా', 'U'), ('స్త్ర', '|'), ('మొ', '|'), ('స', '|'), ('గి', '|'), ('నా', 'U'), ('వు', '|'), ('మి', 'U'), ('త్తి', '|'), ('చే', 'U'), ('బ', '|'), ('డి', '|'), ('ని', 'U'), ('న్ను', '|'), ('హ', 'U'), ('త్తి', '|'), ('బ', 'U'), ('త్తి', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('ము', '|'), ('ని', '|'), ('పు', '|'), ('త్రు', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('మ', '|'), ('ని', '|'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('కా', 'U'), ('ల', '|'), ('కూ', 'U'), ('టా', 'U'), ('గ్ని', '|'), ('చే', 'U'), ('గ్రా', 'U'), ('గి', '|'), ('కు', 'U'), ('య్యి', '|'), ('డు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('వి', '|'), ('జు', '|'), ('ల', '|'), ('యా', 'U'), ('ప', '|'), ('దన్', 'U'), ('తీ', 'U'), ('ర్చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
+          <t>[('ద', '|'), ('శ', '|'), ('శ', '|'), ('తా', 'U'), ('బ్ద', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('న్ద', '|'), ('వి', '|'), ('లి', '|'), ('పూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('మె', 'U'), ('చ్చి', '|'), ('చ', '|'), ('క్రి', '|'), ('కి', '|'), ('జ', '|'), ('క్ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వు', '|'), ('త', '|'), ('ర', '|'), ('ల', '|'), ('క', '|'), ('ని', '|'), ('ను', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('త', 'U'), ('ప్ప', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('క్రీ', 'U'), ('డి', '|'), ('కె', '|'), ('స', '|'), ('గ', '|'), ('బా', 'U'), ('శు', '|'), ('ప', '|'), ('తా', 'U'), ('స్త్ర', '|'), ('మొ', '|'), ('స', '|'), ('గి', '|'), ('నా', 'U'), ('వు', '|'), ('మి', 'U'), ('త్తి', '|'), ('చే', 'U'), ('బ', '|'), ('డి', '|'), ('ని', 'U'), ('న్ను', '|'), ('హ', 'U'), ('త్తి', '|'), ('బ', 'U'), ('త్తి', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('ము', '|'), ('ని', '|'), ('పు', '|'), ('త్రు', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('మ', '|'), ('ని', '|'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('కా', 'U'), ('ల', '|'), ('కూ', 'U'), ('టా', 'U'), ('గ్ని', '|'), ('చే', 'U'), ('గ్రా', 'U'), ('గి', '|'), ('కు', 'U'), ('య్యి', '|'), ('డు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('వి', '|'), ('జు', '|'), ('ల', '|'), ('యా', 'U'), ('ప', '|'), ('ద', 'U'), ('న్తీ', 'U'), ('ర్చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('పు', '|'), ('ఱి', '|'), ('య', '|'), ('లు', '|'), ('పు', '|'), ('ను', '|'), ('క', '|'), ('లు', '|'), ('నె', '|'), ('ఱి', '|'), ('య', '|'), ('బే', 'U'), ('ర్లు', '|'), ('గ', '|'), ('వై', 'U'), ('చి', '|'), ('కు', 'U'), ('త్తు', '|'), ('క', '|'), ('గ', '|'), ('ర', '|'), ('ళం', 'U'), ('బు', '|'), ('కు', '|'), ('దు', '|'), ('రు', '|'), ('కొ', '|'), ('లి', '|'), ('పి', '|'), ('క', '|'), ('డ', '|'), ('గి', '|'), ('పె', 'U'), ('న్బా', 'U'), ('ము', '|'), ('ల', '|'), ('తొ', '|'), ('డ', '|'), ('పు', '|'), ('లు', '|'), ('గా', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('ప', 'U'), ('చ్చి', '|'), ('యే', 'U'), ('ను', '|'), ('గు', '|'), ('తో', 'U'), ('లు', '|'), ('పై', 'U'), ('ని', '|'), ('గ', 'U'), ('ప్పి', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('శ', '|'), ('వ', '|'), ('భ', 'U'), ('స్మ', '|'), ('మి', 'U'), ('మ్ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('న', '|'), ('లం', 'U'), ('ది', '|'), ('బి', '|'), ('కి', '|'), ('రం', 'U'), ('బు', '|'), ('చ', '|'), ('లి', '|'), ('కూ', 'U'), ('డు', '|'), ('ప్రే', 'U'), ('మ', '|'), ('ది', '|'), ('ను', '|'), ('చు', '|'), ('భూ', 'U'), ('త', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('ముల్', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గ', '|'), ('బ్రే', 'U'), ('త', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('న', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|')]</t>
+          <t>[('పు', '|'), ('ఱి', '|'), ('య', '|'), ('లు', '|'), ('పు', '|'), ('ను', '|'), ('క', '|'), ('లు', '|'), ('నె', '|'), ('ఱి', '|'), ('య', '|'), ('బే', 'U'), ('ర్లు', '|'), ('గ', '|'), ('వై', 'U'), ('చి', '|'), ('కు', 'U'), ('త్తు', '|'), ('క', '|'), ('గ', '|'), ('ర', '|'), ('ళం', 'U'), ('బు', '|'), ('కు', '|'), ('దు', '|'), ('రు', '|'), ('కొ', '|'), ('లి', '|'), ('పి', '|'), ('క', '|'), ('డ', '|'), ('గి', '|'), ('పె', 'U'), ('న్బా', 'U'), ('ము', '|'), ('ల', '|'), ('తొ', '|'), ('డ', '|'), ('పు', '|'), ('లు', '|'), ('గా', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('ప', 'U'), ('చ్చి', '|'), ('యే', 'U'), ('ను', '|'), ('గు', '|'), ('తో', 'U'), ('లు', '|'), ('పై', 'U'), ('ని', '|'), ('గ', 'U'), ('ప్పి', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('శ', '|'), ('వ', '|'), ('భ', 'U'), ('స్మ', '|'), ('మి', 'U'), ('మ్ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('న', '|'), ('లం', 'U'), ('ది', '|'), ('బి', '|'), ('కి', '|'), ('రం', 'U'), ('బు', '|'), ('చ', '|'), ('లి', '|'), ('కూ', 'U'), ('డు', '|'), ('ప్రే', 'U'), ('మ', '|'), ('ది', '|'), ('ను', '|'), ('చు', '|'), ('భూ', 'U'), ('త', '|'), ('పి', '|'), ('శా', 'U'), ('చ', '|'), ('ము', 'U'), ('ల్ప్రీ', 'U'), ('తి', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గ', '|'), ('బ్రే', 'U'), ('త', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('న', 'U'), ('బ్బు', '|'), ('ర', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|')]</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('మె', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('డి', '|'), ('యు', '|'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('లీ', 'U'), ('ల', '|'), ('జె', '|'), ('ల', '|'), ('గు', '|'), ('దు', '|'), ('వం', 'U'), ('ట', '|'), ('మేల్', 'U'), ('బ', '|'), ('ళీ', 'U'), ('య', '|'), ('యా', 'U'), ('రె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
+          <t>[('మె', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('డి', '|'), ('యు', '|'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('లీ', 'U'), ('ల', '|'), ('జె', '|'), ('ల', '|'), ('గు', '|'), ('దు', '|'), ('వం', 'U'), ('ట', '|'), ('మే', 'U'), ('ల్బ', '|'), ('ళీ', 'U'), ('య', '|'), ('యా', 'U'), ('రె', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('జం', 'U'), ('భా', 'U'), ('హి', '|'), ('తు', '|'), ('ని', '|'), ('భు', '|'), ('జా', 'U'), ('స్తం', 'U'), ('భ', '|'), ('నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('చ', '|'), ('క్రం', 'U'), ('బు', '|'), ('వి', '|'), ('ఱి', '|'), ('చి', '|'), ('పు', 'U'), ('చ్చి', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('బ', '|'), ('టా', 'U'), ('పం', 'U'), ('చ', '|'), ('లు', '|'), ('గా', 'U'), ('గొ', 'U'), ('ట్టి', '|'), ('భ', '|'), ('గు', '|'), ('ని', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('నే', 'U'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('గ', '|'), ('ది', '|'), ('గి', '|'), ('చి', '|'), ('పూ', 'U'), ('షా', 'U'), ('ర్కు', '|'), ('దం', 'U'), ('త', '|'), ('ముల్', 'U'), ('పొ', '|'), ('డి', '|'), ('పొ', '|'), ('డి', '|'), ('గా', 'U'), ('ద', 'U'), ('న్ని', '|'), ('సో', 'U'), ('ము', '|'), ('ని', '|'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('ల', '|'), ('భూ', 'U'), ('మి', '|'), ('జ', '|'), ('మ', '|'), ('రి', '|'), ('ద', 'U'), ('క్షు', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('త', '|'), ('వి', '|'), ('లి', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('ద', '|'), ('ఱి', '|'), ('మి', '|'), ('వే', 'U'), ('టా', 'U'), ('డి', '|'), ('న', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|')]</t>
+          <t>[('జం', 'U'), ('భా', 'U'), ('హి', '|'), ('తు', '|'), ('ని', '|'), ('భు', '|'), ('జా', 'U'), ('స్తం', 'U'), ('భ', '|'), ('నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('చ', '|'), ('క్రం', 'U'), ('బు', '|'), ('వి', '|'), ('ఱి', '|'), ('చి', '|'), ('పు', 'U'), ('చ్చి', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('బ', '|'), ('టా', 'U'), ('పం', 'U'), ('చ', '|'), ('లు', '|'), ('గా', 'U'), ('గొ', 'U'), ('ట్టి', '|'), ('భ', '|'), ('గు', '|'), ('ని', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('నే', 'U'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('గ', '|'), ('ది', '|'), ('గి', '|'), ('చి', '|'), ('పూ', 'U'), ('షా', 'U'), ('ర్కు', '|'), ('దం', 'U'), ('త', '|'), ('ము', 'U'), ('ల్పొ', '|'), ('డి', '|'), ('పొ', '|'), ('డి', '|'), ('గా', 'U'), ('ద', 'U'), ('న్ని', '|'), ('సో', 'U'), ('ము', '|'), ('ని', '|'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('ల', '|'), ('భూ', 'U'), ('మి', '|'), ('జ', '|'), ('మ', '|'), ('రి', '|'), ('ద', 'U'), ('క్షు', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('త', '|'), ('వి', '|'), ('లి', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('ద', '|'), ('ఱి', '|'), ('మి', '|'), ('వే', 'U'), ('టా', 'U'), ('డి', '|'), ('న', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్రా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('యా', 'U'), ('ప', '|'), ('దల్', 'U'), ('త', '|'), ('ల', '|'), ('గు', '|'), ('నౌ', 'U'), ('ర', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
+          <t>[('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్రా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('యా', 'U'), ('ప', '|'), ('ద', 'U'), ('ల్త', '|'), ('ల', '|'), ('గు', '|'), ('నౌ', 'U'), ('ర', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', 'U'), ('క్క', '|'), ('ఱ', '|'), ('గా', 'U'), ('వు', '|'), ('ప', '|'), ('రి', '|'), ('హా', 'U'), ('స', '|'), ('వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', 'U'), ('ద్య', '|'), ('ప', 'U'), ('ద్య', '|'), ('వి', '|'), ('చి', '|'), ('త్ర', '|'), ('క', '|'), ('వి', '|'), ('త', '|'), ('లు', '|'), ('కొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('వు', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('సు', 'U'), ('ద్దు', '|'), ('ల', '|'), ('క', '|'), ('తల్', 'U'), ('పె', 'U'), ('ల్లు', '|'), ('మీ', 'U'), ('ఱు', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('భా', 'U'), ('ష', '|'), ('ల', '|'), ('తీ', 'U'), ('రు', '|'), ('లే', 'U'), ('మి', '|'), ('యు', '|'), ('గా', 'U'), ('వు', '|'), ('పా', 'U'), ('ర', '|'), ('సీ', 'U'), ('కో', 'U'), ('క్తు', '|'), ('లు', '|'), ('ప్ర', '|'), ('ణు', '|'), ('తి', '|'), ('కె', 'U'), ('క్కు', '|'), ('శై', 'U'), ('వ', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వ', '|'), ('మ', '|'), ('తా', 'U'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('లొ', 'U'), ('ప్ప', '|'), ('వు', '|'), ('పా', 'U'), ('షం', 'U'), ('డ', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('బా', 'U'), ('ళి', '|'), ('న', '|'), ('ల', '|'), ('రు', '|')]</t>
+          <t>[('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', 'U'), ('క్క', '|'), ('ఱ', '|'), ('గా', 'U'), ('వు', '|'), ('ప', '|'), ('రి', '|'), ('హా', 'U'), ('స', '|'), ('వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', 'U'), ('ద్య', '|'), ('ప', 'U'), ('ద్య', '|'), ('వి', '|'), ('చి', '|'), ('త్ర', '|'), ('క', '|'), ('వి', '|'), ('త', '|'), ('లు', '|'), ('కొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('వు', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('సు', 'U'), ('ద్దు', '|'), ('ల', '|'), ('క', '|'), ('త', 'U'), ('ల్పె', 'U'), ('ల్లు', '|'), ('మీ', 'U'), ('ఱు', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('భా', 'U'), ('ష', '|'), ('ల', '|'), ('తీ', 'U'), ('రు', '|'), ('లే', 'U'), ('మి', '|'), ('యు', '|'), ('గా', 'U'), ('వు', '|'), ('పా', 'U'), ('ర', '|'), ('సీ', 'U'), ('కో', 'U'), ('క్తు', '|'), ('లు', '|'), ('ప్ర', '|'), ('ణు', '|'), ('తి', '|'), ('కె', 'U'), ('క్కు', '|'), ('శై', 'U'), ('వ', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వ', '|'), ('మ', '|'), ('తా', 'U'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('లొ', 'U'), ('ప్ప', '|'), ('వు', '|'), ('పా', 'U'), ('షం', 'U'), ('డ', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('బా', 'U'), ('ళి', '|'), ('న', '|'), ('ల', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('పు', '|'), ('క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రుల్', 'U'), ('కం', 'U'), ('చ', '|'), ('ఱ', '|'), ('యో', 'U'), ('గు', '|'), ('లు', '|'), ('సా', 'U'), ('తా', 'U'), ('ని', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వుల్', 'U'), ('సా', 'U'), ('లె', '|'), ('భ', '|'), ('టు', '|'), ('లు', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('దా', 'U'), ('త', '|'), ('లు', '|'), ('కొం', 'U'), ('టె', '|'), ('భా', 'U'), ('గో', 'U'), ('తు', '|'), ('లు', '|'), ('మా', 'U'), ('ల', '|'), ('వె', 'U'), ('జ్జు', '|'), ('లు', '|'), ('బో', 'U'), ('య', '|'), ('మా', 'U'), ('వ', '|'), ('టీ', 'U'), ('లు', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('పౌ', 'U'), ('రా', 'U'), ('ణి', '|'), ('కుల్', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('దై', 'U'), ('వ', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('బా', 'U'), ('ని', '|'), ('స', '|'), ('వే', 'U'), ('శ్య', '|'), ('లు', '|'), ('జై', 'U'), ('న', '|'), ('బా', 'U'), ('ప', '|'), ('లా', 'U'), ('డు', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('రు', '|'), ('లు', '|'), ('గ్ర', '|'), ('య', '|'), ('వ', '|'), ('న', '|'), ('ధ', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('లు', '|'), ('వై', 'U'), ('ది', '|'), ('క', '|'), ('ప్ర', '|'), ('ధా', 'U'), ('ను', '|'), ('లు', '|'), ('ను', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|')]</t>
+          <t>[('కా', 'U'), ('పు', '|'), ('క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', 'U'), ('ల్కం', 'U'), ('చ', '|'), ('ఱ', '|'), ('యో', 'U'), ('గు', '|'), ('లు', '|'), ('సా', 'U'), ('తా', 'U'), ('ని', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వు', 'U'), ('ల్సా', 'U'), ('లె', '|'), ('భ', '|'), ('టు', '|'), ('లు', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('దా', 'U'), ('త', '|'), ('లు', '|'), ('కొం', 'U'), ('టె', '|'), ('భా', 'U'), ('గో', 'U'), ('తు', '|'), ('లు', '|'), ('మా', 'U'), ('ల', '|'), ('వె', 'U'), ('జ్జు', '|'), ('లు', '|'), ('బో', 'U'), ('య', '|'), ('మా', 'U'), ('వ', '|'), ('టీ', 'U'), ('లు', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('పౌ', 'U'), ('రా', 'U'), ('ణి', '|'), ('కు', 'U'), ('ల్ప', 'U'), ('ల్లె', '|'), ('దై', 'U'), ('వ', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('బా', 'U'), ('ని', '|'), ('స', '|'), ('వే', 'U'), ('శ్య', '|'), ('లు', '|'), ('జై', 'U'), ('న', '|'), ('బా', 'U'), ('ప', '|'), ('లా', 'U'), ('డు', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('రు', '|'), ('లు', '|'), ('గ్ర', '|'), ('య', '|'), ('వ', '|'), ('న', '|'), ('ధ', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('లు', '|'), ('వై', 'U'), ('ది', '|'), ('క', '|'), ('ప్ర', '|'), ('ధా', 'U'), ('ను', '|'), ('లు', '|'), ('ను', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('బ', 'U'), ('ట్ట', 'U'), ('య్య', '|'), ('గా', 'U'), ('ళ్ళం', 'U'), ('ట', '|'), ('బ', 'U'), ('బ్బా', 'U'), ('యు', '|'), ('వం', 'U'), ('ట', '|'), ('ను', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('యుం', 'U'), ('బ', '|'), ('ను', '|'), ('కొం', 'U'), ('ట', '|'), ('బో', 'U'), ('జ', '|'), ('నా', 'U'), ('లు', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('నం', 'U'), ('ట', '|'), ('తే', 'U'), ('గా', 'U'), ('లు', '|'), ('దె', 'U'), ('మ్మ', '|'), ('ను', '|'), ('కొం', 'U'), ('ట', '|'), ('సే', 'U'), ('రి', '|'), ('బూ', 'U'), ('సుం', 'U'), ('డా', 'U'), ('లు', '|'), ('సే', 'U'), ('సు', '|'), ('కొం', 'U'), ('ట', '|'), ('యె', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కం', 'U'), ('ట', '|'), ('మ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కం', 'U'), ('ట', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('పె', '|'), ('త', '|'), ('రు', '|'), ('ల', '|'), ('పొ', '|'), ('గు', '|'), ('డు', '|'), ('కొం', 'U'), ('ట', '|'), ('క', '|'), ('ల', '|'), ('యి', 'U'), ('ర్పు', '|'), ('లె', 'U'), ('ట్టి', '|'), ('తొం', 'U'), ('ద', '|'), ('ర', '|'), ('గా', 'U'), ('గ', '|'), ('దం', 'U'), ('డ', '|'), ('కాల్', 'U'), ('స', '|'), ('త', '|'), ('కా', 'U'), ('లు', '|'), ('సో', 'U'), ('కా', 'U'), ('లు', '|'), ('స', '|'), ('తు', '|'), ('కు', '|'), ('కొం', 'U'), ('ట', '|')]</t>
+          <t>[('బ', 'U'), ('ట్ట', 'U'), ('య్య', '|'), ('గా', 'U'), ('ళ్ళం', 'U'), ('ట', '|'), ('బ', 'U'), ('బ్బా', 'U'), ('యు', '|'), ('వం', 'U'), ('ట', '|'), ('ను', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('యుం', 'U'), ('బ', '|'), ('ను', '|'), ('కొం', 'U'), ('ట', '|'), ('బో', 'U'), ('జ', '|'), ('నా', 'U'), ('లు', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('నం', 'U'), ('ట', '|'), ('తే', 'U'), ('గా', 'U'), ('లు', '|'), ('దె', 'U'), ('మ్మ', '|'), ('ను', '|'), ('కొం', 'U'), ('ట', '|'), ('సే', 'U'), ('రి', '|'), ('బూ', 'U'), ('సుం', 'U'), ('డా', 'U'), ('లు', '|'), ('సే', 'U'), ('సు', '|'), ('కొం', 'U'), ('ట', '|'), ('యె', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కం', 'U'), ('ట', '|'), ('మ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కం', 'U'), ('ట', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('పె', '|'), ('త', '|'), ('రు', '|'), ('ల', '|'), ('పొ', '|'), ('గు', '|'), ('డు', '|'), ('కొం', 'U'), ('ట', '|'), ('క', '|'), ('ల', '|'), ('యి', 'U'), ('ర్పు', '|'), ('లె', 'U'), ('ట్టి', '|'), ('తొం', 'U'), ('ద', '|'), ('ర', '|'), ('గా', 'U'), ('గ', '|'), ('దం', 'U'), ('డ', '|'), ('కా', 'U'), ('ల్స', '|'), ('త', '|'), ('కా', 'U'), ('లు', '|'), ('సో', 'U'), ('కా', 'U'), ('లు', '|'), ('స', '|'), ('తు', '|'), ('కు', '|'), ('కొం', 'U'), ('ట', '|')]</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('ఒ', '|'), ('రు', '|'), ('ల', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('సూ', 'U'), ('చి', '|'), ('యో', 'U'), ('ర్వ', '|'), ('జా', 'U'), ('ల', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('బు', '|'), ('ధ', '|'), ('జ', '|'), ('న', 'U'), ('ద్వే', 'U'), ('షం', 'U'), ('బు', '|'), ('పూ', 'U'), ('ను', '|'), ('వా', 'U'), ('డు', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('మై', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('ను', '|'), ('బ్రో', 'U'), ('వ', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('కా', 'U'), ('మి', '|'), ('ను', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('శి', '|'), ('వ', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('దూ', 'U'), ('ష', '|'), ('ణల్', 'U'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('కొం', 'U'), ('డె', '|'), ('ముల్', 'U'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('వా', 'U'), ('డు', '|'), ('భూ', 'U'), ('సు', '|'), ('ప', 'U'), ('ర్వ', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('ము', '|'), ('లు', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('వా', 'U'), ('డా', 'U'), ('డి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('లే', 'U'), ('ద', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|')]</t>
+          <t>[('ఒ', '|'), ('రు', '|'), ('ల', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('సూ', 'U'), ('చి', '|'), ('యో', 'U'), ('ర్వ', '|'), ('జా', 'U'), ('ల', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('బు', '|'), ('ధ', '|'), ('జ', '|'), ('న', 'U'), ('ద్వే', 'U'), ('షం', 'U'), ('బు', '|'), ('పూ', 'U'), ('ను', '|'), ('వా', 'U'), ('డు', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('మై', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('ను', '|'), ('బ్రో', 'U'), ('వ', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('కా', 'U'), ('మి', '|'), ('ను', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('శి', '|'), ('వ', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('దూ', 'U'), ('ష', '|'), ('ణ', 'U'), ('ల్సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('కొం', 'U'), ('డె', '|'), ('ము', 'U'), ('ల్ప', '|'), ('లు', '|'), ('కు', '|'), ('వా', 'U'), ('డు', '|'), ('భూ', 'U'), ('సు', '|'), ('ప', 'U'), ('ర్వ', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('ము', '|'), ('లు', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('వా', 'U'), ('డా', 'U'), ('డి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('లే', 'U'), ('ద', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('హు', '|'), ('పు', '|'), ('త్ర', '|'), ('సం', 'U'), ('ప', 'U'), ('త్తి', '|'), ('బ్ర', '|'), ('బ', '|'), ('లు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('ని', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('ధా', 'U'), ('త్రి', '|'), ('ని', '|'), ('లు', '|'), ('పు', '|'), ('వా', 'U'), ('రు', 'U'), ('క్షి', '|'), ('తి', '|'), ('శి', '|'), ('వో', 'U'), ('ద్వా', 'U'), ('హ', '|'), ('ముల్', 'U'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('కొం', 'U'), ('చ', '|'), ('క', '|'), ('గు', 'U'), ('ళ్ళు', '|'), ('క', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రు', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('టా', 'U'), ('క', 'U'), ('మ్ము', '|'), ('లి', 'U'), ('మ్మొ', '|'), ('న', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్వె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('వి', '|'), ('రి', '|'), ('వి', '|'), ('గా', 'U'), ('దో', 'U'), ('ట', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('వా', 'U'), ('రు', '|'), ('క', '|'), ('వి', '|'), ('బు', '|'), ('ధో', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('మి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('యం', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('గృ', '|'), ('తు', '|'), ('లం', 'U'), ('దు', '|'), ('వా', 'U'), ('రు', '|')]</t>
+          <t>[('బ', '|'), ('హు', '|'), ('పు', '|'), ('త్ర', '|'), ('సం', 'U'), ('ప', 'U'), ('త్తి', '|'), ('బ్ర', '|'), ('బ', '|'), ('లు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('ని', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('ధా', 'U'), ('త్రి', '|'), ('ని', '|'), ('లు', '|'), ('పు', '|'), ('వా', 'U'), ('రు', 'U'), ('క్షి', '|'), ('తి', '|'), ('శి', '|'), ('వో', 'U'), ('ద్వా', 'U'), ('హ', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('కొం', 'U'), ('చ', '|'), ('క', '|'), ('గు', 'U'), ('ళ్ళు', '|'), ('క', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రు', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('టా', 'U'), ('క', 'U'), ('మ్ము', '|'), ('లి', 'U'), ('మ్మొ', '|'), ('న', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్వె', '|'), ('డి', '|'), ('వా', 'U'), ('రు', '|'), ('వి', '|'), ('రి', '|'), ('వి', '|'), ('గా', 'U'), ('దో', 'U'), ('ట', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('వా', 'U'), ('రు', '|'), ('క', '|'), ('వి', '|'), ('బు', '|'), ('ధో', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('మి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('యం', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('గృ', '|'), ('తు', '|'), ('లం', 'U'), ('దు', '|'), ('వా', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('పూ', 'U'), ('దో', 'U'), ('ట', '|'), ('గా', 'U'), ('రె', '|'), ('ను', '|'), ('బో', 'U'), ('తు', '|'), ('దూ', 'U'), ('ఱి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('పై', 'U'), ('రు', '|'), ('లో', 'U'), ('బె', '|'), ('ను', '|'), ('గా', 'U'), ('బు', '|'), ('బ', '|'), ('లి', '|'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గు', '|'), ('డి', '|'), ('మీ', 'U'), ('ద', '|'), ('మ', 'U'), ('ఱ్ఱి', '|'), ('మ్రాన్', 'U'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('మీ', 'U'), ('ఱి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('చె', '|'), ('ద', '|'), ('పు', 'U'), ('ర్వు', '|'), ('న', '|'), ('కు', '|'), ('ఱె', 'U'), ('క్క', '|'), ('లొ', '|'), ('ద', '|'), ('వి', '|'), ('న', 'U'), ('ట్లు', '|'), ('వె', '|'), ('ర', '|'), ('వొ', 'U'), ('ప్ప', '|'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('న', '|'), ('వె', 'U'), ('న్ను', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('తు', '|'), ('ల', '|'), ('సి', '|'), ('లో', 'U'), ('గం', 'U'), ('జా', 'U'), ('యి', '|'), ('మొ', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('న', 'U'), ('ట్టిం', 'U'), ('ట', '|'), ('గ', '|'), ('డి', '|'), ('తం', 'U'), ('పు', '|'), ('బు', 'U'), ('ట్ట', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('గం', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('లో', 'U'), ('బే', 'U'), ('డ', '|'), ('క', '|'), ('లి', '|'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
+          <t>[('పూ', 'U'), ('దో', 'U'), ('ట', '|'), ('గా', 'U'), ('రె', '|'), ('ను', '|'), ('బో', 'U'), ('తు', '|'), ('దూ', 'U'), ('ఱి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('పై', 'U'), ('రు', '|'), ('లో', 'U'), ('బె', '|'), ('ను', '|'), ('గా', 'U'), ('బు', '|'), ('బ', '|'), ('లి', '|'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గు', '|'), ('డి', '|'), ('మీ', 'U'), ('ద', '|'), ('మ', 'U'), ('ఱ్ఱి', '|'), ('మ్రా', 'U'), ('న్గు', '|'), ('దు', '|'), ('రు', '|'), ('మీ', 'U'), ('ఱి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('చె', '|'), ('ద', '|'), ('పు', 'U'), ('ర్వు', '|'), ('న', '|'), ('కు', '|'), ('ఱె', 'U'), ('క్క', '|'), ('లొ', '|'), ('ద', '|'), ('వి', '|'), ('న', 'U'), ('ట్లు', '|'), ('వె', '|'), ('ర', '|'), ('వొ', 'U'), ('ప్ప', '|'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('న', '|'), ('వె', 'U'), ('న్ను', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('తు', '|'), ('ల', '|'), ('సి', '|'), ('లో', 'U'), ('గం', 'U'), ('జా', 'U'), ('యి', '|'), ('మొ', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('న', 'U'), ('ట్టిం', 'U'), ('ట', '|'), ('గ', '|'), ('డి', '|'), ('తం', 'U'), ('పు', '|'), ('బు', 'U'), ('ట్ట', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('గం', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('లో', 'U'), ('బే', 'U'), ('డ', '|'), ('క', '|'), ('లి', '|'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('లో', 'U'), ('బి', 'U'), ('ప్పి', '|'), ('సం', 'U'), ('గ', '|'), ('తం', 'U'), ('బై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('మొ', '|'), ('గి', '|'), ('లి', '|'), ('పు', 'U'), ('వ్వు', '|'), ('న', '|'), ('ముం', 'U'), ('డ్లు', '|'), ('మొ', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మా', 'U'), ('లి', '|'), ('పం', 'U'), ('టి', '|'), ('కి', '|'), ('జీ', 'U'), ('డి', '|'), ('మ', 'U'), ('ట్టు', '|'), ('మీ', 'U'), ('ఱి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('క', '|'), ('న', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('మ', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గొ', '|'), ('న', '|'), ('బు', '|'), ('ము', 'U'), ('త్తె', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('గొ', 'U'), ('గ్గి', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('చం', 'U'), ('ద', '|'), ('మా', 'U'), ('మ', '|'), ('కు', '|'), ('గం', 'U'), ('దు', '|'), ('వొం', 'U'), ('ది', '|'), ('న', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('ల', '|'), ('లో', 'U'), ('దో', 'U'), ('డు', '|'), ('బాల్', 'U'), ('మే', 'U'), ('ళ', '|'), ('నం', 'U'), ('బై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('గం', 'U'), ('గ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నా', 'U'), ('చు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
+          <t>[('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('లో', 'U'), ('బి', 'U'), ('ప్పి', '|'), ('సం', 'U'), ('గ', '|'), ('తం', 'U'), ('బై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('మొ', '|'), ('గి', '|'), ('లి', '|'), ('పు', 'U'), ('వ్వు', '|'), ('న', '|'), ('ముం', 'U'), ('డ్లు', '|'), ('మొ', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మా', 'U'), ('లి', '|'), ('పం', 'U'), ('టి', '|'), ('కి', '|'), ('జీ', 'U'), ('డి', '|'), ('మ', 'U'), ('ట్టు', '|'), ('మీ', 'U'), ('ఱి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('క', '|'), ('న', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('మ', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గొ', '|'), ('న', '|'), ('బు', '|'), ('ము', 'U'), ('త్తె', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('గొ', 'U'), ('గ్గి', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('చం', 'U'), ('ద', '|'), ('మా', 'U'), ('మ', '|'), ('కు', '|'), ('గం', 'U'), ('దు', '|'), ('వొం', 'U'), ('ది', '|'), ('న', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('ల', '|'), ('లో', 'U'), ('దో', 'U'), ('డు', '|'), ('బా', 'U'), ('ల్మే', 'U'), ('ళ', '|'), ('నం', 'U'), ('బై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('గం', 'U'), ('గ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నా', 'U'), ('చు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('డు', '|'), ('పా', 'U'), ('ర', '|'), ('ఘృ', '|'), ('త', '|'), ('మాం', 'U'), ('స', '|'), ('ఖం', 'U'), ('డ', '|'), ('ముల్', 'U'), ('క', '|'), ('డు', '|'), ('మె', 'U'), ('క్కి', '|'), ('పు', 'U'), ('క్కి', '|'), ('ట', '|'), ('ద', '|'), ('మ', '|'), ('లం', 'U'), ('బు', '|'), ('తు', 'U'), ('క్కు', '|'), ('ద్రొ', 'U'), ('క్కి', '|'), ('లా', 'U'), ('వ', '|'), ('గు', '|'), ('గ', '|'), ('డి', '|'), ('తం', 'U'), ('పు', '|'), ('ఠీ', 'U'), ('వి', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ని', 'U'), ('క్కి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('క', '|'), ('గే', 'U'), ('స్తు', '|'), ('ల', '|'), ('మె', '|'), ('డ', '|'), ('లు', '|'), ('నొ', 'U'), ('క్కి', '|'), ('కూ', 'U'), ('ర్చు', '|'), ('రొ', 'U'), ('క్క', '|'), ('ము', '|'), ('చం', 'U'), ('దు', '|'), ('గు', '|'), ('ల', '|'), ('గ్రి', 'U'), ('క్కి', '|'), ('ఱి', '|'), ('య', '|'), ('గ్రు', 'U'), ('క్కి', '|'), ('క', '|'), ('స', '|'), ('రు', '|'), ('చు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('పై', 'U'), ('వి', '|'), ('స', '|'), ('ము', '|'), ('గ్ర', 'U'), ('క్కి', '|'), ('క', '|'), ('వి', '|'), ('బు', '|'), ('ధ', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('ఢా', 'U'), ('క', '|'), ('ల', '|'), ('కు', '|'), ('మూ', 'U'), ('ల', '|'), ('ల', '|'), ('జి', 'U'), ('క్కి', '|'), ('క', 'U'), ('క్కు', '|'), ('చు', '|'), ('బ', 'U'), ('ల్ల', '|'), ('కీ', 'U'), ('కు', 'U'), ('క్కు', '|'), ('లె', 'U'), ('క్కి', '|')]</t>
+          <t>[('క', '|'), ('డు', '|'), ('పా', 'U'), ('ర', '|'), ('ఘృ', '|'), ('త', '|'), ('మాం', 'U'), ('స', '|'), ('ఖం', 'U'), ('డ', '|'), ('ము', 'U'), ('ల్క', '|'), ('డు', '|'), ('మె', 'U'), ('క్కి', '|'), ('పు', 'U'), ('క్కి', '|'), ('ట', '|'), ('ద', '|'), ('మ', '|'), ('లం', 'U'), ('బు', '|'), ('తు', 'U'), ('క్కు', '|'), ('ద్రొ', 'U'), ('క్కి', '|'), ('లా', 'U'), ('వ', '|'), ('గు', '|'), ('గ', '|'), ('డి', '|'), ('తం', 'U'), ('పు', '|'), ('ఠీ', 'U'), ('వి', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ని', 'U'), ('క్కి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('క', '|'), ('గే', 'U'), ('స్తు', '|'), ('ల', '|'), ('మె', '|'), ('డ', '|'), ('లు', '|'), ('నొ', 'U'), ('క్కి', '|'), ('కూ', 'U'), ('ర్చు', '|'), ('రొ', 'U'), ('క్క', '|'), ('ము', '|'), ('చం', 'U'), ('దు', '|'), ('గు', '|'), ('ల', '|'), ('గ్రి', 'U'), ('క్కి', '|'), ('ఱి', '|'), ('య', '|'), ('గ్రు', 'U'), ('క్కి', '|'), ('క', '|'), ('స', '|'), ('రు', '|'), ('చు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('పై', 'U'), ('వి', '|'), ('స', '|'), ('ము', '|'), ('గ్ర', 'U'), ('క్కి', '|'), ('క', '|'), ('వి', '|'), ('బు', '|'), ('ధ', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('ఢా', 'U'), ('క', '|'), ('ల', '|'), ('కు', '|'), ('మూ', 'U'), ('ల', '|'), ('ల', '|'), ('జి', 'U'), ('క్కి', '|'), ('క', 'U'), ('క్కు', '|'), ('చు', '|'), ('బ', 'U'), ('ల్ల', '|'), ('కీ', 'U'), ('కు', 'U'), ('క్కు', '|'), ('లె', 'U'), ('క్కి', '|')]</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('న', '|'), ('య', 'U'), ('మ్ము', '|'), ('రా', 'U'), ('జ్యాం', 'U'), ('త', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('ము', '|'), ('ధ్రు', '|'), ('వ', 'U'), ('మ్మ', '|'), ('ని', 'U'), ('స్మృ', '|'), ('తుల్', 'U'), ('వ', '|'), ('చి', '|'), ('యిం', 'U'), ('ప', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('ము', '|'), ('ను', '|'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్రా', 'U'), ('ది', '|'), ('మ', '|'), ('ను', '|'), ('జేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('న', '|'), ('ఘు', '|'), ('లై', 'U'), ('చ', '|'), ('ని', '|'), ('ర', 'U'), ('న్న', '|'), ('స', 'U'), ('త్క', '|'), ('థల్', 'U'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('రుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('ద', '|'), ('ట', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('ల', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వె', '|'), ('త', '|'), ('బె', 'U'), ('ట్టు', '|'), ('న', '|'), ('ను', '|'), ('మా', 'U'), ('ట', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('న', '|'), ('జా', 'U'), ('త', 'U'), ('స్య', '|'), ('మ', '|'), ('ర', '|'), ('ణం', 'U'), ('ధ్రు', '|'), ('వ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వి', '|'), ('బు', '|'), ('ధు', '|'), ('లు', '|'), ('ప', '|'), ('లు', '|'), ('కం', 'U'), ('గ', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|')]</t>
+          <t>[('అ', '|'), ('న', '|'), ('య', 'U'), ('మ్ము', '|'), ('రా', 'U'), ('జ్యాం', 'U'), ('త', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('ము', '|'), ('ధ్రు', '|'), ('వ', 'U'), ('మ్మ', '|'), ('ని', 'U'), ('స్మృ', '|'), ('తు', 'U'), ('ల్వ', '|'), ('చి', '|'), ('యిం', 'U'), ('ప', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('ము', '|'), ('ను', '|'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్రా', 'U'), ('ది', '|'), ('మ', '|'), ('ను', '|'), ('జేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('న', '|'), ('ఘు', '|'), ('లై', 'U'), ('చ', '|'), ('ని', '|'), ('ర', 'U'), ('న్న', '|'), ('స', 'U'), ('త్క', '|'), ('థ', 'U'), ('ల్వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('రుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('ద', '|'), ('ట', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('ల', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వె', '|'), ('త', '|'), ('బె', 'U'), ('ట్టు', '|'), ('న', '|'), ('ను', '|'), ('మా', 'U'), ('ట', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('న', '|'), ('జా', 'U'), ('త', 'U'), ('స్య', '|'), ('మ', '|'), ('ర', '|'), ('ణం', 'U'), ('ధ్రు', '|'), ('వ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వి', '|'), ('బు', '|'), ('ధు', '|'), ('లు', '|'), ('ప', '|'), ('లు', '|'), ('కం', 'U'), ('గ', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('దొ', '|')]</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('రు', '|'), ('మ', '|'), ('రీ', 'U'), ('చి', '|'), ('క', '|'), ('లు', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('ప', '|'), ('త్రాం', 'U'), ('త', '|'), ('ర', '|'), ('స', '|'), ('లి', '|'), ('ల', '|'), ('బిం', 'U'), ('దు', '|'), ('వు', '|'), ('లు', '|'), ('చం', 'U'), ('చ', '|'), ('ల', '|'), ('లు', '|'), ('హ', 'U'), ('స్తి', '|'), ('క', 'U'), ('ర్ణాం', 'U'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('దీ', 'U'), ('ప', '|'), ('క', '|'), ('ళి', '|'), ('కా', 'U'), ('శి', '|'), ('ఖ', '|'), ('లు', '|'), ('బు', 'U'), ('ద్బు', '|'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('లి', '|'), ('చే', 'U'), ('తి', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('మి', '|'), ('ణు', '|'), ('గు', '|'), ('రు', '|'), ('బు', '|'), ('రు', '|'), ('వు', '|'), ('ల', '|'), ('మె', '|'), ('ఱ', '|'), ('పు', '|'), ('ల', '|'), ('భ్ర', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('లైం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('లి', '|'), ('కు', '|'), ('నా', 'U'), ('ట', '|'), ('లం', 'U'), ('బు', '|'), ('రా', 'U'), ('శి', '|'), ('వీ', 'U'), ('చు', '|'), ('లు', '|'), ('చ', '|'), ('ల', '|'), ('ద', '|'), ('ళ', '|'), ('వృ', 'U'), ('క్ష', '|'), ('ప', '|'), ('లా', 'U'), ('శ', '|'), ('ముల్', 'U'), ('తృ', '|'), ('ణ', '|'), ('హు', '|'), ('తా', 'U'), ('శ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('తె', '|'), ('ఱ', '|'), ('గు', '|'), ('లి', 'U'), ('ట్టి', '|')]</t>
+          <t>[('మ', '|'), ('రు', '|'), ('మ', '|'), ('రీ', 'U'), ('చి', '|'), ('క', '|'), ('లు', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('ప', '|'), ('త్రాం', 'U'), ('త', '|'), ('ర', '|'), ('స', '|'), ('లి', '|'), ('ల', '|'), ('బిం', 'U'), ('దు', '|'), ('వు', '|'), ('లు', '|'), ('చం', 'U'), ('చ', '|'), ('ల', '|'), ('లు', '|'), ('హ', 'U'), ('స్తి', '|'), ('క', 'U'), ('ర్ణాం', 'U'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('దీ', 'U'), ('ప', '|'), ('క', '|'), ('ళి', '|'), ('కా', 'U'), ('శి', '|'), ('ఖ', '|'), ('లు', '|'), ('బు', 'U'), ('ద్బు', '|'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('లి', '|'), ('చే', 'U'), ('తి', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('మి', '|'), ('ణు', '|'), ('గు', '|'), ('రు', '|'), ('బు', '|'), ('రు', '|'), ('వు', '|'), ('ల', '|'), ('మె', '|'), ('ఱ', '|'), ('పు', '|'), ('ల', '|'), ('భ్ర', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('లైం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('లి', '|'), ('కు', '|'), ('నా', 'U'), ('ట', '|'), ('లం', 'U'), ('బు', '|'), ('రా', 'U'), ('శి', '|'), ('వీ', 'U'), ('చు', '|'), ('లు', '|'), ('చ', '|'), ('ల', '|'), ('ద', '|'), ('ళ', '|'), ('వృ', 'U'), ('క్ష', '|'), ('ప', '|'), ('లా', 'U'), ('శ', '|'), ('ము', 'U'), ('ల్తృ', '|'), ('ణ', '|'), ('హు', '|'), ('తా', 'U'), ('శ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('తె', '|'), ('ఱ', '|'), ('గు', '|'), ('లి', 'U'), ('ట్టి', '|')]</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[('కో', 'U'), ('ప', '|'), ('మె', 'U'), ('క్కు', '|'), ('వ', '|'), ('తా', 'U'), ('ల్మి', '|'), ('కొ', '|'), ('ఱ', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('సు', 'U'), ('న్న', '|'), ('ని', '|'), ('లు', '|'), ('క', '|'), ('డ', '|'), ('నా', 'U'), ('స్తి', '|'), ('దు', 'U'), ('ర్నీ', 'U'), ('తి', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('క', '|'), ('ని', '|'), ('క', '|'), ('రం', 'U'), ('బి', 'U'), ('ల్ల', '|'), ('దు', 'U'), ('ర్గ', 'U'), ('ర్వ', '|'), ('మ', 'U'), ('గ్గ', '|'), ('ము', '|'), ('స', 'U'), ('త్య', '|'), ('కౌ', 'U'), ('చ', '|'), ('ముల్', 'U'), ('క', 'U'), ('ల్ల', '|'), ('మ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ము', '|'), ('హె', 'U'), ('చ్చు', '|'), ('కా', 'U'), ('ప', 'U'), ('ట్య', '|'), ('ము', '|'), ('రు', '|'), ('వ', '|'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('ట', 'U'), ('మ్ము', '|'), ('పొ', '|'), ('గ', '|'), ('రు', '|'), ('ద', 'U'), ('ట్ట', '|'), ('ము', '|'), ('ద్రో', 'U'), ('హ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('ద', '|'), ('ళ', '|'), ('ము', '|'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('నా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('ని', 'U'), ('బ్బ', '|'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('భ', '|'), ('ము', '|'), ('పె', 'U'), ('ల్లు', '|'), ('ప', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('చిం', 'U'), ('త', '|'), ('ని', 'U'), ('ప్ప', 'U'), ('చ్చ', '|'), ('ర', 'U'), ('మ్ము', '|')]</t>
+          <t>[('కో', 'U'), ('ప', '|'), ('మె', 'U'), ('క్కు', '|'), ('వ', '|'), ('తా', 'U'), ('ల్మి', '|'), ('కొ', '|'), ('ఱ', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('సు', 'U'), ('న్న', '|'), ('ని', '|'), ('లు', '|'), ('క', '|'), ('డ', '|'), ('నా', 'U'), ('స్తి', '|'), ('దు', 'U'), ('ర్నీ', 'U'), ('తి', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('క', '|'), ('ని', '|'), ('క', '|'), ('రం', 'U'), ('బి', 'U'), ('ల్ల', '|'), ('దు', 'U'), ('ర్గ', 'U'), ('ర్వ', '|'), ('మ', 'U'), ('గ్గ', '|'), ('ము', '|'), ('స', 'U'), ('త్య', '|'), ('కౌ', 'U'), ('చ', '|'), ('ము', 'U'), ('ల్క', 'U'), ('ల్ల', '|'), ('మ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ము', '|'), ('హె', 'U'), ('చ్చు', '|'), ('కా', 'U'), ('ప', 'U'), ('ట్య', '|'), ('ము', '|'), ('రు', '|'), ('వ', '|'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('ట', 'U'), ('మ్ము', '|'), ('పొ', '|'), ('గ', '|'), ('రు', '|'), ('ద', 'U'), ('ట్ట', '|'), ('ము', '|'), ('ద్రో', 'U'), ('హ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('ద', '|'), ('ళ', '|'), ('ము', '|'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('నా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('ని', 'U'), ('బ్బ', '|'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('భ', '|'), ('ము', '|'), ('పె', 'U'), ('ల్లు', '|'), ('ప', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('చిం', 'U'), ('త', '|'), ('ని', 'U'), ('ప్ప', 'U'), ('చ్చ', '|'), ('ర', 'U'), ('మ్ము', '|')]</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[('అం', 'U'), ('ద', '|'), ('లం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('ట', '|'), ('య', '|'), ('వ', '|'), ('ని', '|'), ('బ్ర', '|'), ('శ', 'U'), ('స్త', '|'), ('మా', 'U'), ('మ్రా', 'U'), ('నె', 'U'), ('క్కి', '|'), ('ని', 'U'), ('క్క', '|'), ('దే', 'U'), ('మ', 'U'), ('ర్క', '|'), ('టం', 'U'), ('బు', '|'), ('తొ', '|'), ('డ', '|'), ('వు', '|'), ('లు', '|'), ('దొ', '|'), ('డు', '|'), ('గు', '|'), ('ట', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మా', 'U'), ('క', '|'), ('డు', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('లూ', 'U'), ('న', '|'), ('దే', 'U'), ('గం', 'U'), ('గి', '|'), ('రె', 'U'), ('ద్దు', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('ట', '|'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('బ్ర', '|'), ('చా', 'U'), ('ర', '|'), ('మా', 'U'), ('బ', '|'), ('హు', '|'), ('ని', '|'), ('ధుల్', 'U'), ('గా', 'U'), ('వ', '|'), ('డే', 'U'), ('భై', 'U'), ('ర', '|'), ('వుం', 'U'), ('డు', '|'), ('ప్ర', '|'), ('జ', '|'), ('ల', '|'), ('దం', 'U'), ('డిం', 'U'), ('చు', '|'), ('ట', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('మా', 'U'), ('ప్రా', 'U'), ('ణు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ప', '|'), ('డే', 'U'), ('జ', '|'), ('ముం', 'U'), ('డు', '|')]</t>
+          <t>[('అం', 'U'), ('ద', '|'), ('లం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('ట', '|'), ('య', '|'), ('వ', '|'), ('ని', '|'), ('బ్ర', '|'), ('శ', 'U'), ('స్త', '|'), ('మా', 'U'), ('మ్రా', 'U'), ('నె', 'U'), ('క్కి', '|'), ('ని', 'U'), ('క్క', '|'), ('దే', 'U'), ('మ', 'U'), ('ర్క', '|'), ('టం', 'U'), ('బు', '|'), ('తొ', '|'), ('డ', '|'), ('వు', '|'), ('లు', '|'), ('దొ', '|'), ('డు', '|'), ('గు', '|'), ('ట', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మా', 'U'), ('క', '|'), ('డు', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('లూ', 'U'), ('న', '|'), ('దే', 'U'), ('గం', 'U'), ('గి', '|'), ('రె', 'U'), ('ద్దు', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('ట', '|'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('బ్ర', '|'), ('చా', 'U'), ('ర', '|'), ('మా', 'U'), ('బ', '|'), ('హు', '|'), ('ని', '|'), ('ధు', 'U'), ('ల్గా', 'U'), ('వ', '|'), ('డే', 'U'), ('భై', 'U'), ('ర', '|'), ('వుం', 'U'), ('డు', '|'), ('ప్ర', '|'), ('జ', '|'), ('ల', '|'), ('దం', 'U'), ('డిం', 'U'), ('చు', '|'), ('ట', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('మా', 'U'), ('ప్రా', 'U'), ('ణు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ప', '|'), ('డే', 'U'), ('జ', '|'), ('ముం', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[('మొ', '|'), ('ద', '|'), ('వు', '|'), ('ల', '|'), ('బ', '|'), ('ది', '|'), ('వే', 'U'), ('లు', '|'), ('క', '|'), ('దు', '|'), ('పు', '|'), ('లు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('దూ', 'U'), ('డ', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('యై', 'U'), ('న', '|'), ('దో', 'U'), ('డ', '|'), ('రా', 'U'), ('దు', '|'), ('మా', 'U'), ('త', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('ముల్', 'U'), ('మా', 'U'), ('టు', '|'), ('గా', 'U'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('వీ', 'U'), ('స', '|'), ('ము', '|'), ('ను', '|'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('ని', '|'), ('రా', 'U'), ('దు', '|'), ('కో', 'U'), ('క', '|'), ('లు', '|'), ('మే', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('గొ', 'U'), ('ట్ల', '|'), ('నిం', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', '|'), ('గు', 'U'), ('డ్డ', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('యై', 'U'), ('న', '|'), ('గూ', 'U'), ('డ', '|'), ('రా', 'U'), ('ము', '|'), ('గొ', '|'), ('లు', '|'), ('సు', '|'), ('లు', '|'), ('రా', 'U'), ('సు', '|'), ('లు', '|'), ('బ', '|'), ('లు', '|'), ('పా', 'U'), ('త', '|'), ('ర', '|'), ('ల', '|'), ('ని', 'U'), ('డ్డ', '|'), ('గిం', 'U'), ('జ', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('య', '|'), ('న', '|'), ('గె', '|'), ('ల', '|'), ('న', '|'), ('రా', 'U'), ('దు', '|')]</t>
+          <t>[('మొ', '|'), ('ద', '|'), ('వు', '|'), ('ల', '|'), ('బ', '|'), ('ది', '|'), ('వే', 'U'), ('లు', '|'), ('క', '|'), ('దు', '|'), ('పు', '|'), ('లు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('దూ', 'U'), ('డ', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('యై', 'U'), ('న', '|'), ('దో', 'U'), ('డ', '|'), ('రా', 'U'), ('దు', '|'), ('మా', 'U'), ('త', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('టు', '|'), ('గా', 'U'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('వీ', 'U'), ('స', '|'), ('ము', '|'), ('ను', '|'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('ని', '|'), ('రా', 'U'), ('దు', '|'), ('కో', 'U'), ('క', '|'), ('లు', '|'), ('మే', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('గొ', 'U'), ('ట్ల', '|'), ('నిం', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', '|'), ('గు', 'U'), ('డ్డ', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('యై', 'U'), ('న', '|'), ('గూ', 'U'), ('డ', '|'), ('రా', 'U'), ('ము', '|'), ('గొ', '|'), ('లు', '|'), ('సు', '|'), ('లు', '|'), ('రా', 'U'), ('సు', '|'), ('లు', '|'), ('బ', '|'), ('లు', '|'), ('పా', 'U'), ('త', '|'), ('ర', '|'), ('ల', '|'), ('ని', 'U'), ('డ్డ', '|'), ('గిం', 'U'), ('జ', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('య', '|'), ('న', '|'), ('గె', '|'), ('ల', '|'), ('న', '|'), ('రా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('వు', '|'), ('న', '|'), ('నొ', '|'), ('డ', 'U'), ('ళ్ళు', '|'), ('ని', 'U'), ('ల్క', '|'), ('డల్', 'U'), ('కా', 'U'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('సు', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
+          <t>[('కా', 'U'), ('వు', '|'), ('న', '|'), ('నొ', '|'), ('డ', 'U'), ('ళ్ళు', '|'), ('ని', 'U'), ('ల్క', '|'), ('డ', 'U'), ('ల్కా', 'U'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('సు', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('సే', 'U'), ('యు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('భూ', 'U'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('పీ', 'U'), ('ఠి', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('కు', '|'), ('ము', '|'), ('ద', '|'), ('హి', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('కు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[('కొం', 'U'), ('డం', 'U'), ('త', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('గూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('బొ', '|'), ('ద', '|'), ('లు', '|'), ('ధ', '|'), ('నా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('పో', 'U'), ('దు', 'U'), ('స్వ', 'U'), ('ర్గా', 'U'), ('ధి', '|'), ('ప', 'U'), ('త్యం', 'U'), ('బు', '|'), ('సం', 'U'), ('భ', '|'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('యే', 'U'), ('ని', '|'), ('బ', '|'), ('హు', '|'), ('రా', 'U'), ('జ్య', '|'), ('కాం', 'U'), ('క్ష', '|'), ('యె', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కి', '|'), ('జ', '|'), ('న', '|'), ('దు', '|'), ('ప', '|'), ('ది', '|'), ('వే', 'U'), ('లు', '|'), ('పు', '|'), ('త్రు', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('సి', '|'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('పు', '|'), ('త్రో', 'U'), ('ద', '|'), ('య', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('పో', 'U'), ('వ', '|'), ('దె', '|'), ('పు', '|'), ('డు', '|'), ('చ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('ముల్', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('సే', 'U'), ('నా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('మిం', 'U'), ('తై', 'U'), ('న', '|'), ('దీ', 'U'), ('ఱ', '|')]</t>
+          <t>[('కొం', 'U'), ('డం', 'U'), ('త', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('గూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('బొ', '|'), ('ద', '|'), ('లు', '|'), ('ధ', '|'), ('నా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('పో', 'U'), ('దు', 'U'), ('స్వ', 'U'), ('ర్గా', 'U'), ('ధి', '|'), ('ప', 'U'), ('త్యం', 'U'), ('బు', '|'), ('సం', 'U'), ('భ', '|'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('యే', 'U'), ('ని', '|'), ('బ', '|'), ('హు', '|'), ('రా', 'U'), ('జ్య', '|'), ('కాం', 'U'), ('క్ష', '|'), ('యె', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కి', '|'), ('జ', '|'), ('న', '|'), ('దు', '|'), ('ప', '|'), ('ది', '|'), ('వే', 'U'), ('లు', '|'), ('పు', '|'), ('త్రు', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('సి', '|'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('పు', '|'), ('త్రో', 'U'), ('ద', '|'), ('య', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('పో', 'U'), ('వ', '|'), ('దె', '|'), ('పు', '|'), ('డు', '|'), ('చ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('ము', 'U'), ('ల్గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('సే', 'U'), ('నా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('మిం', 'U'), ('తై', 'U'), ('న', '|'), ('దీ', 'U'), ('ఱ', '|')]</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('డ', '|'), ('చి', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('జ', '|'), ('వం', 'U'), ('బ', '|'), ('డ', '|'), ('ర', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లా', 'U'), ('డ', '|'), ('బో', 'U'), ('వ', '|'), ('రా', 'U'), ('దు', '|'), ('కా', 'U'), ('సు', '|'), ('వీ', 'U'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('దా', 'U'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('క్రి', '|'), ('యల్', 'U'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('రు', 'U'), ('గ్బా', 'U'), ('ధ', '|'), ('త', '|'), ('ర', '|'), ('ల', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', 'U'), ('స్నా', 'U'), ('న', '|'), ('జ', '|'), ('పా', 'U'), ('దు', '|'), ('లు', '|'), ('స', '|'), ('లు', '|'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('గ', '|'), ('డి', '|'), ('తం', 'U'), ('పు', '|'), ('టా', 'U'), ('క', '|'), ('లి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('యు', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('నుం', 'U'), ('డ', '|'), ('రా', 'U'), ('దు', '|')]</t>
+          <t>[('న', '|'), ('డ', '|'), ('చి', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('జ', '|'), ('వం', 'U'), ('బ', '|'), ('డ', '|'), ('ర', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లా', 'U'), ('డ', '|'), ('బో', 'U'), ('వ', '|'), ('రా', 'U'), ('దు', '|'), ('కా', 'U'), ('సు', '|'), ('వీ', 'U'), ('స', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('దా', 'U'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('క్రి', '|'), ('య', 'U'), ('ల్త', '|'), ('ల', '|'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('రు', 'U'), ('గ్బా', 'U'), ('ధ', '|'), ('త', '|'), ('ర', '|'), ('ల', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', 'U'), ('స్నా', 'U'), ('న', '|'), ('జ', '|'), ('పా', 'U'), ('దు', '|'), ('లు', '|'), ('స', '|'), ('లు', '|'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('గ', '|'), ('డి', '|'), ('తం', 'U'), ('పు', '|'), ('టా', 'U'), ('క', '|'), ('లి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('యు', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('నుం', 'U'), ('డ', '|'), ('రా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('ణి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('చా', 'U'), ('మ', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('ము', 'U'), ('త్యా', 'U'), ('ల', '|'), ('గొ', '|'), ('డు', '|'), ('గు', '|'), ('లు', '|'), ('ప', '|'), ('డి', '|'), ('గ', '|'), ('లు', '|'), ('గు', 'U'), ('జ్జు', '|'), ('ప', '|'), ('ర', '|'), ('పు', '|'), ('మి', 'U'), ('ద్దె', '|'), ('టి', 'U'), ('ళ్ళు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ద్ది', '|'), ('యల్', 'U'), ('చం', 'U'), ('దు', '|'), ('గల్', 'U'), ('చం', 'U'), ('దు', '|'), ('వాల్', 'U'), ('మం', 'U'), ('ద', '|'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('పూ', 'U'), ('ల', '|'), ('పా', 'U'), ('న్పు', '|'), ('లు', '|'), ('శీ', 'U'), ('ర', '|'), ('తా', 'U'), ('ళ', '|'), ('వృం', 'U'), ('త', '|'), ('ము', '|'), ('మేల్', 'U'), ('క', '|'), ('ల', '|'), ('ప', '|'), ('ముల్', 'U'), ('తూ', 'U'), ('గు', '|'), ('టు', 'U'), ('య్యె', '|'), ('ల', '|'), ('లు', '|'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('ప', 'U'), ('ల్ల', '|'), ('కీ', 'U'), ('లు', '|'), ('గు', '|'), ('ఱా', 'U'), ('లు', '|'), ('బం', 'U'), ('ట్లు', '|'), ('బా', 'U'), ('ని', '|'), ('స', '|'), ('లు', '|'), ('ను', '|'), ('ధ', '|'), ('న', '|'), ('ధా', 'U'), ('న్య', '|'), ('వ', '|'), ('స', '|'), ('న', '|'), ('గో', 'U'), ('దం', 'U'), ('తి', '|'), ('త', '|'), ('తు', '|'), ('లు', '|')]</t>
+          <t>[('మ', '|'), ('ణి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('చా', 'U'), ('మ', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('ము', 'U'), ('త్యా', 'U'), ('ల', '|'), ('గొ', '|'), ('డు', '|'), ('గు', '|'), ('లు', '|'), ('ప', '|'), ('డి', '|'), ('గ', '|'), ('లు', '|'), ('గు', 'U'), ('జ్జు', '|'), ('ప', '|'), ('ర', '|'), ('పు', '|'), ('మి', 'U'), ('ద్దె', '|'), ('టి', 'U'), ('ళ్ళు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ము', 'U'), ('ల్గ', 'U'), ('ద్ది', '|'), ('య', 'U'), ('ల్చం', 'U'), ('దు', '|'), ('గ', 'U'), ('ల్చం', 'U'), ('దు', '|'), ('వా', 'U'), ('ల్మం', 'U'), ('ద', '|'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('పూ', 'U'), ('ల', '|'), ('పా', 'U'), ('న్పు', '|'), ('లు', '|'), ('శీ', 'U'), ('ర', '|'), ('తా', 'U'), ('ళ', '|'), ('వృం', 'U'), ('త', '|'), ('ము', '|'), ('మే', 'U'), ('ల్క', '|'), ('ల', '|'), ('ప', '|'), ('ము', 'U'), ('ల్తూ', 'U'), ('గు', '|'), ('టు', 'U'), ('య్యె', '|'), ('ల', '|'), ('లు', '|'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('ప', 'U'), ('ల్ల', '|'), ('కీ', 'U'), ('లు', '|'), ('గు', '|'), ('ఱా', 'U'), ('లు', '|'), ('బం', 'U'), ('ట్లు', '|'), ('బా', 'U'), ('ని', '|'), ('స', '|'), ('లు', '|'), ('ను', '|'), ('ధ', '|'), ('న', '|'), ('ధా', 'U'), ('న్య', '|'), ('వ', '|'), ('స', '|'), ('న', '|'), ('గో', 'U'), ('దం', 'U'), ('తి', '|'), ('త', '|'), ('తు', '|'), ('లు', '|')]</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[('కుం', 'U'), ('భి', '|'), ('కుం', 'U'), ('భ', 'U'), ('స్థ', '|'), ('లా', 'U'), ('క్షు', '|'), ('ద్రా', 'U'), ('మి', '|'), ('ష', '|'), ('ము', '|'), ('మె', 'U'), ('క్కు', '|'), ('సిం', 'U'), ('గం', 'U'), ('బు', '|'), ('క', 'U'), ('ప్ప', '|'), ('ల', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('జ', '|'), ('ను', '|'), ('నె', '|'), ('సా', 'U'), ('ర', '|'), ('భూ', 'U'), ('రు', '|'), ('హ', '|'), ('ఫ', '|'), ('లా', 'U'), ('హా', 'U'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('కీ', 'U'), ('ర', '|'), ('ము', 'U'), ('మ్మె', '|'), ('త', '|'), ('ల', '|'), ('జే', 'U'), ('రు', '|'), ('కొ', '|'), ('ను', '|'), ('నె', '|'), ('య', '|'), ('భ్రా', 'U'), ('ప', '|'), ('గా', 'U'), ('హా', 'U'), ('ట', '|'), ('కా', 'U'), ('బ్జ', '|'), ('మృ', '|'), ('ణా', 'U'), ('ళ', '|'), ('ముల్', 'U'), ('కొ', '|'), ('ను', '|'), ('నం', 'U'), ('చ', '|'), ('బు', '|'), ('ర', '|'), ('ద', '|'), ('వా', 'U'), ('గు', '|'), ('ల', '|'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('నె', '|'), ('ప్ర', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('ర్షాం', 'U'), ('బు', '|'), ('ధా', 'U'), ('ర', '|'), ('లు', '|'), ('గ్రో', 'U'), ('లు', '|'), ('వా', 'U'), ('న', '|'), ('కో', 'U'), ('యి', '|'), ('ల', '|'), ('యి', '|'), ('ల', '|'), ('మం', 'U'), ('చు', '|'), ('సో', 'U'), ('న', '|'), ('ల', '|'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('నె', '|')]</t>
+          <t>[('కుం', 'U'), ('భి', '|'), ('కుం', 'U'), ('భ', 'U'), ('స్థ', '|'), ('లా', 'U'), ('క్షు', '|'), ('ద్రా', 'U'), ('మి', '|'), ('ష', '|'), ('ము', '|'), ('మె', 'U'), ('క్కు', '|'), ('సిం', 'U'), ('గం', 'U'), ('బు', '|'), ('క', 'U'), ('ప్ప', '|'), ('ల', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('జ', '|'), ('ను', '|'), ('నె', '|'), ('సా', 'U'), ('ర', '|'), ('భూ', 'U'), ('రు', '|'), ('హ', '|'), ('ఫ', '|'), ('లా', 'U'), ('హా', 'U'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('కీ', 'U'), ('ర', '|'), ('ము', 'U'), ('మ్మె', '|'), ('త', '|'), ('ల', '|'), ('జే', 'U'), ('రు', '|'), ('కొ', '|'), ('ను', '|'), ('నె', '|'), ('య', '|'), ('భ్రా', 'U'), ('ప', '|'), ('గా', 'U'), ('హా', 'U'), ('ట', '|'), ('కా', 'U'), ('బ్జ', '|'), ('మృ', '|'), ('ణా', 'U'), ('ళ', '|'), ('ము', 'U'), ('ల్కొ', '|'), ('ను', '|'), ('నం', 'U'), ('చ', '|'), ('బు', '|'), ('ర', '|'), ('ద', '|'), ('వా', 'U'), ('గు', '|'), ('ల', '|'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('నె', '|'), ('ప్ర', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('ర్షాం', 'U'), ('బు', '|'), ('ధా', 'U'), ('ర', '|'), ('లు', '|'), ('గ్రో', 'U'), ('లు', '|'), ('వా', 'U'), ('న', '|'), ('కో', 'U'), ('యి', '|'), ('ల', '|'), ('యి', '|'), ('ల', '|'), ('మం', 'U'), ('చు', '|'), ('సో', 'U'), ('న', '|'), ('ల', '|'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[('ఎ', '|'), ('ను', '|'), ('బో', 'U'), ('తు', '|'), ('న', '|'), ('కు', '|'), ('వి', 'U'), ('ద్దె', '|'), ('లె', 'U'), ('న్నిం', 'U'), ('టి', '|'), ('నే', 'U'), ('ర్పి', '|'), ('న', '|'), ('మ', '|'), ('డు', '|'), ('గు', '|'), ('న', '|'), ('కే', 'U'), ('గు', '|'), ('టల్', 'U'), ('మా', 'U'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('శు', '|'), ('న', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('నె', 'U'), ('న్ని', '|'), ('సూ', 'U'), ('డి', '|'), ('దల్', 'U'), ('వె', 'U'), ('ట్టి', '|'), ('న', '|'), ('బు', 'U'), ('ల్లె', '|'), ('లు', '|'), ('నా', 'U'), ('క', '|'), ('క', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('కె', 'U'), ('న్ని', '|'), ('సిం', 'U'), ('గా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('ది', 'U'), ('ద్ది', '|'), ('న', '|'), ('బూ', 'U'), ('డ్దె', '|'), ('లో', 'U'), ('బొ', '|'), ('ర', '|'), ('ల', '|'), ('క', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('యూ', 'U'), ('ర', '|'), ('బం', 'U'), ('ది', '|'), ('కి', '|'), ('నె', 'U'), ('న్ని', '|'), ('తీ', 'U'), ('రు', '|'), ('ల', '|'), ('మే', 'U'), ('పి', '|'), ('న', '|'), ('బ', '|'), ('ర', '|'), ('గ', 'U'), ('ళ్ళ', '|'), ('కే', 'U'), ('గ', '|'), ('క', '|'), ('బ్ర', '|'), ('దు', '|'), ('క', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|')]</t>
+          <t>[('ఎ', '|'), ('ను', '|'), ('బో', 'U'), ('తు', '|'), ('న', '|'), ('కు', '|'), ('వి', 'U'), ('ద్దె', '|'), ('లె', 'U'), ('న్నిం', 'U'), ('టి', '|'), ('నే', 'U'), ('ర్పి', '|'), ('న', '|'), ('మ', '|'), ('డు', '|'), ('గు', '|'), ('న', '|'), ('కే', 'U'), ('గు', '|'), ('ట', 'U'), ('ల్మా', 'U'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('శు', '|'), ('న', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('నె', 'U'), ('న్ని', '|'), ('సూ', 'U'), ('డి', '|'), ('ద', 'U'), ('ల్వె', 'U'), ('ట్టి', '|'), ('న', '|'), ('బు', 'U'), ('ల్లె', '|'), ('లు', '|'), ('నా', 'U'), ('క', '|'), ('క', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('కె', 'U'), ('న్ని', '|'), ('సిం', 'U'), ('గా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్ది', 'U'), ('ద్ది', '|'), ('న', '|'), ('బూ', 'U'), ('డ్దె', '|'), ('లో', 'U'), ('బొ', '|'), ('ర', '|'), ('ల', '|'), ('క', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('యూ', 'U'), ('ర', '|'), ('బం', 'U'), ('ది', '|'), ('కి', '|'), ('నె', 'U'), ('న్ని', '|'), ('తీ', 'U'), ('రు', '|'), ('ల', '|'), ('మే', 'U'), ('పి', '|'), ('న', '|'), ('బ', '|'), ('ర', '|'), ('గ', 'U'), ('ళ్ళ', '|'), ('కే', 'U'), ('గ', '|'), ('క', '|'), ('బ్ర', '|'), ('దు', '|'), ('క', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
